--- a/JupyterNotebooks/AvgHW/SA-HW45.xlsx
+++ b/JupyterNotebooks/AvgHW/SA-HW45.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,37 +82,37 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[4, 2, 0]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[3, 3, 3]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
+    <t>[3, 1, 1]</t>
+  </si>
+  <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
     <t>[2, 2, 2]</t>
   </si>
   <si>
-    <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 3]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
+    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,13 +500,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ19"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:43">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,68 +573,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:43">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -630,130 +582,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -761,37 +653,37 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.0001862139065</v>
+        <v>0.9999441364388246</v>
       </c>
       <c r="D3">
         <v>0.9997206793160465</v>
       </c>
       <c r="E3">
+        <v>1.0001862139065</v>
+      </c>
+      <c r="F3">
+        <v>0.9997206793160465</v>
+      </c>
+      <c r="G3">
         <v>1.000069829081396</v>
-      </c>
-      <c r="F3">
-        <v>1.0001862139065</v>
-      </c>
-      <c r="G3">
-        <v>0.9999399812451158</v>
       </c>
       <c r="H3">
         <v>1.000103681569537</v>
       </c>
       <c r="I3">
+        <v>0.9999399812451158</v>
+      </c>
+      <c r="J3">
         <v>1.0001862139065</v>
       </c>
-      <c r="J3">
-        <v>0.9997206793160465</v>
-      </c>
       <c r="K3">
-        <v>0.9999441364388246</v>
+        <v>1.0001862139065</v>
       </c>
       <c r="L3">
+        <v>0.9998183850714399</v>
+      </c>
+      <c r="M3">
         <v>1.000069829081396</v>
-      </c>
-      <c r="M3">
-        <v>0.9998183850714399</v>
       </c>
       <c r="N3">
         <v>1.0001862139065</v>
@@ -824,7 +716,7 @@
         <v>0.999981591963782</v>
       </c>
     </row>
-    <row r="4" spans="1:43">
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -832,37 +724,37 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.000359483073277</v>
+        <v>0.9998921545033813</v>
       </c>
       <c r="D4">
         <v>0.9994607752654463</v>
       </c>
       <c r="E4">
+        <v>1.000359483073277</v>
+      </c>
+      <c r="F4">
+        <v>0.9994607752654463</v>
+      </c>
+      <c r="G4">
         <v>1.00013480587907</v>
-      </c>
-      <c r="F4">
-        <v>1.000359483073277</v>
-      </c>
-      <c r="G4">
-        <v>0.9998841329181529</v>
       </c>
       <c r="H4">
         <v>1.000200156810134</v>
       </c>
       <c r="I4">
+        <v>0.9998841329181529</v>
+      </c>
+      <c r="J4">
         <v>1.000359483073277</v>
       </c>
-      <c r="J4">
-        <v>0.9994607752654463</v>
-      </c>
       <c r="K4">
-        <v>0.9998921545033813</v>
+        <v>1.000359483073277</v>
       </c>
       <c r="L4">
+        <v>0.9996493947247888</v>
+      </c>
+      <c r="M4">
         <v>1.00013480587907</v>
-      </c>
-      <c r="M4">
-        <v>0.9996493947247888</v>
       </c>
       <c r="N4">
         <v>1.000359483073277</v>
@@ -871,31 +763,31 @@
         <v>1.00013480587907</v>
       </c>
       <c r="P4">
-        <v>0.9997977905722583</v>
+        <v>0.9997977905722584</v>
       </c>
       <c r="Q4">
-        <v>1.000009469398611</v>
+        <v>1.000009469398612</v>
       </c>
       <c r="R4">
-        <v>0.9999850214059313</v>
+        <v>0.9999850214059314</v>
       </c>
       <c r="S4">
         <v>0.9998265713542231</v>
       </c>
       <c r="T4">
-        <v>0.9999850214059313</v>
+        <v>0.9999850214059314</v>
       </c>
       <c r="U4">
-        <v>0.9999597992839866</v>
+        <v>0.9999597992839868</v>
       </c>
       <c r="V4">
         <v>1.000039736041845</v>
       </c>
       <c r="W4">
-        <v>0.9999644636316651</v>
-      </c>
-    </row>
-    <row r="5" spans="1:43">
+        <v>0.9999644636316652</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -903,37 +795,37 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.00068890959113</v>
+        <v>0.9997933297358073</v>
       </c>
       <c r="D5">
         <v>0.9989666419557043</v>
       </c>
       <c r="E5">
+        <v>1.00068890959113</v>
+      </c>
+      <c r="F5">
+        <v>0.9989666419557043</v>
+      </c>
+      <c r="G5">
         <v>1.000258340251036</v>
-      </c>
-      <c r="F5">
-        <v>1.00068890959113</v>
-      </c>
-      <c r="G5">
-        <v>0.9997779578162325</v>
       </c>
       <c r="H5">
         <v>1.000383575306782</v>
       </c>
       <c r="I5">
+        <v>0.9997779578162325</v>
+      </c>
+      <c r="J5">
         <v>1.00068890959113</v>
       </c>
-      <c r="J5">
-        <v>0.9989666419557043</v>
-      </c>
       <c r="K5">
-        <v>0.9997933297358076</v>
+        <v>1.00068890959113</v>
       </c>
       <c r="L5">
+        <v>0.9993281023878395</v>
+      </c>
+      <c r="M5">
         <v>1.000258340251036</v>
-      </c>
-      <c r="M5">
-        <v>0.9993281023878395</v>
       </c>
       <c r="N5">
         <v>1.00068890959113</v>
@@ -966,7 +858,7 @@
         <v>0.999931899661946</v>
       </c>
     </row>
-    <row r="6" spans="1:43">
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -974,37 +866,37 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.001010402067922</v>
+        <v>0.9996968778700214</v>
       </c>
       <c r="D6">
         <v>0.9984843894972251</v>
       </c>
       <c r="E6">
+        <v>1.001010402067922</v>
+      </c>
+      <c r="F6">
+        <v>0.9984843894972251</v>
+      </c>
+      <c r="G6">
         <v>1.00037889821504</v>
-      </c>
-      <c r="F6">
-        <v>1.001010402067922</v>
-      </c>
-      <c r="G6">
-        <v>0.9996743320287436</v>
       </c>
       <c r="H6">
         <v>1.000562581639266</v>
       </c>
       <c r="I6">
+        <v>0.9996743320287436</v>
+      </c>
+      <c r="J6">
         <v>1.001010402067922</v>
       </c>
-      <c r="J6">
-        <v>0.9984843894972251</v>
-      </c>
       <c r="K6">
-        <v>0.9996968778700214</v>
+        <v>1.001010402067922</v>
       </c>
       <c r="L6">
+        <v>0.9990145447759441</v>
+      </c>
+      <c r="M6">
         <v>1.00037889821504</v>
-      </c>
-      <c r="M6">
-        <v>0.9990145447759441</v>
       </c>
       <c r="N6">
         <v>1.001010402067922</v>
@@ -1037,7 +929,7 @@
         <v>0.9999001155386504</v>
       </c>
     </row>
-    <row r="7" spans="1:43">
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1045,37 +937,37 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000015398671753</v>
+        <v>0.9999953804760857</v>
       </c>
       <c r="D7">
         <v>0.999976902291966</v>
       </c>
       <c r="E7">
+        <v>1.000015398671753</v>
+      </c>
+      <c r="F7">
+        <v>0.999976902291966</v>
+      </c>
+      <c r="G7">
         <v>1.000005773360247</v>
-      </c>
-      <c r="F7">
-        <v>1.000015398671753</v>
-      </c>
-      <c r="G7">
-        <v>0.9999950372631156</v>
       </c>
       <c r="H7">
         <v>1.000008573960766</v>
       </c>
       <c r="I7">
+        <v>0.9999950372631156</v>
+      </c>
+      <c r="J7">
         <v>1.000015398671753</v>
       </c>
-      <c r="J7">
-        <v>0.999976902291966</v>
-      </c>
       <c r="K7">
-        <v>0.9999953804760857</v>
+        <v>1.000015398671753</v>
       </c>
       <c r="L7">
+        <v>0.9999849828554456</v>
+      </c>
+      <c r="M7">
         <v>1.000005773360247</v>
-      </c>
-      <c r="M7">
-        <v>0.9999849828554456</v>
       </c>
       <c r="N7">
         <v>1.000015398671753</v>
@@ -1084,7 +976,7 @@
         <v>1.000005773360247</v>
       </c>
       <c r="P7">
-        <v>0.9999913378261066</v>
+        <v>0.9999913378261065</v>
       </c>
       <c r="Q7">
         <v>1.000000405311681</v>
@@ -1093,7 +985,7 @@
         <v>0.9999993581079888</v>
       </c>
       <c r="S7">
-        <v>0.9999925709717763</v>
+        <v>0.9999925709717762</v>
       </c>
       <c r="T7">
         <v>0.9999993581079888</v>
@@ -1108,7 +1000,7 @@
         <v>0.9999984777799533</v>
       </c>
     </row>
-    <row r="8" spans="1:43">
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1116,37 +1008,37 @@
         <v>6</v>
       </c>
       <c r="C8">
+        <v>0.9999866499529582</v>
+      </c>
+      <c r="D8">
+        <v>0.9999332499417307</v>
+      </c>
+      <c r="E8">
         <v>1.000044500320241</v>
       </c>
-      <c r="D8">
-        <v>0.9999332499417305</v>
-      </c>
-      <c r="E8">
+      <c r="F8">
+        <v>0.9999332499417307</v>
+      </c>
+      <c r="G8">
         <v>1.000016686528213</v>
-      </c>
-      <c r="F8">
-        <v>1.000044500320241</v>
-      </c>
-      <c r="G8">
-        <v>0.9999856573744318</v>
       </c>
       <c r="H8">
         <v>1.000024777586765</v>
       </c>
       <c r="I8">
+        <v>0.9999856573744318</v>
+      </c>
+      <c r="J8">
         <v>1.000044500320241</v>
       </c>
-      <c r="J8">
-        <v>0.9999332499417305</v>
-      </c>
       <c r="K8">
-        <v>0.9999866499529582</v>
+        <v>1.000044500320241</v>
       </c>
       <c r="L8">
+        <v>0.9999566000146138</v>
+      </c>
+      <c r="M8">
         <v>1.000016686528213</v>
-      </c>
-      <c r="M8">
-        <v>0.9999566000146138</v>
       </c>
       <c r="N8">
         <v>1.000044500320241</v>
@@ -1155,16 +1047,16 @@
         <v>1.000016686528213</v>
       </c>
       <c r="P8">
-        <v>0.9999749682349719</v>
+        <v>0.9999749682349721</v>
       </c>
       <c r="Q8">
         <v>1.000001171951323</v>
       </c>
       <c r="R8">
-        <v>0.9999981455967282</v>
+        <v>0.9999981455967283</v>
       </c>
       <c r="S8">
-        <v>0.9999785312814585</v>
+        <v>0.9999785312814587</v>
       </c>
       <c r="T8">
         <v>0.9999981455967283</v>
@@ -1179,7 +1071,7 @@
         <v>0.9999956010308959</v>
       </c>
     </row>
-    <row r="9" spans="1:43">
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1187,37 +1079,37 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000066234406032</v>
+        <v>0.999980129524694</v>
       </c>
       <c r="D9">
         <v>0.9999006487358991</v>
       </c>
       <c r="E9">
+        <v>1.000066234406032</v>
+      </c>
+      <c r="F9">
+        <v>0.9999006487358991</v>
+      </c>
+      <c r="G9">
         <v>1.000024836618092</v>
-      </c>
-      <c r="F9">
-        <v>1.000066234406032</v>
-      </c>
-      <c r="G9">
-        <v>0.9999786522689392</v>
       </c>
       <c r="H9">
         <v>1.000036878624651</v>
       </c>
       <c r="I9">
+        <v>0.9999786522689392</v>
+      </c>
+      <c r="J9">
         <v>1.000066234406032</v>
       </c>
-      <c r="J9">
-        <v>0.9999006487358991</v>
-      </c>
       <c r="K9">
-        <v>0.9999801295246937</v>
+        <v>1.000066234406032</v>
       </c>
       <c r="L9">
+        <v>0.9999354021049501</v>
+      </c>
+      <c r="M9">
         <v>1.000024836618092</v>
-      </c>
-      <c r="M9">
-        <v>0.9999354021049501</v>
       </c>
       <c r="N9">
         <v>1.000066234406032</v>
@@ -1250,7 +1142,7 @@
         <v>0.9999934523626686</v>
       </c>
     </row>
-    <row r="10" spans="1:43">
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1258,37 +1150,37 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000138992513431</v>
+        <v>0.9999583031788348</v>
       </c>
       <c r="D10">
         <v>0.9997915122198182</v>
       </c>
       <c r="E10">
+        <v>1.000138992513431</v>
+      </c>
+      <c r="F10">
+        <v>0.9997915122198182</v>
+      </c>
+      <c r="G10">
         <v>1.000052121309312</v>
-      </c>
-      <c r="F10">
-        <v>1.000138992513431</v>
-      </c>
-      <c r="G10">
-        <v>0.9999552021033629</v>
       </c>
       <c r="H10">
         <v>1.000077389956557</v>
       </c>
       <c r="I10">
+        <v>0.9999552021033629</v>
+      </c>
+      <c r="J10">
         <v>1.000138992513431</v>
       </c>
-      <c r="J10">
-        <v>0.9997915122198182</v>
-      </c>
       <c r="K10">
-        <v>0.9999583031788348</v>
+        <v>1.000138992513431</v>
       </c>
       <c r="L10">
+        <v>0.9998644398512295</v>
+      </c>
+      <c r="M10">
         <v>1.000052121309312</v>
-      </c>
-      <c r="M10">
-        <v>0.9998644398512295</v>
       </c>
       <c r="N10">
         <v>1.000138992513431</v>
@@ -1321,7 +1213,7 @@
         <v>0.9999862603052321</v>
       </c>
     </row>
-    <row r="11" spans="1:43">
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1329,37 +1221,37 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000241708306312</v>
+        <v>0.9999274885175633</v>
       </c>
       <c r="D11">
         <v>0.9996374404613622</v>
       </c>
       <c r="E11">
+        <v>1.000241708306312</v>
+      </c>
+      <c r="F11">
+        <v>0.9996374404613622</v>
+      </c>
+      <c r="G11">
         <v>1.000090638832606</v>
-      </c>
-      <c r="F11">
-        <v>1.000241708306312</v>
-      </c>
-      <c r="G11">
-        <v>0.999922096000032</v>
       </c>
       <c r="H11">
         <v>1.000134578406256</v>
       </c>
       <c r="I11">
+        <v>0.999922096000032</v>
+      </c>
+      <c r="J11">
         <v>1.000241708306312</v>
       </c>
-      <c r="J11">
-        <v>0.9996374404613622</v>
-      </c>
       <c r="K11">
-        <v>0.9999274885175633</v>
+        <v>1.000241708306312</v>
       </c>
       <c r="L11">
+        <v>0.9997642586868303</v>
+      </c>
+      <c r="M11">
         <v>1.000090638832606</v>
-      </c>
-      <c r="M11">
-        <v>0.9997642586868303</v>
       </c>
       <c r="N11">
         <v>1.000241708306312</v>
@@ -1392,7 +1284,7 @@
         <v>0.9999761060054458</v>
       </c>
     </row>
-    <row r="12" spans="1:43">
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1400,49 +1292,49 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9973249710934048</v>
+        <v>1.000802506262872</v>
       </c>
       <c r="D12">
         <v>1.00401254475068</v>
       </c>
       <c r="E12">
-        <v>0.9989968660173207</v>
+        <v>0.9973249710934048</v>
       </c>
       <c r="F12">
-        <v>0.9973249710934048</v>
+        <v>1.00401254475068</v>
       </c>
       <c r="G12">
-        <v>1.000862207233465</v>
+        <v>0.9989968660173206</v>
       </c>
       <c r="H12">
         <v>0.9985105793061635</v>
       </c>
       <c r="I12">
+        <v>1.000862207233465</v>
+      </c>
+      <c r="J12">
         <v>0.9973249710934048</v>
       </c>
-      <c r="J12">
-        <v>1.00401254475068</v>
-      </c>
       <c r="K12">
-        <v>1.000802506262872</v>
+        <v>0.9973249710934048</v>
       </c>
       <c r="L12">
-        <v>0.9989968660173207</v>
+        <v>1.002608983010344</v>
       </c>
       <c r="M12">
-        <v>1.002608983010344</v>
+        <v>0.9989968660173206</v>
       </c>
       <c r="N12">
         <v>0.9973249710934048</v>
       </c>
       <c r="O12">
-        <v>0.9989968660173207</v>
+        <v>0.9989968660173206</v>
       </c>
       <c r="P12">
         <v>1.001504705384</v>
       </c>
       <c r="Q12">
-        <v>0.999929536625393</v>
+        <v>0.9999295366253929</v>
       </c>
       <c r="R12">
         <v>1.000111460620468</v>
@@ -1463,7 +1355,7 @@
         <v>1.000264440461446</v>
       </c>
     </row>
-    <row r="13" spans="1:43">
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1471,37 +1363,37 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9993066421812604</v>
+        <v>1.000208009063202</v>
       </c>
       <c r="D13">
         <v>1.001040039616234</v>
       </c>
       <c r="E13">
+        <v>0.9993066421812604</v>
+      </c>
+      <c r="F13">
+        <v>1.001040039616234</v>
+      </c>
+      <c r="G13">
         <v>0.9997399888807381</v>
-      </c>
-      <c r="F13">
-        <v>0.9993066421812604</v>
-      </c>
-      <c r="G13">
-        <v>1.00022348233041</v>
       </c>
       <c r="H13">
         <v>0.9996139498440455</v>
       </c>
       <c r="I13">
+        <v>1.00022348233041</v>
+      </c>
+      <c r="J13">
         <v>0.9993066421812604</v>
       </c>
-      <c r="J13">
-        <v>1.001040039616234</v>
-      </c>
       <c r="K13">
-        <v>1.000208009063202</v>
+        <v>0.9993066421812604</v>
       </c>
       <c r="L13">
+        <v>1.000676236418479</v>
+      </c>
+      <c r="M13">
         <v>0.9997399888807381</v>
-      </c>
-      <c r="M13">
-        <v>1.000676236418479</v>
       </c>
       <c r="N13">
         <v>0.9993066421812604</v>
@@ -1534,7 +1426,7 @@
         <v>1.000068542151888</v>
       </c>
     </row>
-    <row r="14" spans="1:43">
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1542,37 +1434,37 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9999891729394074</v>
+        <v>1.00000325123103</v>
       </c>
       <c r="D14">
         <v>1.000016246698306</v>
       </c>
       <c r="E14">
+        <v>0.9999891729394074</v>
+      </c>
+      <c r="F14">
+        <v>1.000016246698306</v>
+      </c>
+      <c r="G14">
         <v>0.9999959388576023</v>
       </c>
-      <c r="F14">
+      <c r="H14">
+        <v>0.9999939776097011</v>
+      </c>
+      <c r="I14">
+        <v>1.000003487505612</v>
+      </c>
+      <c r="J14">
         <v>0.9999891729394074</v>
       </c>
-      <c r="G14">
-        <v>1.000003487505612</v>
-      </c>
-      <c r="H14">
-        <v>0.9999939776097012</v>
-      </c>
-      <c r="I14">
+      <c r="K14">
         <v>0.9999891729394074</v>
       </c>
-      <c r="J14">
-        <v>1.000016246698306</v>
-      </c>
-      <c r="K14">
-        <v>1.00000325123103</v>
-      </c>
       <c r="L14">
+        <v>1.000010562391112</v>
+      </c>
+      <c r="M14">
         <v>0.9999959388576023</v>
-      </c>
-      <c r="M14">
-        <v>1.000010562391112</v>
       </c>
       <c r="N14">
         <v>0.9999891729394074</v>
@@ -1584,7 +1476,7 @@
         <v>1.000006092777954</v>
       </c>
       <c r="Q14">
-        <v>0.9999997131816071</v>
+        <v>0.999999713181607</v>
       </c>
       <c r="R14">
         <v>1.000000452831772</v>
@@ -1605,7 +1497,7 @@
         <v>1.000001072011297</v>
       </c>
     </row>
-    <row r="15" spans="1:43">
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1613,55 +1505,55 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.000002831313869</v>
+        <v>0.9999991544416285</v>
       </c>
       <c r="D15">
         <v>0.9999957527114924</v>
       </c>
       <c r="E15">
-        <v>1.000001062561849</v>
+        <v>1.000002831313868</v>
       </c>
       <c r="F15">
-        <v>1.000002831313869</v>
+        <v>0.9999957527114924</v>
       </c>
       <c r="G15">
-        <v>0.9999990867814664</v>
+        <v>1.000001062561848</v>
       </c>
       <c r="H15">
         <v>1.000001579236763</v>
       </c>
       <c r="I15">
-        <v>1.000002831313869</v>
+        <v>0.9999990867814664</v>
       </c>
       <c r="J15">
-        <v>0.9999957527114924</v>
+        <v>1.000002831313868</v>
       </c>
       <c r="K15">
-        <v>0.9999991544416285</v>
+        <v>1.000002831313868</v>
       </c>
       <c r="L15">
-        <v>1.000001062561849</v>
+        <v>0.9999972423346497</v>
       </c>
       <c r="M15">
-        <v>0.9999972423346497</v>
+        <v>1.000001062561848</v>
       </c>
       <c r="N15">
-        <v>1.000002831313869</v>
+        <v>1.000002831313868</v>
       </c>
       <c r="O15">
-        <v>1.000001062561849</v>
+        <v>1.000001062561848</v>
       </c>
       <c r="P15">
-        <v>0.9999984076366705</v>
+        <v>0.9999984076366704</v>
       </c>
       <c r="Q15">
-        <v>1.000000074671658</v>
+        <v>1.000000074671657</v>
       </c>
       <c r="R15">
         <v>0.9999998821957364</v>
       </c>
       <c r="S15">
-        <v>0.9999986340182692</v>
+        <v>0.9999986340182691</v>
       </c>
       <c r="T15">
         <v>0.9999998821957364</v>
@@ -1676,7 +1568,7 @@
         <v>0.9999997214929457</v>
       </c>
     </row>
-    <row r="16" spans="1:43">
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1684,67 +1576,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000000768543687</v>
+        <v>0.9989099788904047</v>
       </c>
       <c r="D16">
-        <v>0.9999988474577831</v>
+        <v>0.9945498668104895</v>
       </c>
       <c r="E16">
-        <v>1.000000287022341</v>
+        <v>1.00363341897617</v>
       </c>
       <c r="F16">
-        <v>1.000000768543687</v>
+        <v>0.9945498668104895</v>
       </c>
       <c r="G16">
-        <v>0.9999997527181681</v>
+        <v>1.001362533670702</v>
       </c>
       <c r="H16">
-        <v>1.000000428112471</v>
+        <v>1.0020230397369</v>
       </c>
       <c r="I16">
-        <v>1.000000768543687</v>
+        <v>0.9988288983188518</v>
       </c>
       <c r="J16">
-        <v>0.9999988474577831</v>
+        <v>1.00363341897617</v>
       </c>
       <c r="K16">
-        <v>0.9999997694140468</v>
+        <v>1.00363341897617</v>
       </c>
       <c r="L16">
-        <v>1.000000287022341</v>
+        <v>0.9964562955489022</v>
       </c>
       <c r="M16">
-        <v>0.999999251728597</v>
+        <v>1.001362533670702</v>
       </c>
       <c r="N16">
-        <v>1.000000768543687</v>
+        <v>1.00363341897617</v>
       </c>
       <c r="O16">
-        <v>1.000000287022341</v>
+        <v>1.001362533670702</v>
       </c>
       <c r="P16">
-        <v>0.9999995672400623</v>
+        <v>0.9979562002405956</v>
       </c>
       <c r="Q16">
-        <v>1.000000019870255</v>
+        <v>1.000095715994777</v>
       </c>
       <c r="R16">
-        <v>0.9999999676746039</v>
+        <v>0.999848606485787</v>
       </c>
       <c r="S16">
-        <v>0.9999996290660976</v>
+        <v>0.9982470996000142</v>
       </c>
       <c r="T16">
-        <v>0.9999999676746039</v>
+        <v>0.999848606485787</v>
       </c>
       <c r="U16">
-        <v>0.9999999139354949</v>
+        <v>0.9995936794440532</v>
       </c>
       <c r="V16">
-        <v>1.000000084857133</v>
+        <v>1.000401627350477</v>
       </c>
       <c r="W16">
-        <v>0.9999999240024295</v>
+        <v>0.9996408207028902</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1755,67 +1647,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000016284378513</v>
+        <v>0.9991067578481401</v>
       </c>
       <c r="D17">
-        <v>0.9999755736196053</v>
+        <v>0.9955337706317696</v>
       </c>
       <c r="E17">
-        <v>1.000006105717792</v>
+        <v>1.002977484205174</v>
       </c>
       <c r="F17">
-        <v>1.000016284378513</v>
+        <v>0.9955337706317696</v>
       </c>
       <c r="G17">
-        <v>0.999994752035404</v>
+        <v>1.001116557545248</v>
       </c>
       <c r="H17">
-        <v>1.000009067429393</v>
+        <v>1.001657824554893</v>
       </c>
       <c r="I17">
-        <v>1.000016284378513</v>
+        <v>0.9990403152993869</v>
       </c>
       <c r="J17">
-        <v>0.9999755736196053</v>
+        <v>1.002977484205174</v>
       </c>
       <c r="K17">
-        <v>0.9999951145350165</v>
+        <v>1.002977484205174</v>
       </c>
       <c r="L17">
-        <v>1.000006105717792</v>
+        <v>0.9970960345596588</v>
       </c>
       <c r="M17">
-        <v>0.9999841189208143</v>
+        <v>1.001116557545248</v>
       </c>
       <c r="N17">
-        <v>1.000016284378513</v>
+        <v>1.002977484205174</v>
       </c>
       <c r="O17">
-        <v>1.000006105717792</v>
+        <v>1.001116557545248</v>
       </c>
       <c r="P17">
-        <v>0.9999908396686987</v>
+        <v>0.9983251640885087</v>
       </c>
       <c r="Q17">
-        <v>1.000000428876598</v>
+        <v>1.000078436422317</v>
       </c>
       <c r="R17">
-        <v>0.9999993212386368</v>
+        <v>0.9998759374607303</v>
       </c>
       <c r="S17">
-        <v>0.9999921437909339</v>
+        <v>0.9985635478254681</v>
       </c>
       <c r="T17">
-        <v>0.9999993212386368</v>
+        <v>0.9998759374607303</v>
       </c>
       <c r="U17">
-        <v>0.9999981789378285</v>
+        <v>0.9996670319203945</v>
       </c>
       <c r="V17">
-        <v>1.000001800025965</v>
+        <v>1.00032912237735</v>
       </c>
       <c r="W17">
-        <v>0.9999983902942913</v>
+        <v>0.9997056627736896</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1826,67 +1718,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000057334363166</v>
+        <v>0.9995000066578799</v>
       </c>
       <c r="D18">
-        <v>0.9999139999147914</v>
+        <v>0.9975000302735447</v>
       </c>
       <c r="E18">
-        <v>1.000021499216626</v>
+        <v>1.00166664881223</v>
       </c>
       <c r="F18">
-        <v>1.000057334363166</v>
+        <v>0.9975000302735447</v>
       </c>
       <c r="G18">
-        <v>0.9999815231918524</v>
+        <v>1.000624993016779</v>
       </c>
       <c r="H18">
-        <v>1.000031922672336</v>
+        <v>1.000927970770352</v>
       </c>
       <c r="I18">
-        <v>1.000057334363166</v>
+        <v>0.9994628157965413</v>
       </c>
       <c r="J18">
-        <v>0.9999139999147914</v>
+        <v>1.00166664881223</v>
       </c>
       <c r="K18">
-        <v>0.9999827999830453</v>
+        <v>1.00166664881223</v>
       </c>
       <c r="L18">
-        <v>1.000021499216626</v>
+        <v>0.9983745056849235</v>
       </c>
       <c r="M18">
-        <v>0.9999440826654679</v>
+        <v>1.000624993016779</v>
       </c>
       <c r="N18">
-        <v>1.000057334363166</v>
+        <v>1.00166664881223</v>
       </c>
       <c r="O18">
-        <v>1.000021499216626</v>
+        <v>1.000624993016779</v>
       </c>
       <c r="P18">
-        <v>0.9999677495657084</v>
+        <v>0.9990625116451617</v>
       </c>
       <c r="Q18">
-        <v>1.000001511204239</v>
+        <v>1.00004390440666</v>
       </c>
       <c r="R18">
-        <v>0.9999976111648611</v>
+        <v>0.9999305573675178</v>
       </c>
       <c r="S18">
-        <v>0.9999723407744231</v>
+        <v>0.9991959463622883</v>
       </c>
       <c r="T18">
-        <v>0.9999976111648611</v>
+        <v>0.9999305573675178</v>
       </c>
       <c r="U18">
-        <v>0.999993589171609</v>
+        <v>0.9998136219747736</v>
       </c>
       <c r="V18">
-        <v>1.00000633820992</v>
+        <v>1.000184227342265</v>
       </c>
       <c r="W18">
-        <v>0.9999943326529889</v>
+        <v>0.9998352455036286</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1897,66 +1789,350 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>0.9994532275828213</v>
+      </c>
+      <c r="D19">
+        <v>0.9972661481063558</v>
+      </c>
+      <c r="E19">
+        <v>1.001822569955991</v>
+      </c>
+      <c r="F19">
+        <v>0.9972661481063558</v>
+      </c>
+      <c r="G19">
+        <v>1.000683463481866</v>
+      </c>
+      <c r="H19">
+        <v>1.001014784730009</v>
+      </c>
+      <c r="I19">
+        <v>0.9994125626484532</v>
+      </c>
+      <c r="J19">
+        <v>1.001822569955991</v>
+      </c>
+      <c r="K19">
+        <v>1.001822569955991</v>
+      </c>
+      <c r="L19">
+        <v>0.9982224311166722</v>
+      </c>
+      <c r="M19">
+        <v>1.000683463481866</v>
+      </c>
+      <c r="N19">
+        <v>1.001822569955991</v>
+      </c>
+      <c r="O19">
+        <v>1.000683463481866</v>
+      </c>
+      <c r="P19">
+        <v>0.9989748057941107</v>
+      </c>
+      <c r="Q19">
+        <v>1.000048013065159</v>
+      </c>
+      <c r="R19">
+        <v>0.9999240605147374</v>
+      </c>
+      <c r="S19">
+        <v>0.9991207247455582</v>
+      </c>
+      <c r="T19">
+        <v>0.9999240605147374</v>
+      </c>
+      <c r="U19">
+        <v>0.9997961860481663</v>
+      </c>
+      <c r="V19">
+        <v>1.000201462829731</v>
+      </c>
+      <c r="W19">
+        <v>0.9998198313880042</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9999997694140469</v>
+      </c>
+      <c r="D20">
+        <v>0.9999988474577831</v>
+      </c>
+      <c r="E20">
+        <v>1.000000768543687</v>
+      </c>
+      <c r="F20">
+        <v>0.9999988474577831</v>
+      </c>
+      <c r="G20">
+        <v>1.000000287022341</v>
+      </c>
+      <c r="H20">
+        <v>1.000000428112471</v>
+      </c>
+      <c r="I20">
+        <v>0.9999997527181681</v>
+      </c>
+      <c r="J20">
+        <v>1.000000768543687</v>
+      </c>
+      <c r="K20">
+        <v>1.000000768543687</v>
+      </c>
+      <c r="L20">
+        <v>0.999999251728597</v>
+      </c>
+      <c r="M20">
+        <v>1.000000287022341</v>
+      </c>
+      <c r="N20">
+        <v>1.000000768543687</v>
+      </c>
+      <c r="O20">
+        <v>1.000000287022341</v>
+      </c>
+      <c r="P20">
+        <v>0.9999995672400623</v>
+      </c>
+      <c r="Q20">
+        <v>1.000000019870255</v>
+      </c>
+      <c r="R20">
+        <v>0.9999999676746039</v>
+      </c>
+      <c r="S20">
+        <v>0.9999996290660976</v>
+      </c>
+      <c r="T20">
+        <v>0.9999999676746039</v>
+      </c>
+      <c r="U20">
+        <v>0.9999999139354949</v>
+      </c>
+      <c r="V20">
+        <v>1.000000084857133</v>
+      </c>
+      <c r="W20">
+        <v>0.9999999240024295</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9999951145350165</v>
+      </c>
+      <c r="D21">
+        <v>0.9999755736196053</v>
+      </c>
+      <c r="E21">
+        <v>1.000016284378513</v>
+      </c>
+      <c r="F21">
+        <v>0.9999755736196053</v>
+      </c>
+      <c r="G21">
+        <v>1.000006105717792</v>
+      </c>
+      <c r="H21">
+        <v>1.000009067429393</v>
+      </c>
+      <c r="I21">
+        <v>0.999994752035404</v>
+      </c>
+      <c r="J21">
+        <v>1.000016284378513</v>
+      </c>
+      <c r="K21">
+        <v>1.000016284378513</v>
+      </c>
+      <c r="L21">
+        <v>0.999984118920814</v>
+      </c>
+      <c r="M21">
+        <v>1.000006105717792</v>
+      </c>
+      <c r="N21">
+        <v>1.000016284378513</v>
+      </c>
+      <c r="O21">
+        <v>1.000006105717792</v>
+      </c>
+      <c r="P21">
+        <v>0.9999908396686987</v>
+      </c>
+      <c r="Q21">
+        <v>1.000000428876598</v>
+      </c>
+      <c r="R21">
+        <v>0.9999993212386368</v>
+      </c>
+      <c r="S21">
+        <v>0.9999921437909339</v>
+      </c>
+      <c r="T21">
+        <v>0.9999993212386368</v>
+      </c>
+      <c r="U21">
+        <v>0.9999981789378285</v>
+      </c>
+      <c r="V21">
+        <v>1.000001800025965</v>
+      </c>
+      <c r="W21">
+        <v>0.9999983902942912</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9999827999830453</v>
+      </c>
+      <c r="D22">
+        <v>0.9999139999147919</v>
+      </c>
+      <c r="E22">
+        <v>1.000057334363166</v>
+      </c>
+      <c r="F22">
+        <v>0.9999139999147919</v>
+      </c>
+      <c r="G22">
+        <v>1.000021499216626</v>
+      </c>
+      <c r="H22">
+        <v>1.000031922672336</v>
+      </c>
+      <c r="I22">
+        <v>0.9999815231918525</v>
+      </c>
+      <c r="J22">
+        <v>1.000057334363166</v>
+      </c>
+      <c r="K22">
+        <v>1.000057334363166</v>
+      </c>
+      <c r="L22">
+        <v>0.9999440826654679</v>
+      </c>
+      <c r="M22">
+        <v>1.000021499216626</v>
+      </c>
+      <c r="N22">
+        <v>1.000057334363166</v>
+      </c>
+      <c r="O22">
+        <v>1.000021499216626</v>
+      </c>
+      <c r="P22">
+        <v>0.9999677495657088</v>
+      </c>
+      <c r="Q22">
+        <v>1.000001511204239</v>
+      </c>
+      <c r="R22">
+        <v>0.9999976111648611</v>
+      </c>
+      <c r="S22">
+        <v>0.9999723407744234</v>
+      </c>
+      <c r="T22">
+        <v>0.9999976111648611</v>
+      </c>
+      <c r="U22">
+        <v>0.999993589171609</v>
+      </c>
+      <c r="V22">
+        <v>1.00000633820992</v>
+      </c>
+      <c r="W22">
+        <v>0.9999943326529889</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9999597086991142</v>
+      </c>
+      <c r="D23">
+        <v>0.9997985281280192</v>
+      </c>
+      <c r="E23">
         <v>1.000134317907172</v>
       </c>
-      <c r="D19">
+      <c r="F23">
         <v>0.9997985281280192</v>
       </c>
-      <c r="E19">
+      <c r="G23">
         <v>1.000050366751428</v>
       </c>
-      <c r="F19">
+      <c r="H23">
+        <v>1.00007478488371</v>
+      </c>
+      <c r="I23">
+        <v>0.9999567045399335</v>
+      </c>
+      <c r="J23">
         <v>1.000134317907172</v>
       </c>
-      <c r="G19">
-        <v>0.9999567045399335</v>
-      </c>
-      <c r="H19">
-        <v>1.00007478488371</v>
-      </c>
-      <c r="I19">
+      <c r="K23">
         <v>1.000134317907172</v>
       </c>
-      <c r="J19">
-        <v>0.9997985281280192</v>
-      </c>
-      <c r="K19">
-        <v>0.9999597086991142</v>
-      </c>
-      <c r="L19">
+      <c r="L23">
+        <v>0.9998690010426599</v>
+      </c>
+      <c r="M23">
         <v>1.000050366751428</v>
       </c>
-      <c r="M19">
-        <v>0.9998690010426599</v>
-      </c>
-      <c r="N19">
+      <c r="N23">
         <v>1.000134317907172</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>1.000050366751428</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>0.9999244474397235</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>1.000003535645681</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>0.9999944042622063</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>0.9999351998064602</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>0.9999944042622063</v>
       </c>
-      <c r="U19">
+      <c r="U23">
         <v>0.9999849793316381</v>
       </c>
-      <c r="V19">
+      <c r="V23">
         <v>1.000014847046745</v>
       </c>
-      <c r="W19">
+      <c r="W23">
         <v>0.9999867223379331</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/SA-HW45.xlsx
+++ b/JupyterNotebooks/AvgHW/SA-HW45.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[4, 2, 0]</t>
@@ -500,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,67 +639,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="U2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="V2" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="W2" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -653,67 +710,67 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9999441364388246</v>
+        <v>0.9993942567363121</v>
       </c>
       <c r="D3">
-        <v>0.9997206793160465</v>
+        <v>0.9969712824855896</v>
       </c>
       <c r="E3">
-        <v>1.0001862139065</v>
+        <v>1.002019145187323</v>
       </c>
       <c r="F3">
-        <v>0.9997206793160465</v>
+        <v>0.9969712824855896</v>
       </c>
       <c r="G3">
-        <v>1.000069829081396</v>
+        <v>1.000757180086457</v>
       </c>
       <c r="H3">
-        <v>1.000103681569537</v>
+        <v>1.00112423600144</v>
       </c>
       <c r="I3">
-        <v>0.9999399812451158</v>
+        <v>0.9993492013040314</v>
       </c>
       <c r="J3">
-        <v>1.0001862139065</v>
+        <v>1.002019145187323</v>
       </c>
       <c r="K3">
-        <v>1.0001862139065</v>
+        <v>1.002019145187323</v>
       </c>
       <c r="L3">
-        <v>0.9998183850714399</v>
+        <v>0.9980307111887606</v>
       </c>
       <c r="M3">
-        <v>1.000069829081396</v>
+        <v>1.000757180086457</v>
       </c>
       <c r="N3">
-        <v>1.0001862139065</v>
+        <v>1.002019145187323</v>
       </c>
       <c r="O3">
-        <v>1.000069829081396</v>
+        <v>1.000757180086457</v>
       </c>
       <c r="P3">
-        <v>0.9998952541987211</v>
+        <v>0.9988642312860233</v>
       </c>
       <c r="Q3">
-        <v>1.000004905163256</v>
+        <v>1.000053190695244</v>
       </c>
       <c r="R3">
-        <v>0.9999922407679808</v>
+        <v>0.9999158692531233</v>
       </c>
       <c r="S3">
-        <v>0.999910163214186</v>
+        <v>0.9990258879586927</v>
       </c>
       <c r="T3">
-        <v>0.9999922407679808</v>
+        <v>0.9999158692531233</v>
       </c>
       <c r="U3">
-        <v>0.9999791758872645</v>
+        <v>0.9997742022658502</v>
       </c>
       <c r="V3">
-        <v>1.000020583491112</v>
+        <v>1.000223190850145</v>
       </c>
       <c r="W3">
-        <v>0.999981591963782</v>
+        <v>0.9998003991345463</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -724,67 +781,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9998921545033813</v>
+        <v>0.999454557777678</v>
       </c>
       <c r="D4">
-        <v>0.9994607752654463</v>
+        <v>0.9972727880683961</v>
       </c>
       <c r="E4">
-        <v>1.000359483073277</v>
+        <v>1.001818141474089</v>
       </c>
       <c r="F4">
-        <v>0.9994607752654463</v>
+        <v>0.9972727880683961</v>
       </c>
       <c r="G4">
-        <v>1.00013480587907</v>
+        <v>1.000681803246355</v>
       </c>
       <c r="H4">
-        <v>1.000200156810134</v>
+        <v>1.001012319388748</v>
       </c>
       <c r="I4">
-        <v>0.9998841329181529</v>
+        <v>0.9994139876807658</v>
       </c>
       <c r="J4">
-        <v>1.000359483073277</v>
+        <v>1.001818141474089</v>
       </c>
       <c r="K4">
-        <v>1.000359483073277</v>
+        <v>1.001818141474089</v>
       </c>
       <c r="L4">
-        <v>0.9996493947247888</v>
+        <v>0.998226751858922</v>
       </c>
       <c r="M4">
-        <v>1.00013480587907</v>
+        <v>1.000681803246355</v>
       </c>
       <c r="N4">
-        <v>1.000359483073277</v>
+        <v>1.001818141474089</v>
       </c>
       <c r="O4">
-        <v>1.00013480587907</v>
+        <v>1.000681803246355</v>
       </c>
       <c r="P4">
-        <v>0.9997977905722584</v>
+        <v>0.9989772956573755</v>
       </c>
       <c r="Q4">
-        <v>1.000009469398612</v>
+        <v>1.00004789546356</v>
       </c>
       <c r="R4">
-        <v>0.9999850214059314</v>
+        <v>0.9999242442629465</v>
       </c>
       <c r="S4">
-        <v>0.9998265713542231</v>
+        <v>0.9991228596651722</v>
       </c>
       <c r="T4">
-        <v>0.9999850214059314</v>
+        <v>0.9999242442629465</v>
       </c>
       <c r="U4">
-        <v>0.9999597992839868</v>
+        <v>0.9997966801174013</v>
       </c>
       <c r="V4">
-        <v>1.000039736041845</v>
+        <v>1.000200972388739</v>
       </c>
       <c r="W4">
-        <v>0.9999644636316652</v>
+        <v>0.9998202690926636</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -795,67 +852,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9997933297358073</v>
+        <v>0.999278448086253</v>
       </c>
       <c r="D5">
-        <v>0.9989666419557043</v>
+        <v>0.9963922331536392</v>
       </c>
       <c r="E5">
-        <v>1.00068890959113</v>
+        <v>1.00240517981132</v>
       </c>
       <c r="F5">
-        <v>0.9989666419557043</v>
+        <v>0.9963922331536392</v>
       </c>
       <c r="G5">
-        <v>1.000258340251036</v>
+        <v>1.000901945256067</v>
       </c>
       <c r="H5">
-        <v>1.000383575306782</v>
+        <v>1.001339177304581</v>
       </c>
       <c r="I5">
-        <v>0.9997779578162325</v>
+        <v>0.9992247764420477</v>
       </c>
       <c r="J5">
-        <v>1.00068890959113</v>
+        <v>1.00240517981132</v>
       </c>
       <c r="K5">
-        <v>1.00068890959113</v>
+        <v>1.00240517981132</v>
       </c>
       <c r="L5">
-        <v>0.9993281023878395</v>
+        <v>0.9976542103773581</v>
       </c>
       <c r="M5">
-        <v>1.000258340251036</v>
+        <v>1.000901945256067</v>
       </c>
       <c r="N5">
-        <v>1.00068890959113</v>
+        <v>1.00240517981132</v>
       </c>
       <c r="O5">
-        <v>1.000258340251036</v>
+        <v>1.000901945256067</v>
       </c>
       <c r="P5">
-        <v>0.9996124911033699</v>
+        <v>0.9986470892048529</v>
       </c>
       <c r="Q5">
-        <v>1.000018149033634</v>
+        <v>1.000063360849057</v>
       </c>
       <c r="R5">
-        <v>0.9999712972659566</v>
+        <v>0.9998997860736752</v>
       </c>
       <c r="S5">
-        <v>0.9996676466743241</v>
+        <v>0.9988396516172511</v>
       </c>
       <c r="T5">
-        <v>0.9999712972659566</v>
+        <v>0.9998997860736752</v>
       </c>
       <c r="U5">
-        <v>0.9999229624035255</v>
+        <v>0.9997310336657683</v>
       </c>
       <c r="V5">
-        <v>1.000076151841046</v>
+        <v>1.000265862894879</v>
       </c>
       <c r="W5">
-        <v>0.999931899661946</v>
+        <v>0.9997622394609165</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -866,67 +923,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9996968778700214</v>
+        <v>0.999168779545456</v>
       </c>
       <c r="D6">
-        <v>0.9984843894972251</v>
+        <v>0.9958438921590906</v>
       </c>
       <c r="E6">
-        <v>1.001010402067922</v>
+        <v>1.002770736136364</v>
       </c>
       <c r="F6">
-        <v>0.9984843894972251</v>
+        <v>0.9958438921590906</v>
       </c>
       <c r="G6">
-        <v>1.00037889821504</v>
+        <v>1.001039029943181</v>
       </c>
       <c r="H6">
-        <v>1.000562581639266</v>
+        <v>1.001542715852274</v>
       </c>
       <c r="I6">
-        <v>0.9996743320287436</v>
+        <v>0.999106956875</v>
       </c>
       <c r="J6">
-        <v>1.001010402067922</v>
+        <v>1.002770736136364</v>
       </c>
       <c r="K6">
-        <v>1.001010402067922</v>
+        <v>1.002770736136364</v>
       </c>
       <c r="L6">
-        <v>0.9990145447759441</v>
+        <v>0.9972976755113641</v>
       </c>
       <c r="M6">
-        <v>1.00037889821504</v>
+        <v>1.001039029943181</v>
       </c>
       <c r="N6">
-        <v>1.001010402067922</v>
+        <v>1.002770736136364</v>
       </c>
       <c r="O6">
-        <v>1.00037889821504</v>
+        <v>1.001039029943181</v>
       </c>
       <c r="P6">
-        <v>0.9994316438561327</v>
+        <v>0.9984414610511358</v>
       </c>
       <c r="Q6">
-        <v>1.000026615121892</v>
+        <v>1.00007299340909</v>
       </c>
       <c r="R6">
-        <v>0.9999578965933958</v>
+        <v>0.9998845527462118</v>
       </c>
       <c r="S6">
-        <v>0.9995125399136696</v>
+        <v>0.9986632929924238</v>
       </c>
       <c r="T6">
-        <v>0.9999578965933958</v>
+        <v>0.9998845527462118</v>
       </c>
       <c r="U6">
-        <v>0.9998870054522329</v>
+        <v>0.9996901537784089</v>
       </c>
       <c r="V6">
-        <v>1.000111684775371</v>
+        <v>1.00030627025</v>
       </c>
       <c r="W6">
-        <v>0.9999001155386504</v>
+        <v>0.9997261019957389</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -937,67 +994,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9999953804760857</v>
+        <v>0.9980640383659134</v>
       </c>
       <c r="D7">
-        <v>0.999976902291966</v>
+        <v>0.9903202040789013</v>
       </c>
       <c r="E7">
-        <v>1.000015398671753</v>
+        <v>1.00645320714864</v>
       </c>
       <c r="F7">
-        <v>0.999976902291966</v>
+        <v>0.9903202040789013</v>
       </c>
       <c r="G7">
-        <v>1.000005773360247</v>
+        <v>1.002419939370221</v>
       </c>
       <c r="H7">
-        <v>1.000008573960766</v>
+        <v>1.003593060862813</v>
       </c>
       <c r="I7">
-        <v>0.9999950372631156</v>
+        <v>0.9979200445251648</v>
       </c>
       <c r="J7">
-        <v>1.000015398671753</v>
+        <v>1.00645320714864</v>
       </c>
       <c r="K7">
-        <v>1.000015398671753</v>
+        <v>1.00645320714864</v>
       </c>
       <c r="L7">
-        <v>0.9999849828554456</v>
+        <v>0.9937061358073641</v>
       </c>
       <c r="M7">
-        <v>1.000005773360247</v>
+        <v>1.002419939370221</v>
       </c>
       <c r="N7">
-        <v>1.000015398671753</v>
+        <v>1.00645320714864</v>
       </c>
       <c r="O7">
-        <v>1.000005773360247</v>
+        <v>1.002419939370221</v>
       </c>
       <c r="P7">
-        <v>0.9999913378261065</v>
+        <v>0.9963700717245612</v>
       </c>
       <c r="Q7">
-        <v>1.000000405311681</v>
+        <v>1.000169991947693</v>
       </c>
       <c r="R7">
-        <v>0.9999993581079888</v>
+        <v>0.9997311168659208</v>
       </c>
       <c r="S7">
-        <v>0.9999925709717762</v>
+        <v>0.9968867293247623</v>
       </c>
       <c r="T7">
-        <v>0.9999993581079888</v>
+        <v>0.9997311168659208</v>
       </c>
       <c r="U7">
-        <v>0.9999982778967704</v>
+        <v>0.9992783487807317</v>
       </c>
       <c r="V7">
-        <v>1.000001702051767</v>
+        <v>1.000713320454313</v>
       </c>
       <c r="W7">
-        <v>0.9999984777799533</v>
+        <v>0.9993620711911548</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1008,67 +1065,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9999866499529582</v>
+        <v>0.998051177883882</v>
       </c>
       <c r="D8">
-        <v>0.9999332499417307</v>
+        <v>0.9902559015513538</v>
       </c>
       <c r="E8">
-        <v>1.000044500320241</v>
+        <v>1.006496075336986</v>
       </c>
       <c r="F8">
-        <v>0.9999332499417307</v>
+        <v>0.9902559015513538</v>
       </c>
       <c r="G8">
-        <v>1.000016686528213</v>
+        <v>1.002436014963682</v>
       </c>
       <c r="H8">
-        <v>1.000024777586765</v>
+        <v>1.003616929419082</v>
       </c>
       <c r="I8">
-        <v>0.9999856573744318</v>
+        <v>0.9979062274452556</v>
       </c>
       <c r="J8">
-        <v>1.000044500320241</v>
+        <v>1.006496075336986</v>
       </c>
       <c r="K8">
-        <v>1.000044500320241</v>
+        <v>1.006496075336986</v>
       </c>
       <c r="L8">
-        <v>0.9999566000146138</v>
+        <v>0.9936643259532137</v>
       </c>
       <c r="M8">
-        <v>1.000016686528213</v>
+        <v>1.002436014963682</v>
       </c>
       <c r="N8">
-        <v>1.000044500320241</v>
+        <v>1.006496075336986</v>
       </c>
       <c r="O8">
-        <v>1.000016686528213</v>
+        <v>1.002436014963682</v>
       </c>
       <c r="P8">
-        <v>0.9999749682349721</v>
+        <v>0.996345958257518</v>
       </c>
       <c r="Q8">
-        <v>1.000001171951323</v>
+        <v>1.000171121204469</v>
       </c>
       <c r="R8">
-        <v>0.9999981455967283</v>
+        <v>0.9997293306173406</v>
       </c>
       <c r="S8">
-        <v>0.9999785312814587</v>
+        <v>0.9968660479867638</v>
       </c>
       <c r="T8">
-        <v>0.9999981455967283</v>
+        <v>0.9997293306173406</v>
       </c>
       <c r="U8">
-        <v>0.9999950235411542</v>
+        <v>0.9992735548243193</v>
       </c>
       <c r="V8">
-        <v>1.000004918896972</v>
+        <v>1.000718058926853</v>
       </c>
       <c r="W8">
-        <v>0.9999956010308959</v>
+        <v>0.9993578334396422</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1079,67 +1136,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.999980129524694</v>
+        <v>0.998042983718619</v>
       </c>
       <c r="D9">
-        <v>0.9999006487358991</v>
+        <v>0.9902149306541081</v>
       </c>
       <c r="E9">
-        <v>1.000066234406032</v>
+        <v>1.006523389201977</v>
       </c>
       <c r="F9">
-        <v>0.9999006487358991</v>
+        <v>0.9902149306541081</v>
       </c>
       <c r="G9">
-        <v>1.000024836618092</v>
+        <v>1.002446257819354</v>
       </c>
       <c r="H9">
-        <v>1.000036878624651</v>
+        <v>1.003632137497044</v>
       </c>
       <c r="I9">
-        <v>0.9999786522689392</v>
+        <v>0.9978974237555219</v>
       </c>
       <c r="J9">
-        <v>1.000066234406032</v>
+        <v>1.006523389201977</v>
       </c>
       <c r="K9">
-        <v>1.000066234406032</v>
+        <v>1.006523389201977</v>
       </c>
       <c r="L9">
-        <v>0.9999354021049501</v>
+        <v>0.9936376864530277</v>
       </c>
       <c r="M9">
-        <v>1.000024836618092</v>
+        <v>1.002446257819354</v>
       </c>
       <c r="N9">
-        <v>1.000066234406032</v>
+        <v>1.006523389201977</v>
       </c>
       <c r="O9">
-        <v>1.000024836618092</v>
+        <v>1.002446257819354</v>
       </c>
       <c r="P9">
-        <v>0.9999627426769955</v>
+        <v>0.9963305942367309</v>
       </c>
       <c r="Q9">
-        <v>1.000001744443515</v>
+        <v>1.000171840787438</v>
       </c>
       <c r="R9">
-        <v>0.9999972399200076</v>
+        <v>0.9997281925584796</v>
       </c>
       <c r="S9">
-        <v>0.9999680458743101</v>
+        <v>0.9968528707429946</v>
       </c>
       <c r="T9">
-        <v>0.9999972399200076</v>
+        <v>0.9997281925584796</v>
       </c>
       <c r="U9">
-        <v>0.9999925930072405</v>
+        <v>0.9992705003577401</v>
       </c>
       <c r="V9">
-        <v>1.000007321286999</v>
+        <v>1.000721078126588</v>
       </c>
       <c r="W9">
-        <v>0.9999934523626686</v>
+        <v>0.9993551333648756</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1150,67 +1207,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9999583031788348</v>
+        <v>0.9979981570006129</v>
       </c>
       <c r="D10">
-        <v>0.9997915122198182</v>
+        <v>0.9899907969026844</v>
       </c>
       <c r="E10">
-        <v>1.000138992513431</v>
+        <v>1.006672811507983</v>
       </c>
       <c r="F10">
-        <v>0.9997915122198182</v>
+        <v>0.9899907969026844</v>
       </c>
       <c r="G10">
-        <v>1.000052121309312</v>
+        <v>1.002502291217586</v>
       </c>
       <c r="H10">
-        <v>1.000077389956557</v>
+        <v>1.003715334322115</v>
       </c>
       <c r="I10">
-        <v>0.9999552021033629</v>
+        <v>0.9978492627642033</v>
       </c>
       <c r="J10">
-        <v>1.000138992513431</v>
+        <v>1.006672811507983</v>
       </c>
       <c r="K10">
-        <v>1.000138992513431</v>
+        <v>1.006672811507983</v>
       </c>
       <c r="L10">
-        <v>0.9998644398512295</v>
+        <v>0.9934919534544359</v>
       </c>
       <c r="M10">
-        <v>1.000052121309312</v>
+        <v>1.002502291217586</v>
       </c>
       <c r="N10">
-        <v>1.000138992513431</v>
+        <v>1.006672811507983</v>
       </c>
       <c r="O10">
-        <v>1.000052121309312</v>
+        <v>1.002502291217586</v>
       </c>
       <c r="P10">
-        <v>0.9999218167645649</v>
+        <v>0.9962465440601355</v>
       </c>
       <c r="Q10">
-        <v>1.000003661706337</v>
+        <v>1.000175776990895</v>
       </c>
       <c r="R10">
-        <v>0.9999942086808536</v>
+        <v>0.9997219665427514</v>
       </c>
       <c r="S10">
-        <v>0.9999329452108309</v>
+        <v>0.9967807836281581</v>
       </c>
       <c r="T10">
-        <v>0.9999942086808536</v>
+        <v>0.9997219665427514</v>
       </c>
       <c r="U10">
-        <v>0.999984457036481</v>
+        <v>0.9992537905981144</v>
       </c>
       <c r="V10">
-        <v>1.000015364131871</v>
+        <v>1.000737594780088</v>
       </c>
       <c r="W10">
-        <v>0.9999862603052321</v>
+        <v>0.999340362298401</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1221,67 +1278,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9999274885175633</v>
+        <v>0.9999328220380707</v>
       </c>
       <c r="D11">
-        <v>0.9996374404613622</v>
+        <v>0.9996641066691648</v>
       </c>
       <c r="E11">
-        <v>1.000241708306312</v>
+        <v>1.000223928850732</v>
       </c>
       <c r="F11">
-        <v>0.9996374404613622</v>
+        <v>0.9996641066691648</v>
       </c>
       <c r="G11">
-        <v>1.000090638832606</v>
+        <v>1.000083972657827</v>
       </c>
       <c r="H11">
-        <v>1.000134578406256</v>
+        <v>1.000124681402637</v>
       </c>
       <c r="I11">
-        <v>0.999922096000032</v>
+        <v>0.9999278253086085</v>
       </c>
       <c r="J11">
-        <v>1.000241708306312</v>
+        <v>1.000223928850732</v>
       </c>
       <c r="K11">
-        <v>1.000241708306312</v>
+        <v>1.000223928850732</v>
       </c>
       <c r="L11">
-        <v>0.9997642586868303</v>
+        <v>0.9997816013186381</v>
       </c>
       <c r="M11">
-        <v>1.000090638832606</v>
+        <v>1.000083972657827</v>
       </c>
       <c r="N11">
-        <v>1.000241708306312</v>
+        <v>1.000223928850732</v>
       </c>
       <c r="O11">
-        <v>1.000090638832606</v>
+        <v>1.000083972657827</v>
       </c>
       <c r="P11">
-        <v>0.9998640396469839</v>
+        <v>0.999874039663496</v>
       </c>
       <c r="Q11">
-        <v>1.000006367416319</v>
+        <v>1.000005898983218</v>
       </c>
       <c r="R11">
-        <v>0.9999899292000931</v>
+        <v>0.9999906693925747</v>
       </c>
       <c r="S11">
-        <v>0.9998833917646666</v>
+        <v>0.9998919682118669</v>
       </c>
       <c r="T11">
-        <v>0.9999899292000931</v>
+        <v>0.9999906693925746</v>
       </c>
       <c r="U11">
-        <v>0.9999729709000779</v>
+        <v>0.9999749583715831</v>
       </c>
       <c r="V11">
-        <v>1.000026718381325</v>
+        <v>1.000024752467413</v>
       </c>
       <c r="W11">
-        <v>0.9999761060054458</v>
+        <v>0.9999778638629382</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1292,67 +1349,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.000802506262872</v>
+        <v>0.9999616158330158</v>
       </c>
       <c r="D12">
-        <v>1.00401254475068</v>
+        <v>0.9998080783044887</v>
       </c>
       <c r="E12">
-        <v>0.9973249710934048</v>
+        <v>1.000127948030674</v>
       </c>
       <c r="F12">
-        <v>1.00401254475068</v>
+        <v>0.9998080783044887</v>
       </c>
       <c r="G12">
-        <v>0.9989968660173206</v>
+        <v>1.00004797941978</v>
       </c>
       <c r="H12">
-        <v>0.9985105793061635</v>
+        <v>1.000071239895646</v>
       </c>
       <c r="I12">
-        <v>1.000862207233465</v>
+        <v>0.9999587610898931</v>
       </c>
       <c r="J12">
-        <v>0.9973249710934048</v>
+        <v>1.000127948030674</v>
       </c>
       <c r="K12">
-        <v>0.9973249710934048</v>
+        <v>1.000127948030674</v>
       </c>
       <c r="L12">
-        <v>1.002608983010344</v>
+        <v>0.9998752125759461</v>
       </c>
       <c r="M12">
-        <v>0.9989968660173206</v>
+        <v>1.00004797941978</v>
       </c>
       <c r="N12">
-        <v>0.9973249710934048</v>
+        <v>1.000127948030674</v>
       </c>
       <c r="O12">
-        <v>0.9989968660173206</v>
+        <v>1.00004797941978</v>
       </c>
       <c r="P12">
-        <v>1.001504705384</v>
+        <v>0.9999280288621345</v>
       </c>
       <c r="Q12">
-        <v>0.9999295366253929</v>
+        <v>1.000003370254837</v>
       </c>
       <c r="R12">
-        <v>1.000111460620468</v>
+        <v>0.9999946685849809</v>
       </c>
       <c r="S12">
-        <v>1.001290539333822</v>
+        <v>0.999938272938054</v>
       </c>
       <c r="T12">
-        <v>1.000111460620468</v>
+        <v>0.9999946685849809</v>
       </c>
       <c r="U12">
-        <v>1.000299147273718</v>
+        <v>0.999985691711209</v>
       </c>
       <c r="V12">
-        <v>0.9997043120376551</v>
+        <v>1.000014142975102</v>
       </c>
       <c r="W12">
-        <v>1.000264440461446</v>
+        <v>0.9999873518211531</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1363,67 +1420,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.000208009063202</v>
+        <v>0.9998617503995837</v>
       </c>
       <c r="D13">
-        <v>1.001040039616234</v>
+        <v>0.9993087334904088</v>
       </c>
       <c r="E13">
-        <v>0.9993066421812604</v>
+        <v>1.000460843769818</v>
       </c>
       <c r="F13">
-        <v>1.001040039616234</v>
+        <v>0.9993087334904088</v>
       </c>
       <c r="G13">
-        <v>0.9997399888807381</v>
+        <v>1.000172816825062</v>
       </c>
       <c r="H13">
-        <v>0.9996139498440455</v>
+        <v>1.000256593192572</v>
       </c>
       <c r="I13">
-        <v>1.00022348233041</v>
+        <v>0.9998514630496506</v>
       </c>
       <c r="J13">
-        <v>0.9993066421812604</v>
+        <v>1.000460843769818</v>
       </c>
       <c r="K13">
-        <v>0.9993066421812604</v>
+        <v>1.000460843769818</v>
       </c>
       <c r="L13">
-        <v>1.000676236418479</v>
+        <v>0.99955053783489</v>
       </c>
       <c r="M13">
-        <v>0.9997399888807381</v>
+        <v>1.000172816825062</v>
       </c>
       <c r="N13">
-        <v>0.9993066421812604</v>
+        <v>1.000460843769818</v>
       </c>
       <c r="O13">
-        <v>0.9997399888807381</v>
+        <v>1.000172816825062</v>
       </c>
       <c r="P13">
-        <v>1.000390014248486</v>
+        <v>0.9997407751577352</v>
       </c>
       <c r="Q13">
-        <v>0.9999817356055742</v>
+        <v>1.000012139937356</v>
       </c>
       <c r="R13">
-        <v>1.000028890226077</v>
+        <v>0.9999807980284293</v>
       </c>
       <c r="S13">
-        <v>1.000334503609127</v>
+        <v>0.999777671121707</v>
       </c>
       <c r="T13">
-        <v>1.000028890226077</v>
+        <v>0.9999807980284293</v>
       </c>
       <c r="U13">
-        <v>1.000077538252161</v>
+        <v>0.9999484642837346</v>
       </c>
       <c r="V13">
-        <v>0.9999233590379806</v>
+        <v>1.000050940180951</v>
       </c>
       <c r="W13">
-        <v>1.000068542151888</v>
+        <v>0.9999544444233807</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1434,67 +1491,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.00000325123103</v>
+        <v>0.9998435988882409</v>
       </c>
       <c r="D14">
-        <v>1.000016246698306</v>
+        <v>0.9992179623991384</v>
       </c>
       <c r="E14">
-        <v>0.9999891729394074</v>
+        <v>1.000521355743796</v>
       </c>
       <c r="F14">
-        <v>1.000016246698306</v>
+        <v>0.9992179623991384</v>
       </c>
       <c r="G14">
-        <v>0.9999959388576023</v>
+        <v>1.000195503381616</v>
       </c>
       <c r="H14">
-        <v>0.9999939776097011</v>
+        <v>1.000290285716289</v>
       </c>
       <c r="I14">
-        <v>1.000003487505612</v>
+        <v>0.9998319639107606</v>
       </c>
       <c r="J14">
-        <v>0.9999891729394074</v>
+        <v>1.000521355743796</v>
       </c>
       <c r="K14">
-        <v>0.9999891729394074</v>
+        <v>1.000521355743796</v>
       </c>
       <c r="L14">
-        <v>1.000010562391112</v>
+        <v>0.9994915129010218</v>
       </c>
       <c r="M14">
-        <v>0.9999959388576023</v>
+        <v>1.000195503381616</v>
       </c>
       <c r="N14">
-        <v>0.9999891729394074</v>
+        <v>1.000521355743796</v>
       </c>
       <c r="O14">
-        <v>0.9999959388576023</v>
+        <v>1.000195503381616</v>
       </c>
       <c r="P14">
-        <v>1.000006092777954</v>
+        <v>0.999706732890377</v>
       </c>
       <c r="Q14">
-        <v>0.999999713181607</v>
+        <v>1.000013733646188</v>
       </c>
       <c r="R14">
-        <v>1.000000452831772</v>
+        <v>0.9999782738415167</v>
       </c>
       <c r="S14">
-        <v>1.00000522435384</v>
+        <v>0.9997484765638381</v>
       </c>
       <c r="T14">
-        <v>1.000000452831772</v>
+        <v>0.9999782738415167</v>
       </c>
       <c r="U14">
-        <v>1.000001211500232</v>
+        <v>0.9999416963588277</v>
       </c>
       <c r="V14">
-        <v>0.9999988037880667</v>
+        <v>1.000057628235821</v>
       </c>
       <c r="W14">
-        <v>1.000001072011297</v>
+        <v>0.9999484607903097</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1505,67 +1562,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9999991544416285</v>
+        <v>0.9999441364388246</v>
       </c>
       <c r="D15">
-        <v>0.9999957527114924</v>
+        <v>0.9997206793160465</v>
       </c>
       <c r="E15">
-        <v>1.000002831313868</v>
+        <v>1.0001862139065</v>
       </c>
       <c r="F15">
-        <v>0.9999957527114924</v>
+        <v>0.9997206793160465</v>
       </c>
       <c r="G15">
-        <v>1.000001062561848</v>
+        <v>1.000069829081396</v>
       </c>
       <c r="H15">
-        <v>1.000001579236763</v>
+        <v>1.000103681569537</v>
       </c>
       <c r="I15">
-        <v>0.9999990867814664</v>
+        <v>0.9999399812451158</v>
       </c>
       <c r="J15">
-        <v>1.000002831313868</v>
+        <v>1.0001862139065</v>
       </c>
       <c r="K15">
-        <v>1.000002831313868</v>
+        <v>1.0001862139065</v>
       </c>
       <c r="L15">
-        <v>0.9999972423346497</v>
+        <v>0.9998183850714399</v>
       </c>
       <c r="M15">
-        <v>1.000001062561848</v>
+        <v>1.000069829081396</v>
       </c>
       <c r="N15">
-        <v>1.000002831313868</v>
+        <v>1.0001862139065</v>
       </c>
       <c r="O15">
-        <v>1.000001062561848</v>
+        <v>1.000069829081396</v>
       </c>
       <c r="P15">
-        <v>0.9999984076366704</v>
+        <v>0.9998952541987211</v>
       </c>
       <c r="Q15">
-        <v>1.000000074671657</v>
+        <v>1.000004905163256</v>
       </c>
       <c r="R15">
-        <v>0.9999998821957364</v>
+        <v>0.9999922407679808</v>
       </c>
       <c r="S15">
-        <v>0.9999986340182691</v>
+        <v>0.999910163214186</v>
       </c>
       <c r="T15">
-        <v>0.9999998821957364</v>
+        <v>0.9999922407679808</v>
       </c>
       <c r="U15">
-        <v>0.9999996833421689</v>
+        <v>0.9999791758872645</v>
       </c>
       <c r="V15">
-        <v>1.000000312936509</v>
+        <v>1.000020583491112</v>
       </c>
       <c r="W15">
-        <v>0.9999997214929457</v>
+        <v>0.999981591963782</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1576,67 +1633,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9989099788904047</v>
+        <v>0.9998921545033813</v>
       </c>
       <c r="D16">
-        <v>0.9945498668104895</v>
+        <v>0.9994607752654463</v>
       </c>
       <c r="E16">
-        <v>1.00363341897617</v>
+        <v>1.000359483073277</v>
       </c>
       <c r="F16">
-        <v>0.9945498668104895</v>
+        <v>0.9994607752654463</v>
       </c>
       <c r="G16">
-        <v>1.001362533670702</v>
+        <v>1.00013480587907</v>
       </c>
       <c r="H16">
-        <v>1.0020230397369</v>
+        <v>1.000200156810134</v>
       </c>
       <c r="I16">
-        <v>0.9988288983188518</v>
+        <v>0.9998841329181529</v>
       </c>
       <c r="J16">
-        <v>1.00363341897617</v>
+        <v>1.000359483073277</v>
       </c>
       <c r="K16">
-        <v>1.00363341897617</v>
+        <v>1.000359483073277</v>
       </c>
       <c r="L16">
-        <v>0.9964562955489022</v>
+        <v>0.9996493947247888</v>
       </c>
       <c r="M16">
-        <v>1.001362533670702</v>
+        <v>1.00013480587907</v>
       </c>
       <c r="N16">
-        <v>1.00363341897617</v>
+        <v>1.000359483073277</v>
       </c>
       <c r="O16">
-        <v>1.001362533670702</v>
+        <v>1.00013480587907</v>
       </c>
       <c r="P16">
-        <v>0.9979562002405956</v>
+        <v>0.9997977905722584</v>
       </c>
       <c r="Q16">
-        <v>1.000095715994777</v>
+        <v>1.000009469398612</v>
       </c>
       <c r="R16">
-        <v>0.999848606485787</v>
+        <v>0.9999850214059314</v>
       </c>
       <c r="S16">
-        <v>0.9982470996000142</v>
+        <v>0.9998265713542231</v>
       </c>
       <c r="T16">
-        <v>0.999848606485787</v>
+        <v>0.9999850214059314</v>
       </c>
       <c r="U16">
-        <v>0.9995936794440532</v>
+        <v>0.9999597992839868</v>
       </c>
       <c r="V16">
-        <v>1.000401627350477</v>
+        <v>1.000039736041845</v>
       </c>
       <c r="W16">
-        <v>0.9996408207028902</v>
+        <v>0.9999644636316652</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1647,67 +1704,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9991067578481401</v>
+        <v>0.9997933297358073</v>
       </c>
       <c r="D17">
-        <v>0.9955337706317696</v>
+        <v>0.9989666419557043</v>
       </c>
       <c r="E17">
-        <v>1.002977484205174</v>
+        <v>1.00068890959113</v>
       </c>
       <c r="F17">
-        <v>0.9955337706317696</v>
+        <v>0.9989666419557043</v>
       </c>
       <c r="G17">
-        <v>1.001116557545248</v>
+        <v>1.000258340251036</v>
       </c>
       <c r="H17">
-        <v>1.001657824554893</v>
+        <v>1.000383575306782</v>
       </c>
       <c r="I17">
-        <v>0.9990403152993869</v>
+        <v>0.9997779578162325</v>
       </c>
       <c r="J17">
-        <v>1.002977484205174</v>
+        <v>1.00068890959113</v>
       </c>
       <c r="K17">
-        <v>1.002977484205174</v>
+        <v>1.00068890959113</v>
       </c>
       <c r="L17">
-        <v>0.9970960345596588</v>
+        <v>0.9993281023878395</v>
       </c>
       <c r="M17">
-        <v>1.001116557545248</v>
+        <v>1.000258340251036</v>
       </c>
       <c r="N17">
-        <v>1.002977484205174</v>
+        <v>1.00068890959113</v>
       </c>
       <c r="O17">
-        <v>1.001116557545248</v>
+        <v>1.000258340251036</v>
       </c>
       <c r="P17">
-        <v>0.9983251640885087</v>
+        <v>0.9996124911033699</v>
       </c>
       <c r="Q17">
-        <v>1.000078436422317</v>
+        <v>1.000018149033634</v>
       </c>
       <c r="R17">
-        <v>0.9998759374607303</v>
+        <v>0.9999712972659566</v>
       </c>
       <c r="S17">
-        <v>0.9985635478254681</v>
+        <v>0.9996676466743241</v>
       </c>
       <c r="T17">
-        <v>0.9998759374607303</v>
+        <v>0.9999712972659566</v>
       </c>
       <c r="U17">
-        <v>0.9996670319203945</v>
+        <v>0.9999229624035255</v>
       </c>
       <c r="V17">
-        <v>1.00032912237735</v>
+        <v>1.000076151841046</v>
       </c>
       <c r="W17">
-        <v>0.9997056627736896</v>
+        <v>0.999931899661946</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1718,67 +1775,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9995000066578799</v>
+        <v>0.9996968778700214</v>
       </c>
       <c r="D18">
-        <v>0.9975000302735447</v>
+        <v>0.9984843894972251</v>
       </c>
       <c r="E18">
-        <v>1.00166664881223</v>
+        <v>1.001010402067922</v>
       </c>
       <c r="F18">
-        <v>0.9975000302735447</v>
+        <v>0.9984843894972251</v>
       </c>
       <c r="G18">
-        <v>1.000624993016779</v>
+        <v>1.00037889821504</v>
       </c>
       <c r="H18">
-        <v>1.000927970770352</v>
+        <v>1.000562581639266</v>
       </c>
       <c r="I18">
-        <v>0.9994628157965413</v>
+        <v>0.9996743320287436</v>
       </c>
       <c r="J18">
-        <v>1.00166664881223</v>
+        <v>1.001010402067922</v>
       </c>
       <c r="K18">
-        <v>1.00166664881223</v>
+        <v>1.001010402067922</v>
       </c>
       <c r="L18">
-        <v>0.9983745056849235</v>
+        <v>0.9990145447759441</v>
       </c>
       <c r="M18">
-        <v>1.000624993016779</v>
+        <v>1.00037889821504</v>
       </c>
       <c r="N18">
-        <v>1.00166664881223</v>
+        <v>1.001010402067922</v>
       </c>
       <c r="O18">
-        <v>1.000624993016779</v>
+        <v>1.00037889821504</v>
       </c>
       <c r="P18">
-        <v>0.9990625116451617</v>
+        <v>0.9994316438561327</v>
       </c>
       <c r="Q18">
-        <v>1.00004390440666</v>
+        <v>1.000026615121892</v>
       </c>
       <c r="R18">
-        <v>0.9999305573675178</v>
+        <v>0.9999578965933958</v>
       </c>
       <c r="S18">
-        <v>0.9991959463622883</v>
+        <v>0.9995125399136696</v>
       </c>
       <c r="T18">
-        <v>0.9999305573675178</v>
+        <v>0.9999578965933958</v>
       </c>
       <c r="U18">
-        <v>0.9998136219747736</v>
+        <v>0.9998870054522329</v>
       </c>
       <c r="V18">
-        <v>1.000184227342265</v>
+        <v>1.000111684775371</v>
       </c>
       <c r="W18">
-        <v>0.9998352455036286</v>
+        <v>0.9999001155386504</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1789,67 +1846,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9994532275828213</v>
+        <v>0.9999953804760857</v>
       </c>
       <c r="D19">
-        <v>0.9972661481063558</v>
+        <v>0.999976902291966</v>
       </c>
       <c r="E19">
-        <v>1.001822569955991</v>
+        <v>1.000015398671753</v>
       </c>
       <c r="F19">
-        <v>0.9972661481063558</v>
+        <v>0.999976902291966</v>
       </c>
       <c r="G19">
-        <v>1.000683463481866</v>
+        <v>1.000005773360247</v>
       </c>
       <c r="H19">
-        <v>1.001014784730009</v>
+        <v>1.000008573960766</v>
       </c>
       <c r="I19">
-        <v>0.9994125626484532</v>
+        <v>0.9999950372631156</v>
       </c>
       <c r="J19">
-        <v>1.001822569955991</v>
+        <v>1.000015398671753</v>
       </c>
       <c r="K19">
-        <v>1.001822569955991</v>
+        <v>1.000015398671753</v>
       </c>
       <c r="L19">
-        <v>0.9982224311166722</v>
+        <v>0.9999849828554456</v>
       </c>
       <c r="M19">
-        <v>1.000683463481866</v>
+        <v>1.000005773360247</v>
       </c>
       <c r="N19">
-        <v>1.001822569955991</v>
+        <v>1.000015398671753</v>
       </c>
       <c r="O19">
-        <v>1.000683463481866</v>
+        <v>1.000005773360247</v>
       </c>
       <c r="P19">
-        <v>0.9989748057941107</v>
+        <v>0.9999913378261065</v>
       </c>
       <c r="Q19">
-        <v>1.000048013065159</v>
+        <v>1.000000405311681</v>
       </c>
       <c r="R19">
-        <v>0.9999240605147374</v>
+        <v>0.9999993581079888</v>
       </c>
       <c r="S19">
-        <v>0.9991207247455582</v>
+        <v>0.9999925709717762</v>
       </c>
       <c r="T19">
-        <v>0.9999240605147374</v>
+        <v>0.9999993581079888</v>
       </c>
       <c r="U19">
-        <v>0.9997961860481663</v>
+        <v>0.9999982778967704</v>
       </c>
       <c r="V19">
-        <v>1.000201462829731</v>
+        <v>1.000001702051767</v>
       </c>
       <c r="W19">
-        <v>0.9998198313880042</v>
+        <v>0.9999984777799533</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1860,67 +1917,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9999997694140469</v>
+        <v>0.9999866499529582</v>
       </c>
       <c r="D20">
-        <v>0.9999988474577831</v>
+        <v>0.9999332499417307</v>
       </c>
       <c r="E20">
-        <v>1.000000768543687</v>
+        <v>1.000044500320241</v>
       </c>
       <c r="F20">
-        <v>0.9999988474577831</v>
+        <v>0.9999332499417307</v>
       </c>
       <c r="G20">
-        <v>1.000000287022341</v>
+        <v>1.000016686528213</v>
       </c>
       <c r="H20">
-        <v>1.000000428112471</v>
+        <v>1.000024777586765</v>
       </c>
       <c r="I20">
-        <v>0.9999997527181681</v>
+        <v>0.9999856573744318</v>
       </c>
       <c r="J20">
-        <v>1.000000768543687</v>
+        <v>1.000044500320241</v>
       </c>
       <c r="K20">
-        <v>1.000000768543687</v>
+        <v>1.000044500320241</v>
       </c>
       <c r="L20">
-        <v>0.999999251728597</v>
+        <v>0.9999566000146138</v>
       </c>
       <c r="M20">
-        <v>1.000000287022341</v>
+        <v>1.000016686528213</v>
       </c>
       <c r="N20">
-        <v>1.000000768543687</v>
+        <v>1.000044500320241</v>
       </c>
       <c r="O20">
-        <v>1.000000287022341</v>
+        <v>1.000016686528213</v>
       </c>
       <c r="P20">
-        <v>0.9999995672400623</v>
+        <v>0.9999749682349721</v>
       </c>
       <c r="Q20">
-        <v>1.000000019870255</v>
+        <v>1.000001171951323</v>
       </c>
       <c r="R20">
-        <v>0.9999999676746039</v>
+        <v>0.9999981455967283</v>
       </c>
       <c r="S20">
-        <v>0.9999996290660976</v>
+        <v>0.9999785312814587</v>
       </c>
       <c r="T20">
-        <v>0.9999999676746039</v>
+        <v>0.9999981455967283</v>
       </c>
       <c r="U20">
-        <v>0.9999999139354949</v>
+        <v>0.9999950235411542</v>
       </c>
       <c r="V20">
-        <v>1.000000084857133</v>
+        <v>1.000004918896972</v>
       </c>
       <c r="W20">
-        <v>0.9999999240024295</v>
+        <v>0.9999956010308959</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1931,67 +1988,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9999951145350165</v>
+        <v>0.999980129524694</v>
       </c>
       <c r="D21">
-        <v>0.9999755736196053</v>
+        <v>0.9999006487358991</v>
       </c>
       <c r="E21">
-        <v>1.000016284378513</v>
+        <v>1.000066234406032</v>
       </c>
       <c r="F21">
-        <v>0.9999755736196053</v>
+        <v>0.9999006487358991</v>
       </c>
       <c r="G21">
-        <v>1.000006105717792</v>
+        <v>1.000024836618092</v>
       </c>
       <c r="H21">
-        <v>1.000009067429393</v>
+        <v>1.000036878624651</v>
       </c>
       <c r="I21">
-        <v>0.999994752035404</v>
+        <v>0.9999786522689392</v>
       </c>
       <c r="J21">
-        <v>1.000016284378513</v>
+        <v>1.000066234406032</v>
       </c>
       <c r="K21">
-        <v>1.000016284378513</v>
+        <v>1.000066234406032</v>
       </c>
       <c r="L21">
-        <v>0.999984118920814</v>
+        <v>0.9999354021049501</v>
       </c>
       <c r="M21">
-        <v>1.000006105717792</v>
+        <v>1.000024836618092</v>
       </c>
       <c r="N21">
-        <v>1.000016284378513</v>
+        <v>1.000066234406032</v>
       </c>
       <c r="O21">
-        <v>1.000006105717792</v>
+        <v>1.000024836618092</v>
       </c>
       <c r="P21">
-        <v>0.9999908396686987</v>
+        <v>0.9999627426769955</v>
       </c>
       <c r="Q21">
-        <v>1.000000428876598</v>
+        <v>1.000001744443515</v>
       </c>
       <c r="R21">
-        <v>0.9999993212386368</v>
+        <v>0.9999972399200076</v>
       </c>
       <c r="S21">
-        <v>0.9999921437909339</v>
+        <v>0.9999680458743101</v>
       </c>
       <c r="T21">
-        <v>0.9999993212386368</v>
+        <v>0.9999972399200076</v>
       </c>
       <c r="U21">
-        <v>0.9999981789378285</v>
+        <v>0.9999925930072405</v>
       </c>
       <c r="V21">
-        <v>1.000001800025965</v>
+        <v>1.000007321286999</v>
       </c>
       <c r="W21">
-        <v>0.9999983902942912</v>
+        <v>0.9999934523626686</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2002,67 +2059,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9999827999830453</v>
+        <v>0.9999583031788348</v>
       </c>
       <c r="D22">
-        <v>0.9999139999147919</v>
+        <v>0.9997915122198182</v>
       </c>
       <c r="E22">
-        <v>1.000057334363166</v>
+        <v>1.000138992513431</v>
       </c>
       <c r="F22">
-        <v>0.9999139999147919</v>
+        <v>0.9997915122198182</v>
       </c>
       <c r="G22">
-        <v>1.000021499216626</v>
+        <v>1.000052121309312</v>
       </c>
       <c r="H22">
-        <v>1.000031922672336</v>
+        <v>1.000077389956557</v>
       </c>
       <c r="I22">
-        <v>0.9999815231918525</v>
+        <v>0.9999552021033629</v>
       </c>
       <c r="J22">
-        <v>1.000057334363166</v>
+        <v>1.000138992513431</v>
       </c>
       <c r="K22">
-        <v>1.000057334363166</v>
+        <v>1.000138992513431</v>
       </c>
       <c r="L22">
-        <v>0.9999440826654679</v>
+        <v>0.9998644398512295</v>
       </c>
       <c r="M22">
-        <v>1.000021499216626</v>
+        <v>1.000052121309312</v>
       </c>
       <c r="N22">
-        <v>1.000057334363166</v>
+        <v>1.000138992513431</v>
       </c>
       <c r="O22">
-        <v>1.000021499216626</v>
+        <v>1.000052121309312</v>
       </c>
       <c r="P22">
-        <v>0.9999677495657088</v>
+        <v>0.9999218167645649</v>
       </c>
       <c r="Q22">
-        <v>1.000001511204239</v>
+        <v>1.000003661706337</v>
       </c>
       <c r="R22">
-        <v>0.9999976111648611</v>
+        <v>0.9999942086808536</v>
       </c>
       <c r="S22">
-        <v>0.9999723407744234</v>
+        <v>0.9999329452108309</v>
       </c>
       <c r="T22">
-        <v>0.9999976111648611</v>
+        <v>0.9999942086808536</v>
       </c>
       <c r="U22">
-        <v>0.999993589171609</v>
+        <v>0.999984457036481</v>
       </c>
       <c r="V22">
-        <v>1.00000633820992</v>
+        <v>1.000015364131871</v>
       </c>
       <c r="W22">
-        <v>0.9999943326529889</v>
+        <v>0.9999862603052321</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2073,67 +2130,1416 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>0.9999274885175633</v>
+      </c>
+      <c r="D23">
+        <v>0.9996374404613622</v>
+      </c>
+      <c r="E23">
+        <v>1.000241708306312</v>
+      </c>
+      <c r="F23">
+        <v>0.9996374404613622</v>
+      </c>
+      <c r="G23">
+        <v>1.000090638832606</v>
+      </c>
+      <c r="H23">
+        <v>1.000134578406256</v>
+      </c>
+      <c r="I23">
+        <v>0.999922096000032</v>
+      </c>
+      <c r="J23">
+        <v>1.000241708306312</v>
+      </c>
+      <c r="K23">
+        <v>1.000241708306312</v>
+      </c>
+      <c r="L23">
+        <v>0.9997642586868303</v>
+      </c>
+      <c r="M23">
+        <v>1.000090638832606</v>
+      </c>
+      <c r="N23">
+        <v>1.000241708306312</v>
+      </c>
+      <c r="O23">
+        <v>1.000090638832606</v>
+      </c>
+      <c r="P23">
+        <v>0.9998640396469839</v>
+      </c>
+      <c r="Q23">
+        <v>1.000006367416319</v>
+      </c>
+      <c r="R23">
+        <v>0.9999899292000931</v>
+      </c>
+      <c r="S23">
+        <v>0.9998833917646666</v>
+      </c>
+      <c r="T23">
+        <v>0.9999899292000931</v>
+      </c>
+      <c r="U23">
+        <v>0.9999729709000779</v>
+      </c>
+      <c r="V23">
+        <v>1.000026718381325</v>
+      </c>
+      <c r="W23">
+        <v>0.9999761060054458</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.000802506262872</v>
+      </c>
+      <c r="D24">
+        <v>1.00401254475068</v>
+      </c>
+      <c r="E24">
+        <v>0.9973249710934048</v>
+      </c>
+      <c r="F24">
+        <v>1.00401254475068</v>
+      </c>
+      <c r="G24">
+        <v>0.9989968660173206</v>
+      </c>
+      <c r="H24">
+        <v>0.9985105793061635</v>
+      </c>
+      <c r="I24">
+        <v>1.000862207233465</v>
+      </c>
+      <c r="J24">
+        <v>0.9973249710934048</v>
+      </c>
+      <c r="K24">
+        <v>0.9973249710934048</v>
+      </c>
+      <c r="L24">
+        <v>1.002608983010344</v>
+      </c>
+      <c r="M24">
+        <v>0.9989968660173206</v>
+      </c>
+      <c r="N24">
+        <v>0.9973249710934048</v>
+      </c>
+      <c r="O24">
+        <v>0.9989968660173206</v>
+      </c>
+      <c r="P24">
+        <v>1.001504705384</v>
+      </c>
+      <c r="Q24">
+        <v>0.9999295366253929</v>
+      </c>
+      <c r="R24">
+        <v>1.000111460620468</v>
+      </c>
+      <c r="S24">
+        <v>1.001290539333822</v>
+      </c>
+      <c r="T24">
+        <v>1.000111460620468</v>
+      </c>
+      <c r="U24">
+        <v>1.000299147273718</v>
+      </c>
+      <c r="V24">
+        <v>0.9997043120376551</v>
+      </c>
+      <c r="W24">
+        <v>1.000264440461446</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.000208009063202</v>
+      </c>
+      <c r="D25">
+        <v>1.001040039616234</v>
+      </c>
+      <c r="E25">
+        <v>0.9993066421812604</v>
+      </c>
+      <c r="F25">
+        <v>1.001040039616234</v>
+      </c>
+      <c r="G25">
+        <v>0.9997399888807381</v>
+      </c>
+      <c r="H25">
+        <v>0.9996139498440455</v>
+      </c>
+      <c r="I25">
+        <v>1.00022348233041</v>
+      </c>
+      <c r="J25">
+        <v>0.9993066421812604</v>
+      </c>
+      <c r="K25">
+        <v>0.9993066421812604</v>
+      </c>
+      <c r="L25">
+        <v>1.000676236418479</v>
+      </c>
+      <c r="M25">
+        <v>0.9997399888807381</v>
+      </c>
+      <c r="N25">
+        <v>0.9993066421812604</v>
+      </c>
+      <c r="O25">
+        <v>0.9997399888807381</v>
+      </c>
+      <c r="P25">
+        <v>1.000390014248486</v>
+      </c>
+      <c r="Q25">
+        <v>0.9999817356055742</v>
+      </c>
+      <c r="R25">
+        <v>1.000028890226077</v>
+      </c>
+      <c r="S25">
+        <v>1.000334503609127</v>
+      </c>
+      <c r="T25">
+        <v>1.000028890226077</v>
+      </c>
+      <c r="U25">
+        <v>1.000077538252161</v>
+      </c>
+      <c r="V25">
+        <v>0.9999233590379806</v>
+      </c>
+      <c r="W25">
+        <v>1.000068542151888</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.00000325123103</v>
+      </c>
+      <c r="D26">
+        <v>1.000016246698306</v>
+      </c>
+      <c r="E26">
+        <v>0.9999891729394074</v>
+      </c>
+      <c r="F26">
+        <v>1.000016246698306</v>
+      </c>
+      <c r="G26">
+        <v>0.9999959388576023</v>
+      </c>
+      <c r="H26">
+        <v>0.9999939776097011</v>
+      </c>
+      <c r="I26">
+        <v>1.000003487505612</v>
+      </c>
+      <c r="J26">
+        <v>0.9999891729394074</v>
+      </c>
+      <c r="K26">
+        <v>0.9999891729394074</v>
+      </c>
+      <c r="L26">
+        <v>1.000010562391112</v>
+      </c>
+      <c r="M26">
+        <v>0.9999959388576023</v>
+      </c>
+      <c r="N26">
+        <v>0.9999891729394074</v>
+      </c>
+      <c r="O26">
+        <v>0.9999959388576023</v>
+      </c>
+      <c r="P26">
+        <v>1.000006092777954</v>
+      </c>
+      <c r="Q26">
+        <v>0.999999713181607</v>
+      </c>
+      <c r="R26">
+        <v>1.000000452831772</v>
+      </c>
+      <c r="S26">
+        <v>1.00000522435384</v>
+      </c>
+      <c r="T26">
+        <v>1.000000452831772</v>
+      </c>
+      <c r="U26">
+        <v>1.000001211500232</v>
+      </c>
+      <c r="V26">
+        <v>0.9999988037880667</v>
+      </c>
+      <c r="W26">
+        <v>1.000001072011297</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9999991544416285</v>
+      </c>
+      <c r="D27">
+        <v>0.9999957527114924</v>
+      </c>
+      <c r="E27">
+        <v>1.000002831313868</v>
+      </c>
+      <c r="F27">
+        <v>0.9999957527114924</v>
+      </c>
+      <c r="G27">
+        <v>1.000001062561848</v>
+      </c>
+      <c r="H27">
+        <v>1.000001579236763</v>
+      </c>
+      <c r="I27">
+        <v>0.9999990867814664</v>
+      </c>
+      <c r="J27">
+        <v>1.000002831313868</v>
+      </c>
+      <c r="K27">
+        <v>1.000002831313868</v>
+      </c>
+      <c r="L27">
+        <v>0.9999972423346497</v>
+      </c>
+      <c r="M27">
+        <v>1.000001062561848</v>
+      </c>
+      <c r="N27">
+        <v>1.000002831313868</v>
+      </c>
+      <c r="O27">
+        <v>1.000001062561848</v>
+      </c>
+      <c r="P27">
+        <v>0.9999984076366704</v>
+      </c>
+      <c r="Q27">
+        <v>1.000000074671657</v>
+      </c>
+      <c r="R27">
+        <v>0.9999998821957364</v>
+      </c>
+      <c r="S27">
+        <v>0.9999986340182691</v>
+      </c>
+      <c r="T27">
+        <v>0.9999998821957364</v>
+      </c>
+      <c r="U27">
+        <v>0.9999996833421689</v>
+      </c>
+      <c r="V27">
+        <v>1.000000312936509</v>
+      </c>
+      <c r="W27">
+        <v>0.9999997214929457</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9989099788904047</v>
+      </c>
+      <c r="D28">
+        <v>0.9945498668104895</v>
+      </c>
+      <c r="E28">
+        <v>1.00363341897617</v>
+      </c>
+      <c r="F28">
+        <v>0.9945498668104895</v>
+      </c>
+      <c r="G28">
+        <v>1.001362533670702</v>
+      </c>
+      <c r="H28">
+        <v>1.0020230397369</v>
+      </c>
+      <c r="I28">
+        <v>0.9988288983188518</v>
+      </c>
+      <c r="J28">
+        <v>1.00363341897617</v>
+      </c>
+      <c r="K28">
+        <v>1.00363341897617</v>
+      </c>
+      <c r="L28">
+        <v>0.9964562955489022</v>
+      </c>
+      <c r="M28">
+        <v>1.001362533670702</v>
+      </c>
+      <c r="N28">
+        <v>1.00363341897617</v>
+      </c>
+      <c r="O28">
+        <v>1.001362533670702</v>
+      </c>
+      <c r="P28">
+        <v>0.9979562002405956</v>
+      </c>
+      <c r="Q28">
+        <v>1.000095715994777</v>
+      </c>
+      <c r="R28">
+        <v>0.999848606485787</v>
+      </c>
+      <c r="S28">
+        <v>0.9982470996000142</v>
+      </c>
+      <c r="T28">
+        <v>0.999848606485787</v>
+      </c>
+      <c r="U28">
+        <v>0.9995936794440532</v>
+      </c>
+      <c r="V28">
+        <v>1.000401627350477</v>
+      </c>
+      <c r="W28">
+        <v>0.9996408207028902</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.9991067578481401</v>
+      </c>
+      <c r="D29">
+        <v>0.9955337706317696</v>
+      </c>
+      <c r="E29">
+        <v>1.002977484205174</v>
+      </c>
+      <c r="F29">
+        <v>0.9955337706317696</v>
+      </c>
+      <c r="G29">
+        <v>1.001116557545248</v>
+      </c>
+      <c r="H29">
+        <v>1.001657824554893</v>
+      </c>
+      <c r="I29">
+        <v>0.9990403152993869</v>
+      </c>
+      <c r="J29">
+        <v>1.002977484205174</v>
+      </c>
+      <c r="K29">
+        <v>1.002977484205174</v>
+      </c>
+      <c r="L29">
+        <v>0.9970960345596588</v>
+      </c>
+      <c r="M29">
+        <v>1.001116557545248</v>
+      </c>
+      <c r="N29">
+        <v>1.002977484205174</v>
+      </c>
+      <c r="O29">
+        <v>1.001116557545248</v>
+      </c>
+      <c r="P29">
+        <v>0.9983251640885087</v>
+      </c>
+      <c r="Q29">
+        <v>1.000078436422317</v>
+      </c>
+      <c r="R29">
+        <v>0.9998759374607303</v>
+      </c>
+      <c r="S29">
+        <v>0.9985635478254681</v>
+      </c>
+      <c r="T29">
+        <v>0.9998759374607303</v>
+      </c>
+      <c r="U29">
+        <v>0.9996670319203945</v>
+      </c>
+      <c r="V29">
+        <v>1.00032912237735</v>
+      </c>
+      <c r="W29">
+        <v>0.9997056627736896</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9995000066578799</v>
+      </c>
+      <c r="D30">
+        <v>0.9975000302735447</v>
+      </c>
+      <c r="E30">
+        <v>1.00166664881223</v>
+      </c>
+      <c r="F30">
+        <v>0.9975000302735447</v>
+      </c>
+      <c r="G30">
+        <v>1.000624993016779</v>
+      </c>
+      <c r="H30">
+        <v>1.000927970770352</v>
+      </c>
+      <c r="I30">
+        <v>0.9994628157965413</v>
+      </c>
+      <c r="J30">
+        <v>1.00166664881223</v>
+      </c>
+      <c r="K30">
+        <v>1.00166664881223</v>
+      </c>
+      <c r="L30">
+        <v>0.9983745056849235</v>
+      </c>
+      <c r="M30">
+        <v>1.000624993016779</v>
+      </c>
+      <c r="N30">
+        <v>1.00166664881223</v>
+      </c>
+      <c r="O30">
+        <v>1.000624993016779</v>
+      </c>
+      <c r="P30">
+        <v>0.9990625116451617</v>
+      </c>
+      <c r="Q30">
+        <v>1.00004390440666</v>
+      </c>
+      <c r="R30">
+        <v>0.9999305573675178</v>
+      </c>
+      <c r="S30">
+        <v>0.9991959463622883</v>
+      </c>
+      <c r="T30">
+        <v>0.9999305573675178</v>
+      </c>
+      <c r="U30">
+        <v>0.9998136219747736</v>
+      </c>
+      <c r="V30">
+        <v>1.000184227342265</v>
+      </c>
+      <c r="W30">
+        <v>0.9998352455036286</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0.9994532275828213</v>
+      </c>
+      <c r="D31">
+        <v>0.9972661481063558</v>
+      </c>
+      <c r="E31">
+        <v>1.001822569955991</v>
+      </c>
+      <c r="F31">
+        <v>0.9972661481063558</v>
+      </c>
+      <c r="G31">
+        <v>1.000683463481866</v>
+      </c>
+      <c r="H31">
+        <v>1.001014784730009</v>
+      </c>
+      <c r="I31">
+        <v>0.9994125626484532</v>
+      </c>
+      <c r="J31">
+        <v>1.001822569955991</v>
+      </c>
+      <c r="K31">
+        <v>1.001822569955991</v>
+      </c>
+      <c r="L31">
+        <v>0.9982224311166722</v>
+      </c>
+      <c r="M31">
+        <v>1.000683463481866</v>
+      </c>
+      <c r="N31">
+        <v>1.001822569955991</v>
+      </c>
+      <c r="O31">
+        <v>1.000683463481866</v>
+      </c>
+      <c r="P31">
+        <v>0.9989748057941107</v>
+      </c>
+      <c r="Q31">
+        <v>1.000048013065159</v>
+      </c>
+      <c r="R31">
+        <v>0.9999240605147374</v>
+      </c>
+      <c r="S31">
+        <v>0.9991207247455582</v>
+      </c>
+      <c r="T31">
+        <v>0.9999240605147374</v>
+      </c>
+      <c r="U31">
+        <v>0.9997961860481663</v>
+      </c>
+      <c r="V31">
+        <v>1.000201462829731</v>
+      </c>
+      <c r="W31">
+        <v>0.9998198313880042</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>0.9986524432876712</v>
+      </c>
+      <c r="D32">
+        <v>0.9932621802739727</v>
+      </c>
+      <c r="E32">
+        <v>1.004491875616438</v>
+      </c>
+      <c r="F32">
+        <v>0.9932621802739727</v>
+      </c>
+      <c r="G32">
+        <v>1.001684454794521</v>
+      </c>
+      <c r="H32">
+        <v>1.002501016986301</v>
+      </c>
+      <c r="I32">
+        <v>0.9985522057534247</v>
+      </c>
+      <c r="J32">
+        <v>1.004491875616438</v>
+      </c>
+      <c r="K32">
+        <v>1.004491875616438</v>
+      </c>
+      <c r="L32">
+        <v>0.995619035205479</v>
+      </c>
+      <c r="M32">
+        <v>1.001684454794521</v>
+      </c>
+      <c r="N32">
+        <v>1.004491875616438</v>
+      </c>
+      <c r="O32">
+        <v>1.001684454794521</v>
+      </c>
+      <c r="P32">
+        <v>0.9974733175342467</v>
+      </c>
+      <c r="Q32">
+        <v>1.000118330273973</v>
+      </c>
+      <c r="R32">
+        <v>0.9998128368949772</v>
+      </c>
+      <c r="S32">
+        <v>0.9978329469406394</v>
+      </c>
+      <c r="T32">
+        <v>0.9998128368949772</v>
+      </c>
+      <c r="U32">
+        <v>0.9994976791095891</v>
+      </c>
+      <c r="V32">
+        <v>1.000496518410959</v>
+      </c>
+      <c r="W32">
+        <v>0.999555958339041</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>0.997800675263158</v>
+      </c>
+      <c r="D33">
+        <v>0.9890033726315791</v>
+      </c>
+      <c r="E33">
+        <v>1.007331088947368</v>
+      </c>
+      <c r="F33">
+        <v>0.9890033726315791</v>
+      </c>
+      <c r="G33">
+        <v>1.002749164736842</v>
+      </c>
+      <c r="H33">
+        <v>1.00408185368421</v>
+      </c>
+      <c r="I33">
+        <v>0.9976370826315789</v>
+      </c>
+      <c r="J33">
+        <v>1.007331088947368</v>
+      </c>
+      <c r="K33">
+        <v>1.007331088947368</v>
+      </c>
+      <c r="L33">
+        <v>0.9928499273684211</v>
+      </c>
+      <c r="M33">
+        <v>1.002749164736842</v>
+      </c>
+      <c r="N33">
+        <v>1.007331088947368</v>
+      </c>
+      <c r="O33">
+        <v>1.002749164736842</v>
+      </c>
+      <c r="P33">
+        <v>0.9958762686842106</v>
+      </c>
+      <c r="Q33">
+        <v>1.000193123684211</v>
+      </c>
+      <c r="R33">
+        <v>0.9996945421052632</v>
+      </c>
+      <c r="S33">
+        <v>0.9964632066666668</v>
+      </c>
+      <c r="T33">
+        <v>0.9996945421052633</v>
+      </c>
+      <c r="U33">
+        <v>0.9991801772368423</v>
+      </c>
+      <c r="V33">
+        <v>1.000810359578947</v>
+      </c>
+      <c r="W33">
+        <v>0.99927529125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>0.9978669105263159</v>
+      </c>
+      <c r="D34">
+        <v>0.9893345631578947</v>
+      </c>
+      <c r="E34">
+        <v>1.007110298947368</v>
+      </c>
+      <c r="F34">
+        <v>0.9893345631578947</v>
+      </c>
+      <c r="G34">
+        <v>1.002666350526316</v>
+      </c>
+      <c r="H34">
+        <v>1.003958923684211</v>
+      </c>
+      <c r="I34">
+        <v>0.9977082536842106</v>
+      </c>
+      <c r="J34">
+        <v>1.007110298947368</v>
+      </c>
+      <c r="K34">
+        <v>1.007110298947368</v>
+      </c>
+      <c r="L34">
+        <v>0.9930652668421055</v>
+      </c>
+      <c r="M34">
+        <v>1.002666350526316</v>
+      </c>
+      <c r="N34">
+        <v>1.007110298947368</v>
+      </c>
+      <c r="O34">
+        <v>1.002666350526316</v>
+      </c>
+      <c r="P34">
+        <v>0.9960004568421053</v>
+      </c>
+      <c r="Q34">
+        <v>1.000187302105263</v>
+      </c>
+      <c r="R34">
+        <v>0.9997037375438597</v>
+      </c>
+      <c r="S34">
+        <v>0.9965697224561403</v>
+      </c>
+      <c r="T34">
+        <v>0.9997037375438597</v>
+      </c>
+      <c r="U34">
+        <v>0.9992048665789475</v>
+      </c>
+      <c r="V34">
+        <v>1.000785953052632</v>
+      </c>
+      <c r="W34">
+        <v>0.9992971147368421</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.9980390964658836</v>
+      </c>
+      <c r="D35">
+        <v>0.9901954815167299</v>
+      </c>
+      <c r="E35">
+        <v>1.006536345882048</v>
+      </c>
+      <c r="F35">
+        <v>0.9901954815167299</v>
+      </c>
+      <c r="G35">
+        <v>1.002451148303192</v>
+      </c>
+      <c r="H35">
+        <v>1.003639368733281</v>
+      </c>
+      <c r="I35">
+        <v>0.9978932415120436</v>
+      </c>
+      <c r="J35">
+        <v>1.006536345882048</v>
+      </c>
+      <c r="K35">
+        <v>1.006536345882048</v>
+      </c>
+      <c r="L35">
+        <v>0.9936250460252111</v>
+      </c>
+      <c r="M35">
+        <v>1.002451148303192</v>
+      </c>
+      <c r="N35">
+        <v>1.006536345882048</v>
+      </c>
+      <c r="O35">
+        <v>1.002451148303192</v>
+      </c>
+      <c r="P35">
+        <v>0.9963233149099611</v>
+      </c>
+      <c r="Q35">
+        <v>1.000172194907618</v>
+      </c>
+      <c r="R35">
+        <v>0.9997276585673233</v>
+      </c>
+      <c r="S35">
+        <v>0.9968466237773219</v>
+      </c>
+      <c r="T35">
+        <v>0.9997276585673234</v>
+      </c>
+      <c r="U35">
+        <v>0.9992690543035034</v>
+      </c>
+      <c r="V35">
+        <v>1.000722512619212</v>
+      </c>
+      <c r="W35">
+        <v>0.9993538595926978</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>0.9999997694140469</v>
+      </c>
+      <c r="D36">
+        <v>0.9999988474577831</v>
+      </c>
+      <c r="E36">
+        <v>1.000000768543687</v>
+      </c>
+      <c r="F36">
+        <v>0.9999988474577831</v>
+      </c>
+      <c r="G36">
+        <v>1.000000287022341</v>
+      </c>
+      <c r="H36">
+        <v>1.000000428112471</v>
+      </c>
+      <c r="I36">
+        <v>0.9999997527181681</v>
+      </c>
+      <c r="J36">
+        <v>1.000000768543687</v>
+      </c>
+      <c r="K36">
+        <v>1.000000768543687</v>
+      </c>
+      <c r="L36">
+        <v>0.999999251728597</v>
+      </c>
+      <c r="M36">
+        <v>1.000000287022341</v>
+      </c>
+      <c r="N36">
+        <v>1.000000768543687</v>
+      </c>
+      <c r="O36">
+        <v>1.000000287022341</v>
+      </c>
+      <c r="P36">
+        <v>0.9999995672400623</v>
+      </c>
+      <c r="Q36">
+        <v>1.000000019870255</v>
+      </c>
+      <c r="R36">
+        <v>0.9999999676746039</v>
+      </c>
+      <c r="S36">
+        <v>0.9999996290660976</v>
+      </c>
+      <c r="T36">
+        <v>0.9999999676746039</v>
+      </c>
+      <c r="U36">
+        <v>0.9999999139354949</v>
+      </c>
+      <c r="V36">
+        <v>1.000000084857133</v>
+      </c>
+      <c r="W36">
+        <v>0.9999999240024295</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.9999951145350165</v>
+      </c>
+      <c r="D37">
+        <v>0.9999755736196053</v>
+      </c>
+      <c r="E37">
+        <v>1.000016284378513</v>
+      </c>
+      <c r="F37">
+        <v>0.9999755736196053</v>
+      </c>
+      <c r="G37">
+        <v>1.000006105717792</v>
+      </c>
+      <c r="H37">
+        <v>1.000009067429393</v>
+      </c>
+      <c r="I37">
+        <v>0.999994752035404</v>
+      </c>
+      <c r="J37">
+        <v>1.000016284378513</v>
+      </c>
+      <c r="K37">
+        <v>1.000016284378513</v>
+      </c>
+      <c r="L37">
+        <v>0.999984118920814</v>
+      </c>
+      <c r="M37">
+        <v>1.000006105717792</v>
+      </c>
+      <c r="N37">
+        <v>1.000016284378513</v>
+      </c>
+      <c r="O37">
+        <v>1.000006105717792</v>
+      </c>
+      <c r="P37">
+        <v>0.9999908396686987</v>
+      </c>
+      <c r="Q37">
+        <v>1.000000428876598</v>
+      </c>
+      <c r="R37">
+        <v>0.9999993212386368</v>
+      </c>
+      <c r="S37">
+        <v>0.9999921437909339</v>
+      </c>
+      <c r="T37">
+        <v>0.9999993212386368</v>
+      </c>
+      <c r="U37">
+        <v>0.9999981789378285</v>
+      </c>
+      <c r="V37">
+        <v>1.000001800025965</v>
+      </c>
+      <c r="W37">
+        <v>0.9999983902942912</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.9999827999830453</v>
+      </c>
+      <c r="D38">
+        <v>0.9999139999147919</v>
+      </c>
+      <c r="E38">
+        <v>1.000057334363166</v>
+      </c>
+      <c r="F38">
+        <v>0.9999139999147919</v>
+      </c>
+      <c r="G38">
+        <v>1.000021499216626</v>
+      </c>
+      <c r="H38">
+        <v>1.000031922672336</v>
+      </c>
+      <c r="I38">
+        <v>0.9999815231918525</v>
+      </c>
+      <c r="J38">
+        <v>1.000057334363166</v>
+      </c>
+      <c r="K38">
+        <v>1.000057334363166</v>
+      </c>
+      <c r="L38">
+        <v>0.9999440826654679</v>
+      </c>
+      <c r="M38">
+        <v>1.000021499216626</v>
+      </c>
+      <c r="N38">
+        <v>1.000057334363166</v>
+      </c>
+      <c r="O38">
+        <v>1.000021499216626</v>
+      </c>
+      <c r="P38">
+        <v>0.9999677495657088</v>
+      </c>
+      <c r="Q38">
+        <v>1.000001511204239</v>
+      </c>
+      <c r="R38">
+        <v>0.9999976111648611</v>
+      </c>
+      <c r="S38">
+        <v>0.9999723407744234</v>
+      </c>
+      <c r="T38">
+        <v>0.9999976111648611</v>
+      </c>
+      <c r="U38">
+        <v>0.999993589171609</v>
+      </c>
+      <c r="V38">
+        <v>1.00000633820992</v>
+      </c>
+      <c r="W38">
+        <v>0.9999943326529889</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>0.9999597086991142</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>0.9997985281280192</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>1.000134317907172</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>0.9997985281280192</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.000050366751428</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>1.00007478488371</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>0.9999567045399335</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>1.000134317907172</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>1.000134317907172</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>0.9998690010426599</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>1.000050366751428</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>1.000134317907172</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>1.000050366751428</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.9999244474397235</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>1.000003535645681</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>0.9999944042622063</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.9999351998064602</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>0.9999944042622063</v>
       </c>
-      <c r="U23">
+      <c r="U39">
         <v>0.9999849793316381</v>
       </c>
-      <c r="V23">
+      <c r="V39">
         <v>1.000014847046745</v>
       </c>
-      <c r="W23">
+      <c r="W39">
         <v>0.9999867223379331</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>0.9992403105220923</v>
+      </c>
+      <c r="D40">
+        <v>0.996201552908513</v>
+      </c>
+      <c r="E40">
+        <v>1.002532298659935</v>
+      </c>
+      <c r="F40">
+        <v>0.996201552908513</v>
+      </c>
+      <c r="G40">
+        <v>1.000949610662093</v>
+      </c>
+      <c r="H40">
+        <v>1.001409950250393</v>
+      </c>
+      <c r="I40">
+        <v>0.9991838054932423</v>
+      </c>
+      <c r="J40">
+        <v>1.002532298659935</v>
+      </c>
+      <c r="K40">
+        <v>1.002532298659935</v>
+      </c>
+      <c r="L40">
+        <v>0.9975302287585009</v>
+      </c>
+      <c r="M40">
+        <v>1.000949610662093</v>
+      </c>
+      <c r="N40">
+        <v>1.002532298659935</v>
+      </c>
+      <c r="O40">
+        <v>1.000949610662093</v>
+      </c>
+      <c r="P40">
+        <v>0.9985755817853033</v>
+      </c>
+      <c r="Q40">
+        <v>1.000066708077668</v>
+      </c>
+      <c r="R40">
+        <v>0.9998944874101805</v>
+      </c>
+      <c r="S40">
+        <v>0.9987783230212829</v>
+      </c>
+      <c r="T40">
+        <v>0.9998944874101804</v>
+      </c>
+      <c r="U40">
+        <v>0.9997168169309458</v>
+      </c>
+      <c r="V40">
+        <v>1.000279913276743</v>
+      </c>
+      <c r="W40">
+        <v>0.999749670989608</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>1.000386578351518</v>
+      </c>
+      <c r="D41">
+        <v>1.001932893938886</v>
+      </c>
+      <c r="E41">
+        <v>0.9987114039200208</v>
+      </c>
+      <c r="F41">
+        <v>1.001932893938886</v>
+      </c>
+      <c r="G41">
+        <v>0.9995167751039957</v>
+      </c>
+      <c r="H41">
+        <v>0.9992825260791246</v>
+      </c>
+      <c r="I41">
+        <v>1.000415332671622</v>
+      </c>
+      <c r="J41">
+        <v>0.9987114039200208</v>
+      </c>
+      <c r="K41">
+        <v>0.9987114039200208</v>
+      </c>
+      <c r="L41">
+        <v>1.001256780696349</v>
+      </c>
+      <c r="M41">
+        <v>0.9995167751039957</v>
+      </c>
+      <c r="N41">
+        <v>0.9987114039200208</v>
+      </c>
+      <c r="O41">
+        <v>0.9995167751039957</v>
+      </c>
+      <c r="P41">
+        <v>1.000724834521441</v>
+      </c>
+      <c r="Q41">
+        <v>0.9999660538878089</v>
+      </c>
+      <c r="R41">
+        <v>1.000053690987634</v>
+      </c>
+      <c r="S41">
+        <v>1.000621667238168</v>
+      </c>
+      <c r="T41">
+        <v>1.000053690987634</v>
+      </c>
+      <c r="U41">
+        <v>1.000144101408631</v>
+      </c>
+      <c r="V41">
+        <v>0.999857561910909</v>
+      </c>
+      <c r="W41">
+        <v>1.000127383233189</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.99927523273517</v>
+      </c>
+      <c r="D42">
+        <v>0.9963761680527278</v>
+      </c>
+      <c r="E42">
+        <v>1.002415885097443</v>
+      </c>
+      <c r="F42">
+        <v>0.9963761680527278</v>
+      </c>
+      <c r="G42">
+        <v>1.000905954786315</v>
+      </c>
+      <c r="H42">
+        <v>1.001345130368757</v>
+      </c>
+      <c r="I42">
+        <v>0.999221327239078</v>
+      </c>
+      <c r="J42">
+        <v>1.002415885097443</v>
+      </c>
+      <c r="K42">
+        <v>1.002415885097443</v>
+      </c>
+      <c r="L42">
+        <v>0.9976437666669185</v>
+      </c>
+      <c r="M42">
+        <v>1.000905954786315</v>
+      </c>
+      <c r="N42">
+        <v>1.002415885097443</v>
+      </c>
+      <c r="O42">
+        <v>1.000905954786315</v>
+      </c>
+      <c r="P42">
+        <v>0.9986410614195216</v>
+      </c>
+      <c r="Q42">
+        <v>1.000063641012697</v>
+      </c>
+      <c r="R42">
+        <v>0.9998993359788289</v>
+      </c>
+      <c r="S42">
+        <v>0.9988344833593737</v>
+      </c>
+      <c r="T42">
+        <v>0.9998993359788289</v>
+      </c>
+      <c r="U42">
+        <v>0.9997298337938911</v>
+      </c>
+      <c r="V42">
+        <v>1.000267044054602</v>
+      </c>
+      <c r="W42">
+        <v>0.9997611774665907</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/SA-HW45.xlsx
+++ b/JupyterNotebooks/AvgHW/SA-HW45.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,55 +85,52 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[4, 2, 0]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[3, 3, 3]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
+    <t>[3, 1, 1]</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
     <t>[2, 2, 2]</t>
   </si>
   <si>
-    <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 3]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
+    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,13 +518,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ19"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:43">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,68 +591,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:43">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -630,130 +600,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:43">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -761,70 +671,70 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.0001862139065</v>
+        <v>0.9999866499529582</v>
       </c>
       <c r="D3">
-        <v>0.9997206793160465</v>
+        <v>0.9999332499417307</v>
       </c>
       <c r="E3">
-        <v>1.000069829081396</v>
+        <v>1.000044500320241</v>
       </c>
       <c r="F3">
-        <v>1.0001862139065</v>
+        <v>0.9999332499417307</v>
       </c>
       <c r="G3">
-        <v>0.9999399812451158</v>
+        <v>1.000016686528213</v>
       </c>
       <c r="H3">
-        <v>1.000103681569537</v>
+        <v>1.000024777586765</v>
       </c>
       <c r="I3">
-        <v>1.0001862139065</v>
+        <v>0.9999856573744318</v>
       </c>
       <c r="J3">
-        <v>0.9997206793160465</v>
+        <v>1.000044500320241</v>
       </c>
       <c r="K3">
-        <v>0.9999441364388246</v>
+        <v>1.000044500320241</v>
       </c>
       <c r="L3">
-        <v>1.000069829081396</v>
+        <v>0.9999566000146138</v>
       </c>
       <c r="M3">
-        <v>0.9998183850714399</v>
+        <v>1.000016686528213</v>
       </c>
       <c r="N3">
-        <v>1.0001862139065</v>
+        <v>1.000044500320241</v>
       </c>
       <c r="O3">
-        <v>1.000069829081396</v>
+        <v>1.000016686528213</v>
       </c>
       <c r="P3">
-        <v>0.9998952541987211</v>
+        <v>0.9999749682349721</v>
       </c>
       <c r="Q3">
-        <v>1.000004905163256</v>
+        <v>1.000001171951323</v>
       </c>
       <c r="R3">
-        <v>0.9999922407679808</v>
+        <v>0.9999981455967283</v>
       </c>
       <c r="S3">
-        <v>0.999910163214186</v>
+        <v>0.9999785312814587</v>
       </c>
       <c r="T3">
-        <v>0.9999922407679808</v>
+        <v>0.9999981455967283</v>
       </c>
       <c r="U3">
-        <v>0.9999791758872645</v>
+        <v>0.9999950235411542</v>
       </c>
       <c r="V3">
-        <v>1.000020583491112</v>
+        <v>1.000004918896972</v>
       </c>
       <c r="W3">
-        <v>0.999981591963782</v>
-      </c>
-    </row>
-    <row r="4" spans="1:43">
+        <v>0.9999956010308959</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -832,70 +742,70 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.000359483073277</v>
+        <v>0.9992403105220923</v>
       </c>
       <c r="D4">
-        <v>0.9994607752654463</v>
+        <v>0.996201552908513</v>
       </c>
       <c r="E4">
-        <v>1.00013480587907</v>
+        <v>1.002532298659935</v>
       </c>
       <c r="F4">
-        <v>1.000359483073277</v>
+        <v>0.996201552908513</v>
       </c>
       <c r="G4">
-        <v>0.9998841329181529</v>
+        <v>1.000949610662093</v>
       </c>
       <c r="H4">
-        <v>1.000200156810134</v>
+        <v>1.001409950250393</v>
       </c>
       <c r="I4">
-        <v>1.000359483073277</v>
+        <v>0.9991838054932423</v>
       </c>
       <c r="J4">
-        <v>0.9994607752654463</v>
+        <v>1.002532298659935</v>
       </c>
       <c r="K4">
-        <v>0.9998921545033813</v>
+        <v>1.002532298659935</v>
       </c>
       <c r="L4">
-        <v>1.00013480587907</v>
+        <v>0.9975302287585009</v>
       </c>
       <c r="M4">
-        <v>0.9996493947247888</v>
+        <v>1.000949610662093</v>
       </c>
       <c r="N4">
-        <v>1.000359483073277</v>
+        <v>1.002532298659935</v>
       </c>
       <c r="O4">
-        <v>1.00013480587907</v>
+        <v>1.000949610662093</v>
       </c>
       <c r="P4">
-        <v>0.9997977905722583</v>
+        <v>0.9985755817853033</v>
       </c>
       <c r="Q4">
-        <v>1.000009469398611</v>
+        <v>1.000066708077668</v>
       </c>
       <c r="R4">
-        <v>0.9999850214059313</v>
+        <v>0.9998944874101805</v>
       </c>
       <c r="S4">
-        <v>0.9998265713542231</v>
+        <v>0.9987783230212829</v>
       </c>
       <c r="T4">
-        <v>0.9999850214059313</v>
+        <v>0.9998944874101804</v>
       </c>
       <c r="U4">
-        <v>0.9999597992839866</v>
+        <v>0.9997168169309458</v>
       </c>
       <c r="V4">
-        <v>1.000039736041845</v>
+        <v>1.000279913276743</v>
       </c>
       <c r="W4">
-        <v>0.9999644636316651</v>
-      </c>
-    </row>
-    <row r="5" spans="1:43">
+        <v>0.999749670989608</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -903,70 +813,70 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.00068890959113</v>
+        <v>0.9993942567363121</v>
       </c>
       <c r="D5">
-        <v>0.9989666419557043</v>
+        <v>0.9969712824855896</v>
       </c>
       <c r="E5">
-        <v>1.000258340251036</v>
+        <v>1.002019145187323</v>
       </c>
       <c r="F5">
-        <v>1.00068890959113</v>
+        <v>0.9969712824855896</v>
       </c>
       <c r="G5">
-        <v>0.9997779578162325</v>
+        <v>1.000757180086457</v>
       </c>
       <c r="H5">
-        <v>1.000383575306782</v>
+        <v>1.00112423600144</v>
       </c>
       <c r="I5">
-        <v>1.00068890959113</v>
+        <v>0.9993492013040314</v>
       </c>
       <c r="J5">
-        <v>0.9989666419557043</v>
+        <v>1.002019145187323</v>
       </c>
       <c r="K5">
-        <v>0.9997933297358076</v>
+        <v>1.002019145187323</v>
       </c>
       <c r="L5">
-        <v>1.000258340251036</v>
+        <v>0.9980307111887606</v>
       </c>
       <c r="M5">
-        <v>0.9993281023878395</v>
+        <v>1.000757180086457</v>
       </c>
       <c r="N5">
-        <v>1.00068890959113</v>
+        <v>1.002019145187323</v>
       </c>
       <c r="O5">
-        <v>1.000258340251036</v>
+        <v>1.000757180086457</v>
       </c>
       <c r="P5">
-        <v>0.9996124911033699</v>
+        <v>0.9988642312860233</v>
       </c>
       <c r="Q5">
-        <v>1.000018149033634</v>
+        <v>1.000053190695244</v>
       </c>
       <c r="R5">
-        <v>0.9999712972659566</v>
+        <v>0.9999158692531233</v>
       </c>
       <c r="S5">
-        <v>0.9996676466743241</v>
+        <v>0.9990258879586927</v>
       </c>
       <c r="T5">
-        <v>0.9999712972659566</v>
+        <v>0.9999158692531233</v>
       </c>
       <c r="U5">
-        <v>0.9999229624035255</v>
+        <v>0.9997742022658502</v>
       </c>
       <c r="V5">
-        <v>1.000076151841046</v>
+        <v>1.000223190850145</v>
       </c>
       <c r="W5">
-        <v>0.999931899661946</v>
-      </c>
-    </row>
-    <row r="6" spans="1:43">
+        <v>0.9998003991345463</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -974,70 +884,70 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.001010402067922</v>
+        <v>0.9980390964658836</v>
       </c>
       <c r="D6">
-        <v>0.9984843894972251</v>
+        <v>0.9901954815167299</v>
       </c>
       <c r="E6">
-        <v>1.00037889821504</v>
+        <v>1.006536345882048</v>
       </c>
       <c r="F6">
-        <v>1.001010402067922</v>
+        <v>0.9901954815167299</v>
       </c>
       <c r="G6">
-        <v>0.9996743320287436</v>
+        <v>1.002451148303192</v>
       </c>
       <c r="H6">
-        <v>1.000562581639266</v>
+        <v>1.003639368733281</v>
       </c>
       <c r="I6">
-        <v>1.001010402067922</v>
+        <v>0.9978932415120436</v>
       </c>
       <c r="J6">
-        <v>0.9984843894972251</v>
+        <v>1.006536345882048</v>
       </c>
       <c r="K6">
-        <v>0.9996968778700214</v>
+        <v>1.006536345882048</v>
       </c>
       <c r="L6">
-        <v>1.00037889821504</v>
+        <v>0.9936250460252111</v>
       </c>
       <c r="M6">
-        <v>0.9990145447759441</v>
+        <v>1.002451148303192</v>
       </c>
       <c r="N6">
-        <v>1.001010402067922</v>
+        <v>1.006536345882048</v>
       </c>
       <c r="O6">
-        <v>1.00037889821504</v>
+        <v>1.002451148303192</v>
       </c>
       <c r="P6">
-        <v>0.9994316438561327</v>
+        <v>0.9963233149099611</v>
       </c>
       <c r="Q6">
-        <v>1.000026615121892</v>
+        <v>1.000172194907618</v>
       </c>
       <c r="R6">
-        <v>0.9999578965933958</v>
+        <v>0.9997276585673233</v>
       </c>
       <c r="S6">
-        <v>0.9995125399136696</v>
+        <v>0.9968466237773219</v>
       </c>
       <c r="T6">
-        <v>0.9999578965933958</v>
+        <v>0.9997276585673234</v>
       </c>
       <c r="U6">
-        <v>0.9998870054522329</v>
+        <v>0.9992690543035034</v>
       </c>
       <c r="V6">
-        <v>1.000111684775371</v>
+        <v>1.000722512619212</v>
       </c>
       <c r="W6">
-        <v>0.9999001155386504</v>
-      </c>
-    </row>
-    <row r="7" spans="1:43">
+        <v>0.9993538595926978</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1045,70 +955,70 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000015398671753</v>
+        <v>0.9999328220380707</v>
       </c>
       <c r="D7">
-        <v>0.999976902291966</v>
+        <v>0.9996641066691648</v>
       </c>
       <c r="E7">
-        <v>1.000005773360247</v>
+        <v>1.000223928850732</v>
       </c>
       <c r="F7">
-        <v>1.000015398671753</v>
+        <v>0.9996641066691648</v>
       </c>
       <c r="G7">
-        <v>0.9999950372631156</v>
+        <v>1.000083972657827</v>
       </c>
       <c r="H7">
-        <v>1.000008573960766</v>
+        <v>1.000124681402637</v>
       </c>
       <c r="I7">
-        <v>1.000015398671753</v>
+        <v>0.9999278253086085</v>
       </c>
       <c r="J7">
-        <v>0.999976902291966</v>
+        <v>1.000223928850732</v>
       </c>
       <c r="K7">
-        <v>0.9999953804760857</v>
+        <v>1.000223928850732</v>
       </c>
       <c r="L7">
-        <v>1.000005773360247</v>
+        <v>0.9997816013186381</v>
       </c>
       <c r="M7">
-        <v>0.9999849828554456</v>
+        <v>1.000083972657827</v>
       </c>
       <c r="N7">
-        <v>1.000015398671753</v>
+        <v>1.000223928850732</v>
       </c>
       <c r="O7">
-        <v>1.000005773360247</v>
+        <v>1.000083972657827</v>
       </c>
       <c r="P7">
-        <v>0.9999913378261066</v>
+        <v>0.999874039663496</v>
       </c>
       <c r="Q7">
-        <v>1.000000405311681</v>
+        <v>1.000005898983218</v>
       </c>
       <c r="R7">
-        <v>0.9999993581079888</v>
+        <v>0.9999906693925747</v>
       </c>
       <c r="S7">
-        <v>0.9999925709717763</v>
+        <v>0.9998919682118669</v>
       </c>
       <c r="T7">
-        <v>0.9999993581079888</v>
+        <v>0.9999906693925746</v>
       </c>
       <c r="U7">
-        <v>0.9999982778967704</v>
+        <v>0.9999749583715831</v>
       </c>
       <c r="V7">
-        <v>1.000001702051767</v>
+        <v>1.000024752467413</v>
       </c>
       <c r="W7">
-        <v>0.9999984777799533</v>
-      </c>
-    </row>
-    <row r="8" spans="1:43">
+        <v>0.9999778638629382</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1116,70 +1026,70 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000044500320241</v>
+        <v>0.9999951145350165</v>
       </c>
       <c r="D8">
-        <v>0.9999332499417305</v>
+        <v>0.9999755736196053</v>
       </c>
       <c r="E8">
-        <v>1.000016686528213</v>
+        <v>1.000016284378513</v>
       </c>
       <c r="F8">
-        <v>1.000044500320241</v>
+        <v>0.9999755736196053</v>
       </c>
       <c r="G8">
-        <v>0.9999856573744318</v>
+        <v>1.000006105717792</v>
       </c>
       <c r="H8">
-        <v>1.000024777586765</v>
+        <v>1.000009067429393</v>
       </c>
       <c r="I8">
-        <v>1.000044500320241</v>
+        <v>0.999994752035404</v>
       </c>
       <c r="J8">
-        <v>0.9999332499417305</v>
+        <v>1.000016284378513</v>
       </c>
       <c r="K8">
-        <v>0.9999866499529582</v>
+        <v>1.000016284378513</v>
       </c>
       <c r="L8">
-        <v>1.000016686528213</v>
+        <v>0.999984118920814</v>
       </c>
       <c r="M8">
-        <v>0.9999566000146138</v>
+        <v>1.000006105717792</v>
       </c>
       <c r="N8">
-        <v>1.000044500320241</v>
+        <v>1.000016284378513</v>
       </c>
       <c r="O8">
-        <v>1.000016686528213</v>
+        <v>1.000006105717792</v>
       </c>
       <c r="P8">
-        <v>0.9999749682349719</v>
+        <v>0.9999908396686987</v>
       </c>
       <c r="Q8">
-        <v>1.000001171951323</v>
+        <v>1.000000428876598</v>
       </c>
       <c r="R8">
-        <v>0.9999981455967282</v>
+        <v>0.9999993212386368</v>
       </c>
       <c r="S8">
-        <v>0.9999785312814585</v>
+        <v>0.9999921437909339</v>
       </c>
       <c r="T8">
-        <v>0.9999981455967283</v>
+        <v>0.9999993212386368</v>
       </c>
       <c r="U8">
-        <v>0.9999950235411542</v>
+        <v>0.9999981789378285</v>
       </c>
       <c r="V8">
-        <v>1.000004918896972</v>
+        <v>1.000001800025965</v>
       </c>
       <c r="W8">
-        <v>0.9999956010308959</v>
-      </c>
-    </row>
-    <row r="9" spans="1:43">
+        <v>0.9999983902942912</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1187,70 +1097,70 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000066234406032</v>
+        <v>0.9998921545033813</v>
       </c>
       <c r="D9">
-        <v>0.9999006487358991</v>
+        <v>0.9994607752654463</v>
       </c>
       <c r="E9">
-        <v>1.000024836618092</v>
+        <v>1.000359483073277</v>
       </c>
       <c r="F9">
-        <v>1.000066234406032</v>
+        <v>0.9994607752654463</v>
       </c>
       <c r="G9">
-        <v>0.9999786522689392</v>
+        <v>1.00013480587907</v>
       </c>
       <c r="H9">
-        <v>1.000036878624651</v>
+        <v>1.000200156810134</v>
       </c>
       <c r="I9">
-        <v>1.000066234406032</v>
+        <v>0.9998841329181529</v>
       </c>
       <c r="J9">
-        <v>0.9999006487358991</v>
+        <v>1.000359483073277</v>
       </c>
       <c r="K9">
-        <v>0.9999801295246937</v>
+        <v>1.000359483073277</v>
       </c>
       <c r="L9">
-        <v>1.000024836618092</v>
+        <v>0.9996493947247888</v>
       </c>
       <c r="M9">
-        <v>0.9999354021049501</v>
+        <v>1.00013480587907</v>
       </c>
       <c r="N9">
-        <v>1.000066234406032</v>
+        <v>1.000359483073277</v>
       </c>
       <c r="O9">
-        <v>1.000024836618092</v>
+        <v>1.00013480587907</v>
       </c>
       <c r="P9">
-        <v>0.9999627426769955</v>
+        <v>0.9997977905722584</v>
       </c>
       <c r="Q9">
-        <v>1.000001744443515</v>
+        <v>1.000009469398612</v>
       </c>
       <c r="R9">
-        <v>0.9999972399200076</v>
+        <v>0.9999850214059314</v>
       </c>
       <c r="S9">
-        <v>0.9999680458743101</v>
+        <v>0.9998265713542231</v>
       </c>
       <c r="T9">
-        <v>0.9999972399200076</v>
+        <v>0.9999850214059314</v>
       </c>
       <c r="U9">
-        <v>0.9999925930072405</v>
+        <v>0.9999597992839868</v>
       </c>
       <c r="V9">
-        <v>1.000007321286999</v>
+        <v>1.000039736041845</v>
       </c>
       <c r="W9">
-        <v>0.9999934523626686</v>
-      </c>
-    </row>
-    <row r="10" spans="1:43">
+        <v>0.9999644636316652</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1258,70 +1168,70 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000138992513431</v>
+        <v>0.9980099659869232</v>
       </c>
       <c r="D10">
-        <v>0.9997915122198182</v>
+        <v>0.9900498284764824</v>
       </c>
       <c r="E10">
-        <v>1.000052121309312</v>
+        <v>1.006633448352998</v>
       </c>
       <c r="F10">
-        <v>1.000138992513431</v>
+        <v>0.9900498284764824</v>
       </c>
       <c r="G10">
-        <v>0.9999552021033629</v>
+        <v>1.002487562034373</v>
       </c>
       <c r="H10">
-        <v>1.000077389956557</v>
+        <v>1.003693434601515</v>
       </c>
       <c r="I10">
-        <v>1.000138992513431</v>
+        <v>0.9978619438379697</v>
       </c>
       <c r="J10">
-        <v>0.9997915122198182</v>
+        <v>1.006633448352998</v>
       </c>
       <c r="K10">
-        <v>0.9999583031788348</v>
+        <v>1.006633448352998</v>
       </c>
       <c r="L10">
-        <v>1.000052121309312</v>
+        <v>0.9935303408479749</v>
       </c>
       <c r="M10">
-        <v>0.9998644398512295</v>
+        <v>1.002487562034373</v>
       </c>
       <c r="N10">
-        <v>1.000138992513431</v>
+        <v>1.006633448352998</v>
       </c>
       <c r="O10">
-        <v>1.000052121309312</v>
+        <v>1.002487562034373</v>
       </c>
       <c r="P10">
-        <v>0.9999218167645649</v>
+        <v>0.9962686952554276</v>
       </c>
       <c r="Q10">
-        <v>1.000003661706337</v>
+        <v>1.000174752936171</v>
       </c>
       <c r="R10">
-        <v>0.9999942086808536</v>
+        <v>0.9997236129546175</v>
       </c>
       <c r="S10">
-        <v>0.9999329452108309</v>
+        <v>0.9967997781162751</v>
       </c>
       <c r="T10">
-        <v>0.9999942086808536</v>
+        <v>0.9997236129546175</v>
       </c>
       <c r="U10">
-        <v>0.999984457036481</v>
+        <v>0.9992581956754556</v>
       </c>
       <c r="V10">
-        <v>1.000015364131871</v>
+        <v>1.000733246210964</v>
       </c>
       <c r="W10">
-        <v>0.9999862603052321</v>
-      </c>
-    </row>
-    <row r="11" spans="1:43">
+        <v>0.999344260771576</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1329,70 +1239,70 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000241708306312</v>
+        <v>0.9996136300225946</v>
       </c>
       <c r="D11">
-        <v>0.9996374404613622</v>
+        <v>0.9980681522933327</v>
       </c>
       <c r="E11">
-        <v>1.000090638832606</v>
+        <v>1.001287898614653</v>
       </c>
       <c r="F11">
-        <v>1.000241708306312</v>
+        <v>0.9980681522933327</v>
       </c>
       <c r="G11">
-        <v>0.999922096000032</v>
+        <v>1.000482959917478</v>
       </c>
       <c r="H11">
-        <v>1.000134578406256</v>
+        <v>1.000717082759434</v>
       </c>
       <c r="I11">
-        <v>1.000241708306312</v>
+        <v>0.9995848929847293</v>
       </c>
       <c r="J11">
-        <v>0.9996374404613622</v>
+        <v>1.001287898614653</v>
       </c>
       <c r="K11">
-        <v>0.9999274885175633</v>
+        <v>1.001287898614653</v>
       </c>
       <c r="L11">
-        <v>1.000090638832606</v>
+        <v>0.9987439030728202</v>
       </c>
       <c r="M11">
-        <v>0.9997642586868303</v>
+        <v>1.000482959917478</v>
       </c>
       <c r="N11">
-        <v>1.000241708306312</v>
+        <v>1.001287898614653</v>
       </c>
       <c r="O11">
-        <v>1.000090638832606</v>
+        <v>1.000482959917478</v>
       </c>
       <c r="P11">
-        <v>0.9998640396469839</v>
+        <v>0.9992755561054052</v>
       </c>
       <c r="Q11">
-        <v>1.000006367416319</v>
+        <v>1.000033926451104</v>
       </c>
       <c r="R11">
-        <v>0.9999899292000931</v>
+        <v>0.999946336941821</v>
       </c>
       <c r="S11">
-        <v>0.9998833917646666</v>
+        <v>0.9993786683985132</v>
       </c>
       <c r="T11">
-        <v>0.9999899292000931</v>
+        <v>0.999946336941821</v>
       </c>
       <c r="U11">
-        <v>0.9999729709000779</v>
+        <v>0.999855975952548</v>
       </c>
       <c r="V11">
-        <v>1.000026718381325</v>
+        <v>1.000142360484969</v>
       </c>
       <c r="W11">
-        <v>0.9999761060054458</v>
-      </c>
-    </row>
-    <row r="12" spans="1:43">
+        <v>0.9998726849478149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1400,70 +1310,70 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9973249710934048</v>
+        <v>0.9993950757999988</v>
       </c>
       <c r="D12">
-        <v>1.00401254475068</v>
+        <v>0.9969753752631567</v>
       </c>
       <c r="E12">
-        <v>0.9989968660173207</v>
+        <v>1.002016417684213</v>
       </c>
       <c r="F12">
-        <v>0.9973249710934048</v>
+        <v>0.9969753752631567</v>
       </c>
       <c r="G12">
-        <v>1.000862207233465</v>
+        <v>1.000756158147369</v>
       </c>
       <c r="H12">
-        <v>0.9985105793061635</v>
+        <v>1.001122719021054</v>
       </c>
       <c r="I12">
-        <v>0.9973249710934048</v>
+        <v>0.9993500805789479</v>
       </c>
       <c r="J12">
-        <v>1.00401254475068</v>
+        <v>1.002016417684213</v>
       </c>
       <c r="K12">
-        <v>1.000802506262872</v>
+        <v>1.002016417684213</v>
       </c>
       <c r="L12">
-        <v>0.9989968660173207</v>
+        <v>0.9980333708210524</v>
       </c>
       <c r="M12">
-        <v>1.002608983010344</v>
+        <v>1.000756158147369</v>
       </c>
       <c r="N12">
-        <v>0.9973249710934048</v>
+        <v>1.002016417684213</v>
       </c>
       <c r="O12">
-        <v>0.9989968660173207</v>
+        <v>1.000756158147369</v>
       </c>
       <c r="P12">
-        <v>1.001504705384</v>
+        <v>0.9988657667052631</v>
       </c>
       <c r="Q12">
-        <v>0.999929536625393</v>
+        <v>1.000053119363159</v>
       </c>
       <c r="R12">
-        <v>1.000111460620468</v>
+        <v>0.9999159836982464</v>
       </c>
       <c r="S12">
-        <v>1.001290539333822</v>
+        <v>0.999027204663158</v>
       </c>
       <c r="T12">
-        <v>1.000111460620468</v>
+        <v>0.9999159836982464</v>
       </c>
       <c r="U12">
-        <v>1.000299147273718</v>
+        <v>0.9997745079184217</v>
       </c>
       <c r="V12">
-        <v>0.9997043120376551</v>
+        <v>1.00022288987158</v>
       </c>
       <c r="W12">
-        <v>1.000264440461446</v>
-      </c>
-    </row>
-    <row r="13" spans="1:43">
+        <v>0.9998006694328953</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1471,70 +1381,70 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9993066421812604</v>
+        <v>1.000391390152756</v>
       </c>
       <c r="D13">
-        <v>1.001040039616234</v>
+        <v>1.001956946792648</v>
       </c>
       <c r="E13">
-        <v>0.9997399888807381</v>
+        <v>0.9986953714659608</v>
       </c>
       <c r="F13">
-        <v>0.9993066421812604</v>
+        <v>1.001956946792648</v>
       </c>
       <c r="G13">
-        <v>1.00022348233041</v>
+        <v>0.9995107639784528</v>
       </c>
       <c r="H13">
-        <v>0.9996139498440455</v>
+        <v>0.9992736015494776</v>
       </c>
       <c r="I13">
-        <v>0.9993066421812604</v>
+        <v>1.000420501303533</v>
       </c>
       <c r="J13">
-        <v>1.001040039616234</v>
+        <v>0.9986953714659608</v>
       </c>
       <c r="K13">
-        <v>1.000208009063202</v>
+        <v>0.9986953714659608</v>
       </c>
       <c r="L13">
-        <v>0.9997399888807381</v>
+        <v>1.001272417166038</v>
       </c>
       <c r="M13">
-        <v>1.000676236418479</v>
+        <v>0.9995107639784528</v>
       </c>
       <c r="N13">
-        <v>0.9993066421812604</v>
+        <v>0.9986953714659608</v>
       </c>
       <c r="O13">
-        <v>0.9997399888807381</v>
+        <v>0.9995107639784528</v>
       </c>
       <c r="P13">
-        <v>1.000390014248486</v>
+        <v>1.00073385538555</v>
       </c>
       <c r="Q13">
-        <v>0.9999817356055742</v>
+        <v>0.9999656326409928</v>
       </c>
       <c r="R13">
-        <v>1.000028890226077</v>
+        <v>1.000054360745687</v>
       </c>
       <c r="S13">
-        <v>1.000334503609127</v>
+        <v>1.000629404024878</v>
       </c>
       <c r="T13">
-        <v>1.000028890226077</v>
+        <v>1.000054360745687</v>
       </c>
       <c r="U13">
-        <v>1.000077538252161</v>
+        <v>1.000145895885149</v>
       </c>
       <c r="V13">
-        <v>0.9999233590379806</v>
+        <v>0.9998557910013111</v>
       </c>
       <c r="W13">
-        <v>1.000068542151888</v>
-      </c>
-    </row>
-    <row r="14" spans="1:43">
+        <v>1.000128969548415</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1542,70 +1452,70 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9999891729394074</v>
+        <v>0.9965617900000008</v>
       </c>
       <c r="D14">
-        <v>1.000016246698306</v>
+        <v>0.98280895</v>
       </c>
       <c r="E14">
-        <v>0.9999959388576023</v>
+        <v>1.0114607</v>
       </c>
       <c r="F14">
-        <v>0.9999891729394074</v>
+        <v>0.98280895</v>
       </c>
       <c r="G14">
-        <v>1.000003487505612</v>
+        <v>1.004297800000002</v>
       </c>
       <c r="H14">
-        <v>0.9999939776097012</v>
+        <v>1.006381200000001</v>
       </c>
       <c r="I14">
-        <v>0.9999891729394074</v>
+        <v>0.9963060500000007</v>
       </c>
       <c r="J14">
-        <v>1.000016246698306</v>
+        <v>1.0114607</v>
       </c>
       <c r="K14">
-        <v>1.00000325123103</v>
+        <v>1.0114607</v>
       </c>
       <c r="L14">
-        <v>0.9999959388576023</v>
+        <v>0.9888222800000002</v>
       </c>
       <c r="M14">
-        <v>1.000010562391112</v>
+        <v>1.004297800000002</v>
       </c>
       <c r="N14">
-        <v>0.9999891729394074</v>
+        <v>1.0114607</v>
       </c>
       <c r="O14">
-        <v>0.9999959388576023</v>
+        <v>1.004297800000002</v>
       </c>
       <c r="P14">
-        <v>1.000006092777954</v>
+        <v>0.993553375000001</v>
       </c>
       <c r="Q14">
-        <v>0.9999997131816071</v>
+        <v>1.000301925000001</v>
       </c>
       <c r="R14">
-        <v>1.000000452831772</v>
+        <v>0.999522483333334</v>
       </c>
       <c r="S14">
-        <v>1.00000522435384</v>
+        <v>0.9944709333333343</v>
       </c>
       <c r="T14">
-        <v>1.000000452831772</v>
+        <v>0.999522483333334</v>
       </c>
       <c r="U14">
-        <v>1.000001211500232</v>
+        <v>0.9987183750000007</v>
       </c>
       <c r="V14">
-        <v>0.9999988037880667</v>
+        <v>1.001266840000001</v>
       </c>
       <c r="W14">
-        <v>1.000001072011297</v>
-      </c>
-    </row>
-    <row r="15" spans="1:43">
+        <v>0.9988670712500008</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1613,70 +1523,70 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.000002831313869</v>
+        <v>0.9944594800000001</v>
       </c>
       <c r="D15">
-        <v>0.9999957527114924</v>
+        <v>0.9722974</v>
       </c>
       <c r="E15">
-        <v>1.000001062561849</v>
+        <v>1.0184684</v>
       </c>
       <c r="F15">
-        <v>1.000002831313869</v>
+        <v>0.9722974</v>
       </c>
       <c r="G15">
-        <v>0.9999990867814664</v>
+        <v>1.0069256</v>
       </c>
       <c r="H15">
-        <v>1.000001579236763</v>
+        <v>1.010283</v>
       </c>
       <c r="I15">
-        <v>1.000002831313869</v>
+        <v>0.99404738</v>
       </c>
       <c r="J15">
-        <v>0.9999957527114924</v>
+        <v>1.0184684</v>
       </c>
       <c r="K15">
-        <v>0.9999991544416285</v>
+        <v>1.0184684</v>
       </c>
       <c r="L15">
-        <v>1.000001062561849</v>
+        <v>0.98198761</v>
       </c>
       <c r="M15">
-        <v>0.9999972423346497</v>
+        <v>1.0069256</v>
       </c>
       <c r="N15">
-        <v>1.000002831313869</v>
+        <v>1.0184684</v>
       </c>
       <c r="O15">
-        <v>1.000001062561849</v>
+        <v>1.0069256</v>
       </c>
       <c r="P15">
-        <v>0.9999984076366705</v>
+        <v>0.9896115</v>
       </c>
       <c r="Q15">
-        <v>1.000000074671658</v>
+        <v>1.00048649</v>
       </c>
       <c r="R15">
-        <v>0.9999998821957364</v>
+        <v>0.9992304666666666</v>
       </c>
       <c r="S15">
-        <v>0.9999986340182692</v>
+        <v>0.9910901266666666</v>
       </c>
       <c r="T15">
-        <v>0.9999998821957364</v>
+        <v>0.9992304666666666</v>
       </c>
       <c r="U15">
-        <v>0.9999996833421689</v>
+        <v>0.997934695</v>
       </c>
       <c r="V15">
-        <v>1.000000312936509</v>
+        <v>1.002041436</v>
       </c>
       <c r="W15">
-        <v>0.9999997214929457</v>
-      </c>
-    </row>
-    <row r="16" spans="1:43">
+        <v>0.99817430875</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1684,67 +1594,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000000768543687</v>
+        <v>0.99466084</v>
       </c>
       <c r="D16">
-        <v>0.9999988474577831</v>
+        <v>0.9733042199999999</v>
       </c>
       <c r="E16">
-        <v>1.000000287022341</v>
+        <v>1.0177972</v>
       </c>
       <c r="F16">
-        <v>1.000000768543687</v>
+        <v>0.9733042199999999</v>
       </c>
       <c r="G16">
-        <v>0.9999997527181681</v>
+        <v>1.0066739</v>
       </c>
       <c r="H16">
-        <v>1.000000428112471</v>
+        <v>1.0099092</v>
       </c>
       <c r="I16">
-        <v>1.000000768543687</v>
+        <v>0.99426372</v>
       </c>
       <c r="J16">
-        <v>0.9999988474577831</v>
+        <v>1.0177972</v>
       </c>
       <c r="K16">
-        <v>0.9999997694140468</v>
+        <v>1.0177972</v>
       </c>
       <c r="L16">
-        <v>1.000000287022341</v>
+        <v>0.9826422500000001</v>
       </c>
       <c r="M16">
-        <v>0.999999251728597</v>
+        <v>1.0066739</v>
       </c>
       <c r="N16">
-        <v>1.000000768543687</v>
+        <v>1.0177972</v>
       </c>
       <c r="O16">
-        <v>1.000000287022341</v>
+        <v>1.0066739</v>
       </c>
       <c r="P16">
-        <v>0.9999995672400623</v>
+        <v>0.98998906</v>
       </c>
       <c r="Q16">
-        <v>1.000000019870255</v>
+        <v>1.00046881</v>
       </c>
       <c r="R16">
-        <v>0.9999999676746039</v>
+        <v>0.9992584399999999</v>
       </c>
       <c r="S16">
-        <v>0.9999996290660976</v>
+        <v>0.9914139466666666</v>
       </c>
       <c r="T16">
-        <v>0.9999999676746039</v>
+        <v>0.9992584399999999</v>
       </c>
       <c r="U16">
-        <v>0.9999999139354949</v>
+        <v>0.99800976</v>
       </c>
       <c r="V16">
-        <v>1.000000084857133</v>
+        <v>1.001967248</v>
       </c>
       <c r="W16">
-        <v>0.9999999240024295</v>
+        <v>0.9982406537499999</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1755,67 +1665,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000016284378513</v>
+        <v>0.99860256</v>
       </c>
       <c r="D17">
-        <v>0.9999755736196053</v>
+        <v>0.99301282</v>
       </c>
       <c r="E17">
-        <v>1.000006105717792</v>
+        <v>1.0046581</v>
       </c>
       <c r="F17">
-        <v>1.000016284378513</v>
+        <v>0.99301282</v>
       </c>
       <c r="G17">
-        <v>0.999994752035404</v>
+        <v>1.0017468</v>
       </c>
       <c r="H17">
-        <v>1.000009067429393</v>
+        <v>1.0025936</v>
       </c>
       <c r="I17">
-        <v>1.000016284378513</v>
+        <v>0.99849862</v>
       </c>
       <c r="J17">
-        <v>0.9999755736196053</v>
+        <v>1.0046581</v>
       </c>
       <c r="K17">
-        <v>0.9999951145350165</v>
+        <v>1.0046581</v>
       </c>
       <c r="L17">
-        <v>1.000006105717792</v>
+        <v>0.9954568900000001</v>
       </c>
       <c r="M17">
-        <v>0.9999841189208143</v>
+        <v>1.0017468</v>
       </c>
       <c r="N17">
-        <v>1.000016284378513</v>
+        <v>1.0046581</v>
       </c>
       <c r="O17">
-        <v>1.000006105717792</v>
+        <v>1.0017468</v>
       </c>
       <c r="P17">
-        <v>0.9999908396686987</v>
+        <v>0.99737981</v>
       </c>
       <c r="Q17">
-        <v>1.000000428876598</v>
+        <v>1.00012271</v>
       </c>
       <c r="R17">
-        <v>0.9999993212386368</v>
+        <v>0.9998059066666668</v>
       </c>
       <c r="S17">
-        <v>0.9999921437909339</v>
+        <v>0.9977527466666666</v>
       </c>
       <c r="T17">
-        <v>0.9999993212386368</v>
+        <v>0.9998059066666668</v>
       </c>
       <c r="U17">
-        <v>0.9999981789378285</v>
+        <v>0.999479085</v>
       </c>
       <c r="V17">
-        <v>1.000001800025965</v>
+        <v>1.000514888</v>
       </c>
       <c r="W17">
-        <v>0.9999983902942913</v>
+        <v>0.99953952375</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1826,67 +1736,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000057334363166</v>
+        <v>0.9986524432876712</v>
       </c>
       <c r="D18">
-        <v>0.9999139999147914</v>
+        <v>0.9932621802739727</v>
       </c>
       <c r="E18">
-        <v>1.000021499216626</v>
+        <v>1.004491875616438</v>
       </c>
       <c r="F18">
-        <v>1.000057334363166</v>
+        <v>0.9932621802739727</v>
       </c>
       <c r="G18">
-        <v>0.9999815231918524</v>
+        <v>1.001684454794521</v>
       </c>
       <c r="H18">
-        <v>1.000031922672336</v>
+        <v>1.002501016986301</v>
       </c>
       <c r="I18">
-        <v>1.000057334363166</v>
+        <v>0.9985522057534247</v>
       </c>
       <c r="J18">
-        <v>0.9999139999147914</v>
+        <v>1.004491875616438</v>
       </c>
       <c r="K18">
-        <v>0.9999827999830453</v>
+        <v>1.004491875616438</v>
       </c>
       <c r="L18">
-        <v>1.000021499216626</v>
+        <v>0.995619035205479</v>
       </c>
       <c r="M18">
-        <v>0.9999440826654679</v>
+        <v>1.001684454794521</v>
       </c>
       <c r="N18">
-        <v>1.000057334363166</v>
+        <v>1.004491875616438</v>
       </c>
       <c r="O18">
-        <v>1.000021499216626</v>
+        <v>1.001684454794521</v>
       </c>
       <c r="P18">
-        <v>0.9999677495657084</v>
+        <v>0.9974733175342467</v>
       </c>
       <c r="Q18">
-        <v>1.000001511204239</v>
+        <v>1.000118330273973</v>
       </c>
       <c r="R18">
-        <v>0.9999976111648611</v>
+        <v>0.9998128368949772</v>
       </c>
       <c r="S18">
-        <v>0.9999723407744231</v>
+        <v>0.9978329469406394</v>
       </c>
       <c r="T18">
-        <v>0.9999976111648611</v>
+        <v>0.9998128368949772</v>
       </c>
       <c r="U18">
-        <v>0.999993589171609</v>
+        <v>0.9994976791095891</v>
       </c>
       <c r="V18">
-        <v>1.00000633820992</v>
+        <v>1.000496518410959</v>
       </c>
       <c r="W18">
-        <v>0.9999943326529889</v>
+        <v>0.999555958339041</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1897,67 +1807,777 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.000134317907172</v>
+        <v>0.997800675263158</v>
       </c>
       <c r="D19">
-        <v>0.9997985281280192</v>
+        <v>0.9890033726315791</v>
       </c>
       <c r="E19">
-        <v>1.000050366751428</v>
+        <v>1.007331088947368</v>
       </c>
       <c r="F19">
-        <v>1.000134317907172</v>
+        <v>0.9890033726315791</v>
       </c>
       <c r="G19">
-        <v>0.9999567045399335</v>
+        <v>1.002749164736842</v>
       </c>
       <c r="H19">
-        <v>1.00007478488371</v>
+        <v>1.00408185368421</v>
       </c>
       <c r="I19">
-        <v>1.000134317907172</v>
+        <v>0.9976370826315789</v>
       </c>
       <c r="J19">
-        <v>0.9997985281280192</v>
+        <v>1.007331088947368</v>
       </c>
       <c r="K19">
-        <v>0.9999597086991142</v>
+        <v>1.007331088947368</v>
       </c>
       <c r="L19">
-        <v>1.000050366751428</v>
+        <v>0.9928499273684211</v>
       </c>
       <c r="M19">
-        <v>0.9998690010426599</v>
+        <v>1.002749164736842</v>
       </c>
       <c r="N19">
-        <v>1.000134317907172</v>
+        <v>1.007331088947368</v>
       </c>
       <c r="O19">
-        <v>1.000050366751428</v>
+        <v>1.002749164736842</v>
       </c>
       <c r="P19">
-        <v>0.9999244474397235</v>
+        <v>0.9958762686842106</v>
       </c>
       <c r="Q19">
-        <v>1.000003535645681</v>
+        <v>1.000193123684211</v>
       </c>
       <c r="R19">
-        <v>0.9999944042622063</v>
+        <v>0.9996945421052632</v>
       </c>
       <c r="S19">
-        <v>0.9999351998064602</v>
+        <v>0.9964632066666668</v>
       </c>
       <c r="T19">
-        <v>0.9999944042622063</v>
+        <v>0.9996945421052633</v>
       </c>
       <c r="U19">
-        <v>0.9999849793316381</v>
+        <v>0.9991801772368423</v>
       </c>
       <c r="V19">
-        <v>1.000014847046745</v>
+        <v>1.000810359578947</v>
       </c>
       <c r="W19">
-        <v>0.9999867223379331</v>
+        <v>0.99927529125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9978669105263159</v>
+      </c>
+      <c r="D20">
+        <v>0.9893345631578947</v>
+      </c>
+      <c r="E20">
+        <v>1.007110298947368</v>
+      </c>
+      <c r="F20">
+        <v>0.9893345631578947</v>
+      </c>
+      <c r="G20">
+        <v>1.002666350526316</v>
+      </c>
+      <c r="H20">
+        <v>1.003958923684211</v>
+      </c>
+      <c r="I20">
+        <v>0.9977082536842106</v>
+      </c>
+      <c r="J20">
+        <v>1.007110298947368</v>
+      </c>
+      <c r="K20">
+        <v>1.007110298947368</v>
+      </c>
+      <c r="L20">
+        <v>0.9930652668421055</v>
+      </c>
+      <c r="M20">
+        <v>1.002666350526316</v>
+      </c>
+      <c r="N20">
+        <v>1.007110298947368</v>
+      </c>
+      <c r="O20">
+        <v>1.002666350526316</v>
+      </c>
+      <c r="P20">
+        <v>0.9960004568421053</v>
+      </c>
+      <c r="Q20">
+        <v>1.000187302105263</v>
+      </c>
+      <c r="R20">
+        <v>0.9997037375438597</v>
+      </c>
+      <c r="S20">
+        <v>0.9965697224561403</v>
+      </c>
+      <c r="T20">
+        <v>0.9997037375438597</v>
+      </c>
+      <c r="U20">
+        <v>0.9992048665789475</v>
+      </c>
+      <c r="V20">
+        <v>1.000785953052632</v>
+      </c>
+      <c r="W20">
+        <v>0.9992971147368421</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.00000325123103</v>
+      </c>
+      <c r="D21">
+        <v>1.000016246698306</v>
+      </c>
+      <c r="E21">
+        <v>0.9999891729394074</v>
+      </c>
+      <c r="F21">
+        <v>1.000016246698306</v>
+      </c>
+      <c r="G21">
+        <v>0.9999959388576023</v>
+      </c>
+      <c r="H21">
+        <v>0.9999939776097011</v>
+      </c>
+      <c r="I21">
+        <v>1.000003487505612</v>
+      </c>
+      <c r="J21">
+        <v>0.9999891729394074</v>
+      </c>
+      <c r="K21">
+        <v>0.9999891729394074</v>
+      </c>
+      <c r="L21">
+        <v>1.000010562391112</v>
+      </c>
+      <c r="M21">
+        <v>0.9999959388576023</v>
+      </c>
+      <c r="N21">
+        <v>0.9999891729394074</v>
+      </c>
+      <c r="O21">
+        <v>0.9999959388576023</v>
+      </c>
+      <c r="P21">
+        <v>1.000006092777954</v>
+      </c>
+      <c r="Q21">
+        <v>0.999999713181607</v>
+      </c>
+      <c r="R21">
+        <v>1.000000452831772</v>
+      </c>
+      <c r="S21">
+        <v>1.00000522435384</v>
+      </c>
+      <c r="T21">
+        <v>1.000000452831772</v>
+      </c>
+      <c r="U21">
+        <v>1.000001211500232</v>
+      </c>
+      <c r="V21">
+        <v>0.9999988037880667</v>
+      </c>
+      <c r="W21">
+        <v>1.000001072011297</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9999991544416285</v>
+      </c>
+      <c r="D22">
+        <v>0.9999957527114924</v>
+      </c>
+      <c r="E22">
+        <v>1.000002831313868</v>
+      </c>
+      <c r="F22">
+        <v>0.9999957527114924</v>
+      </c>
+      <c r="G22">
+        <v>1.000001062561848</v>
+      </c>
+      <c r="H22">
+        <v>1.000001579236763</v>
+      </c>
+      <c r="I22">
+        <v>0.9999990867814664</v>
+      </c>
+      <c r="J22">
+        <v>1.000002831313868</v>
+      </c>
+      <c r="K22">
+        <v>1.000002831313868</v>
+      </c>
+      <c r="L22">
+        <v>0.9999972423346497</v>
+      </c>
+      <c r="M22">
+        <v>1.000001062561848</v>
+      </c>
+      <c r="N22">
+        <v>1.000002831313868</v>
+      </c>
+      <c r="O22">
+        <v>1.000001062561848</v>
+      </c>
+      <c r="P22">
+        <v>0.9999984076366704</v>
+      </c>
+      <c r="Q22">
+        <v>1.000000074671657</v>
+      </c>
+      <c r="R22">
+        <v>0.9999998821957364</v>
+      </c>
+      <c r="S22">
+        <v>0.9999986340182691</v>
+      </c>
+      <c r="T22">
+        <v>0.9999998821957364</v>
+      </c>
+      <c r="U22">
+        <v>0.9999996833421689</v>
+      </c>
+      <c r="V22">
+        <v>1.000000312936509</v>
+      </c>
+      <c r="W22">
+        <v>0.9999997214929457</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.000802506262872</v>
+      </c>
+      <c r="D23">
+        <v>1.00401254475068</v>
+      </c>
+      <c r="E23">
+        <v>0.9973249710934048</v>
+      </c>
+      <c r="F23">
+        <v>1.00401254475068</v>
+      </c>
+      <c r="G23">
+        <v>0.9989968660173206</v>
+      </c>
+      <c r="H23">
+        <v>0.9985105793061635</v>
+      </c>
+      <c r="I23">
+        <v>1.000862207233465</v>
+      </c>
+      <c r="J23">
+        <v>0.9973249710934048</v>
+      </c>
+      <c r="K23">
+        <v>0.9973249710934048</v>
+      </c>
+      <c r="L23">
+        <v>1.002608983010344</v>
+      </c>
+      <c r="M23">
+        <v>0.9989968660173206</v>
+      </c>
+      <c r="N23">
+        <v>0.9973249710934048</v>
+      </c>
+      <c r="O23">
+        <v>0.9989968660173206</v>
+      </c>
+      <c r="P23">
+        <v>1.001504705384</v>
+      </c>
+      <c r="Q23">
+        <v>0.9999295366253929</v>
+      </c>
+      <c r="R23">
+        <v>1.000111460620468</v>
+      </c>
+      <c r="S23">
+        <v>1.001290539333822</v>
+      </c>
+      <c r="T23">
+        <v>1.000111460620468</v>
+      </c>
+      <c r="U23">
+        <v>1.000299147273718</v>
+      </c>
+      <c r="V23">
+        <v>0.9997043120376551</v>
+      </c>
+      <c r="W23">
+        <v>1.000264440461446</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.000208009063202</v>
+      </c>
+      <c r="D24">
+        <v>1.001040039616234</v>
+      </c>
+      <c r="E24">
+        <v>0.9993066421812604</v>
+      </c>
+      <c r="F24">
+        <v>1.001040039616234</v>
+      </c>
+      <c r="G24">
+        <v>0.9997399888807381</v>
+      </c>
+      <c r="H24">
+        <v>0.9996139498440455</v>
+      </c>
+      <c r="I24">
+        <v>1.00022348233041</v>
+      </c>
+      <c r="J24">
+        <v>0.9993066421812604</v>
+      </c>
+      <c r="K24">
+        <v>0.9993066421812604</v>
+      </c>
+      <c r="L24">
+        <v>1.000676236418479</v>
+      </c>
+      <c r="M24">
+        <v>0.9997399888807381</v>
+      </c>
+      <c r="N24">
+        <v>0.9993066421812604</v>
+      </c>
+      <c r="O24">
+        <v>0.9997399888807381</v>
+      </c>
+      <c r="P24">
+        <v>1.000390014248486</v>
+      </c>
+      <c r="Q24">
+        <v>0.9999817356055742</v>
+      </c>
+      <c r="R24">
+        <v>1.000028890226077</v>
+      </c>
+      <c r="S24">
+        <v>1.000334503609127</v>
+      </c>
+      <c r="T24">
+        <v>1.000028890226077</v>
+      </c>
+      <c r="U24">
+        <v>1.000077538252161</v>
+      </c>
+      <c r="V24">
+        <v>0.9999233590379806</v>
+      </c>
+      <c r="W24">
+        <v>1.000068542151888</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.000194020052813</v>
+      </c>
+      <c r="D25">
+        <v>1.000970044224112</v>
+      </c>
+      <c r="E25">
+        <v>0.9993533042348421</v>
+      </c>
+      <c r="F25">
+        <v>1.000970044224112</v>
+      </c>
+      <c r="G25">
+        <v>0.9997574869348043</v>
+      </c>
+      <c r="H25">
+        <v>0.9996399257986494</v>
+      </c>
+      <c r="I25">
+        <v>1.000208433244725</v>
+      </c>
+      <c r="J25">
+        <v>0.9993533042348421</v>
+      </c>
+      <c r="K25">
+        <v>0.9993533042348421</v>
+      </c>
+      <c r="L25">
+        <v>1.000630731069611</v>
+      </c>
+      <c r="M25">
+        <v>0.9997574869348043</v>
+      </c>
+      <c r="N25">
+        <v>0.9993533042348421</v>
+      </c>
+      <c r="O25">
+        <v>0.9997574869348043</v>
+      </c>
+      <c r="P25">
+        <v>1.000363765579458</v>
+      </c>
+      <c r="Q25">
+        <v>0.9999829600897648</v>
+      </c>
+      <c r="R25">
+        <v>1.000026945131253</v>
+      </c>
+      <c r="S25">
+        <v>1.000311988134547</v>
+      </c>
+      <c r="T25">
+        <v>1.000026945131253</v>
+      </c>
+      <c r="U25">
+        <v>1.000072317159621</v>
+      </c>
+      <c r="V25">
+        <v>0.999928514574665</v>
+      </c>
+      <c r="W25">
+        <v>1.000063929061795</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.000050163014436</v>
+      </c>
+      <c r="D26">
+        <v>1.000250803452359</v>
+      </c>
+      <c r="E26">
+        <v>0.9998328016334009</v>
+      </c>
+      <c r="F26">
+        <v>1.000250803452359</v>
+      </c>
+      <c r="G26">
+        <v>0.9999372997620529</v>
+      </c>
+      <c r="H26">
+        <v>0.9999069072746795</v>
+      </c>
+      <c r="I26">
+        <v>1.000053888395534</v>
+      </c>
+      <c r="J26">
+        <v>0.9998328016334009</v>
+      </c>
+      <c r="K26">
+        <v>0.9998328016334009</v>
+      </c>
+      <c r="L26">
+        <v>1.000163072069299</v>
+      </c>
+      <c r="M26">
+        <v>0.9999372997620529</v>
+      </c>
+      <c r="N26">
+        <v>0.9998328016334009</v>
+      </c>
+      <c r="O26">
+        <v>0.9999372997620529</v>
+      </c>
+      <c r="P26">
+        <v>1.000094051607206</v>
+      </c>
+      <c r="Q26">
+        <v>0.9999955940787937</v>
+      </c>
+      <c r="R26">
+        <v>1.000006968282604</v>
+      </c>
+      <c r="S26">
+        <v>1.000080663869982</v>
+      </c>
+      <c r="T26">
+        <v>1.000006968282604</v>
+      </c>
+      <c r="U26">
+        <v>1.000018698310837</v>
+      </c>
+      <c r="V26">
+        <v>0.9999815189753495</v>
+      </c>
+      <c r="W26">
+        <v>1.000016529420477</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9997950679831376</v>
+      </c>
+      <c r="D27">
+        <v>0.9989754122851008</v>
+      </c>
+      <c r="E27">
+        <v>1.000683055130593</v>
+      </c>
+      <c r="F27">
+        <v>0.9989754122851008</v>
+      </c>
+      <c r="G27">
+        <v>1.000256150288184</v>
+      </c>
+      <c r="H27">
+        <v>1.000380313718002</v>
+      </c>
+      <c r="I27">
+        <v>0.999779831212017</v>
+      </c>
+      <c r="J27">
+        <v>1.000683055130593</v>
+      </c>
+      <c r="K27">
+        <v>1.000683055130593</v>
+      </c>
+      <c r="L27">
+        <v>0.999333820255321</v>
+      </c>
+      <c r="M27">
+        <v>1.000256150288184</v>
+      </c>
+      <c r="N27">
+        <v>1.000683055130593</v>
+      </c>
+      <c r="O27">
+        <v>1.000256150288184</v>
+      </c>
+      <c r="P27">
+        <v>0.9996157812866424</v>
+      </c>
+      <c r="Q27">
+        <v>1.000017990750101</v>
+      </c>
+      <c r="R27">
+        <v>0.9999715392346259</v>
+      </c>
+      <c r="S27">
+        <v>0.9996704645951006</v>
+      </c>
+      <c r="T27">
+        <v>0.9999715392346259</v>
+      </c>
+      <c r="U27">
+        <v>0.9999236122289736</v>
+      </c>
+      <c r="V27">
+        <v>1.000075500809297</v>
+      </c>
+      <c r="W27">
+        <v>0.9999324751450674</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9997785210774021</v>
+      </c>
+      <c r="D28">
+        <v>0.9988925978481382</v>
+      </c>
+      <c r="E28">
+        <v>1.000738268854098</v>
+      </c>
+      <c r="F28">
+        <v>0.9988925978481382</v>
+      </c>
+      <c r="G28">
+        <v>1.000276855181368</v>
+      </c>
+      <c r="H28">
+        <v>1.000411059032649</v>
+      </c>
+      <c r="I28">
+        <v>0.999762040931674</v>
+      </c>
+      <c r="J28">
+        <v>1.000738268854098</v>
+      </c>
+      <c r="K28">
+        <v>1.000738268854098</v>
+      </c>
+      <c r="L28">
+        <v>0.9992799566510927</v>
+      </c>
+      <c r="M28">
+        <v>1.000276855181368</v>
+      </c>
+      <c r="N28">
+        <v>1.000738268854098</v>
+      </c>
+      <c r="O28">
+        <v>1.000276855181368</v>
+      </c>
+      <c r="P28">
+        <v>0.9995847265147532</v>
+      </c>
+      <c r="Q28">
+        <v>1.000019448056521</v>
+      </c>
+      <c r="R28">
+        <v>0.9999692406278681</v>
+      </c>
+      <c r="S28">
+        <v>0.9996438313203934</v>
+      </c>
+      <c r="T28">
+        <v>0.9999692406278681</v>
+      </c>
+      <c r="U28">
+        <v>0.9999174407038196</v>
+      </c>
+      <c r="V28">
+        <v>1.000081606333875</v>
+      </c>
+      <c r="W28">
+        <v>0.9999270193447238</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.000407080863157</v>
+      </c>
+      <c r="D29">
+        <v>1.002035377164536</v>
+      </c>
+      <c r="E29">
+        <v>0.9986430942741782</v>
+      </c>
+      <c r="F29">
+        <v>1.002035377164536</v>
+      </c>
+      <c r="G29">
+        <v>0.9994911784473592</v>
+      </c>
+      <c r="H29">
+        <v>0.9992444917654071</v>
+      </c>
+      <c r="I29">
+        <v>1.000437344205353</v>
+      </c>
+      <c r="J29">
+        <v>0.9986430942741782</v>
+      </c>
+      <c r="K29">
+        <v>0.9986430942741782</v>
+      </c>
+      <c r="L29">
+        <v>1.001323404090686</v>
+      </c>
+      <c r="M29">
+        <v>0.9994911784473592</v>
+      </c>
+      <c r="N29">
+        <v>0.9986430942741782</v>
+      </c>
+      <c r="O29">
+        <v>0.9994911784473592</v>
+      </c>
+      <c r="P29">
+        <v>1.000763277805948</v>
+      </c>
+      <c r="Q29">
+        <v>0.999964261326356</v>
+      </c>
+      <c r="R29">
+        <v>1.000056549962024</v>
+      </c>
+      <c r="S29">
+        <v>1.000654633272416</v>
+      </c>
+      <c r="T29">
+        <v>1.000056549962024</v>
+      </c>
+      <c r="U29">
+        <v>1.000151748522857</v>
+      </c>
+      <c r="V29">
+        <v>0.9998500176731209</v>
+      </c>
+      <c r="W29">
+        <v>1.000134143657254</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/SA-HW45.xlsx
+++ b/JupyterNotebooks/AvgHW/SA-HW45.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -518,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W29"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,67 +606,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="U2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="V2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="W2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -742,67 +748,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9992403105220923</v>
+        <v>0.9995277030292372</v>
       </c>
       <c r="D4">
-        <v>0.996201552908513</v>
+        <v>0.9976385145666206</v>
       </c>
       <c r="E4">
-        <v>1.002532298659935</v>
+        <v>1.001574323867359</v>
       </c>
       <c r="F4">
-        <v>0.996201552908513</v>
+        <v>0.9976385145666206</v>
       </c>
       <c r="G4">
-        <v>1.000949610662093</v>
+        <v>1.000590371197722</v>
       </c>
       <c r="H4">
-        <v>1.001409950250393</v>
+        <v>1.00087656457005</v>
       </c>
       <c r="I4">
-        <v>0.9991838054932423</v>
+        <v>0.9994925735891693</v>
       </c>
       <c r="J4">
-        <v>1.002532298659935</v>
+        <v>1.001574323867359</v>
       </c>
       <c r="K4">
-        <v>1.002532298659935</v>
+        <v>1.001574323867359</v>
       </c>
       <c r="L4">
-        <v>0.9975302287585009</v>
+        <v>0.9984645493474288</v>
       </c>
       <c r="M4">
-        <v>1.000949610662093</v>
+        <v>1.000590371197722</v>
       </c>
       <c r="N4">
-        <v>1.002532298659935</v>
+        <v>1.001574323867359</v>
       </c>
       <c r="O4">
-        <v>1.000949610662093</v>
+        <v>1.000590371197722</v>
       </c>
       <c r="P4">
-        <v>0.9985755817853033</v>
+        <v>0.999114442882171</v>
       </c>
       <c r="Q4">
-        <v>1.000066708077668</v>
+        <v>1.000041472393445</v>
       </c>
       <c r="R4">
-        <v>0.9998944874101805</v>
+        <v>0.9999344032105671</v>
       </c>
       <c r="S4">
-        <v>0.9987783230212829</v>
+        <v>0.9992404864511704</v>
       </c>
       <c r="T4">
-        <v>0.9998944874101804</v>
+        <v>0.9999344032105671</v>
       </c>
       <c r="U4">
-        <v>0.9997168169309458</v>
+        <v>0.9998239458052176</v>
       </c>
       <c r="V4">
-        <v>1.000279913276743</v>
+        <v>1.000174021417646</v>
       </c>
       <c r="W4">
-        <v>0.999749670989608</v>
+        <v>0.9998443714206635</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -813,67 +819,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9993942567363121</v>
+        <v>0.998051177883882</v>
       </c>
       <c r="D5">
-        <v>0.9969712824855896</v>
+        <v>0.9902559015513538</v>
       </c>
       <c r="E5">
-        <v>1.002019145187323</v>
+        <v>1.006496075336986</v>
       </c>
       <c r="F5">
-        <v>0.9969712824855896</v>
+        <v>0.9902559015513538</v>
       </c>
       <c r="G5">
-        <v>1.000757180086457</v>
+        <v>1.002436014963682</v>
       </c>
       <c r="H5">
-        <v>1.00112423600144</v>
+        <v>1.003616929419082</v>
       </c>
       <c r="I5">
-        <v>0.9993492013040314</v>
+        <v>0.9979062274452556</v>
       </c>
       <c r="J5">
-        <v>1.002019145187323</v>
+        <v>1.006496075336986</v>
       </c>
       <c r="K5">
-        <v>1.002019145187323</v>
+        <v>1.006496075336986</v>
       </c>
       <c r="L5">
-        <v>0.9980307111887606</v>
+        <v>0.9936643259532137</v>
       </c>
       <c r="M5">
-        <v>1.000757180086457</v>
+        <v>1.002436014963682</v>
       </c>
       <c r="N5">
-        <v>1.002019145187323</v>
+        <v>1.006496075336986</v>
       </c>
       <c r="O5">
-        <v>1.000757180086457</v>
+        <v>1.002436014963682</v>
       </c>
       <c r="P5">
-        <v>0.9988642312860233</v>
+        <v>0.996345958257518</v>
       </c>
       <c r="Q5">
-        <v>1.000053190695244</v>
+        <v>1.000171121204469</v>
       </c>
       <c r="R5">
-        <v>0.9999158692531233</v>
+        <v>0.9997293306173406</v>
       </c>
       <c r="S5">
-        <v>0.9990258879586927</v>
+        <v>0.9968660479867638</v>
       </c>
       <c r="T5">
-        <v>0.9999158692531233</v>
+        <v>0.9997293306173406</v>
       </c>
       <c r="U5">
-        <v>0.9997742022658502</v>
+        <v>0.9992735548243193</v>
       </c>
       <c r="V5">
-        <v>1.000223190850145</v>
+        <v>1.000718058926853</v>
       </c>
       <c r="W5">
-        <v>0.9998003991345463</v>
+        <v>0.9993578334396422</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -884,67 +890,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9980390964658836</v>
+        <v>0.9992403105220923</v>
       </c>
       <c r="D6">
-        <v>0.9901954815167299</v>
+        <v>0.996201552908513</v>
       </c>
       <c r="E6">
-        <v>1.006536345882048</v>
+        <v>1.002532298659935</v>
       </c>
       <c r="F6">
-        <v>0.9901954815167299</v>
+        <v>0.996201552908513</v>
       </c>
       <c r="G6">
-        <v>1.002451148303192</v>
+        <v>1.000949610662093</v>
       </c>
       <c r="H6">
-        <v>1.003639368733281</v>
+        <v>1.001409950250393</v>
       </c>
       <c r="I6">
-        <v>0.9978932415120436</v>
+        <v>0.9991838054932423</v>
       </c>
       <c r="J6">
-        <v>1.006536345882048</v>
+        <v>1.002532298659935</v>
       </c>
       <c r="K6">
-        <v>1.006536345882048</v>
+        <v>1.002532298659935</v>
       </c>
       <c r="L6">
-        <v>0.9936250460252111</v>
+        <v>0.9975302287585009</v>
       </c>
       <c r="M6">
-        <v>1.002451148303192</v>
+        <v>1.000949610662093</v>
       </c>
       <c r="N6">
-        <v>1.006536345882048</v>
+        <v>1.002532298659935</v>
       </c>
       <c r="O6">
-        <v>1.002451148303192</v>
+        <v>1.000949610662093</v>
       </c>
       <c r="P6">
-        <v>0.9963233149099611</v>
+        <v>0.9985755817853033</v>
       </c>
       <c r="Q6">
-        <v>1.000172194907618</v>
+        <v>1.000066708077668</v>
       </c>
       <c r="R6">
-        <v>0.9997276585673233</v>
+        <v>0.9998944874101805</v>
       </c>
       <c r="S6">
-        <v>0.9968466237773219</v>
+        <v>0.9987783230212829</v>
       </c>
       <c r="T6">
-        <v>0.9997276585673234</v>
+        <v>0.9998944874101804</v>
       </c>
       <c r="U6">
-        <v>0.9992690543035034</v>
+        <v>0.9997168169309458</v>
       </c>
       <c r="V6">
-        <v>1.000722512619212</v>
+        <v>1.000279913276743</v>
       </c>
       <c r="W6">
-        <v>0.9993538595926978</v>
+        <v>0.999749670989608</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -955,67 +961,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9999328220380707</v>
+        <v>0.9993942567363121</v>
       </c>
       <c r="D7">
-        <v>0.9996641066691648</v>
+        <v>0.9969712824855896</v>
       </c>
       <c r="E7">
-        <v>1.000223928850732</v>
+        <v>1.002019145187323</v>
       </c>
       <c r="F7">
-        <v>0.9996641066691648</v>
+        <v>0.9969712824855896</v>
       </c>
       <c r="G7">
-        <v>1.000083972657827</v>
+        <v>1.000757180086457</v>
       </c>
       <c r="H7">
-        <v>1.000124681402637</v>
+        <v>1.00112423600144</v>
       </c>
       <c r="I7">
-        <v>0.9999278253086085</v>
+        <v>0.9993492013040314</v>
       </c>
       <c r="J7">
-        <v>1.000223928850732</v>
+        <v>1.002019145187323</v>
       </c>
       <c r="K7">
-        <v>1.000223928850732</v>
+        <v>1.002019145187323</v>
       </c>
       <c r="L7">
-        <v>0.9997816013186381</v>
+        <v>0.9980307111887606</v>
       </c>
       <c r="M7">
-        <v>1.000083972657827</v>
+        <v>1.000757180086457</v>
       </c>
       <c r="N7">
-        <v>1.000223928850732</v>
+        <v>1.002019145187323</v>
       </c>
       <c r="O7">
-        <v>1.000083972657827</v>
+        <v>1.000757180086457</v>
       </c>
       <c r="P7">
-        <v>0.999874039663496</v>
+        <v>0.9988642312860233</v>
       </c>
       <c r="Q7">
-        <v>1.000005898983218</v>
+        <v>1.000053190695244</v>
       </c>
       <c r="R7">
-        <v>0.9999906693925747</v>
+        <v>0.9999158692531233</v>
       </c>
       <c r="S7">
-        <v>0.9998919682118669</v>
+        <v>0.9990258879586927</v>
       </c>
       <c r="T7">
-        <v>0.9999906693925746</v>
+        <v>0.9999158692531233</v>
       </c>
       <c r="U7">
-        <v>0.9999749583715831</v>
+        <v>0.9997742022658502</v>
       </c>
       <c r="V7">
-        <v>1.000024752467413</v>
+        <v>1.000223190850145</v>
       </c>
       <c r="W7">
-        <v>0.9999778638629382</v>
+        <v>0.9998003991345463</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1026,67 +1032,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9999951145350165</v>
+        <v>0.9980390964658836</v>
       </c>
       <c r="D8">
-        <v>0.9999755736196053</v>
+        <v>0.9901954815167299</v>
       </c>
       <c r="E8">
-        <v>1.000016284378513</v>
+        <v>1.006536345882048</v>
       </c>
       <c r="F8">
-        <v>0.9999755736196053</v>
+        <v>0.9901954815167299</v>
       </c>
       <c r="G8">
-        <v>1.000006105717792</v>
+        <v>1.002451148303192</v>
       </c>
       <c r="H8">
-        <v>1.000009067429393</v>
+        <v>1.003639368733281</v>
       </c>
       <c r="I8">
-        <v>0.999994752035404</v>
+        <v>0.9978932415120436</v>
       </c>
       <c r="J8">
-        <v>1.000016284378513</v>
+        <v>1.006536345882048</v>
       </c>
       <c r="K8">
-        <v>1.000016284378513</v>
+        <v>1.006536345882048</v>
       </c>
       <c r="L8">
-        <v>0.999984118920814</v>
+        <v>0.9936250460252111</v>
       </c>
       <c r="M8">
-        <v>1.000006105717792</v>
+        <v>1.002451148303192</v>
       </c>
       <c r="N8">
-        <v>1.000016284378513</v>
+        <v>1.006536345882048</v>
       </c>
       <c r="O8">
-        <v>1.000006105717792</v>
+        <v>1.002451148303192</v>
       </c>
       <c r="P8">
-        <v>0.9999908396686987</v>
+        <v>0.9963233149099611</v>
       </c>
       <c r="Q8">
-        <v>1.000000428876598</v>
+        <v>1.000172194907618</v>
       </c>
       <c r="R8">
-        <v>0.9999993212386368</v>
+        <v>0.9997276585673233</v>
       </c>
       <c r="S8">
-        <v>0.9999921437909339</v>
+        <v>0.9968466237773219</v>
       </c>
       <c r="T8">
-        <v>0.9999993212386368</v>
+        <v>0.9997276585673234</v>
       </c>
       <c r="U8">
-        <v>0.9999981789378285</v>
+        <v>0.9992690543035034</v>
       </c>
       <c r="V8">
-        <v>1.000001800025965</v>
+        <v>1.000722512619212</v>
       </c>
       <c r="W8">
-        <v>0.9999983902942912</v>
+        <v>0.9993538595926978</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1097,67 +1103,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9998921545033813</v>
+        <v>0.9999328220380707</v>
       </c>
       <c r="D9">
-        <v>0.9994607752654463</v>
+        <v>0.9996641066691648</v>
       </c>
       <c r="E9">
-        <v>1.000359483073277</v>
+        <v>1.000223928850732</v>
       </c>
       <c r="F9">
-        <v>0.9994607752654463</v>
+        <v>0.9996641066691648</v>
       </c>
       <c r="G9">
-        <v>1.00013480587907</v>
+        <v>1.000083972657827</v>
       </c>
       <c r="H9">
-        <v>1.000200156810134</v>
+        <v>1.000124681402637</v>
       </c>
       <c r="I9">
-        <v>0.9998841329181529</v>
+        <v>0.9999278253086085</v>
       </c>
       <c r="J9">
-        <v>1.000359483073277</v>
+        <v>1.000223928850732</v>
       </c>
       <c r="K9">
-        <v>1.000359483073277</v>
+        <v>1.000223928850732</v>
       </c>
       <c r="L9">
-        <v>0.9996493947247888</v>
+        <v>0.9997816013186381</v>
       </c>
       <c r="M9">
-        <v>1.00013480587907</v>
+        <v>1.000083972657827</v>
       </c>
       <c r="N9">
-        <v>1.000359483073277</v>
+        <v>1.000223928850732</v>
       </c>
       <c r="O9">
-        <v>1.00013480587907</v>
+        <v>1.000083972657827</v>
       </c>
       <c r="P9">
-        <v>0.9997977905722584</v>
+        <v>0.999874039663496</v>
       </c>
       <c r="Q9">
-        <v>1.000009469398612</v>
+        <v>1.000005898983218</v>
       </c>
       <c r="R9">
-        <v>0.9999850214059314</v>
+        <v>0.9999906693925747</v>
       </c>
       <c r="S9">
-        <v>0.9998265713542231</v>
+        <v>0.9998919682118669</v>
       </c>
       <c r="T9">
-        <v>0.9999850214059314</v>
+        <v>0.9999906693925746</v>
       </c>
       <c r="U9">
-        <v>0.9999597992839868</v>
+        <v>0.9999749583715831</v>
       </c>
       <c r="V9">
-        <v>1.000039736041845</v>
+        <v>1.000024752467413</v>
       </c>
       <c r="W9">
-        <v>0.9999644636316652</v>
+        <v>0.9999778638629382</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1168,67 +1174,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9980099659869232</v>
+        <v>0.9999951145350165</v>
       </c>
       <c r="D10">
-        <v>0.9900498284764824</v>
+        <v>0.9999755736196053</v>
       </c>
       <c r="E10">
-        <v>1.006633448352998</v>
+        <v>1.000016284378513</v>
       </c>
       <c r="F10">
-        <v>0.9900498284764824</v>
+        <v>0.9999755736196053</v>
       </c>
       <c r="G10">
-        <v>1.002487562034373</v>
+        <v>1.000006105717792</v>
       </c>
       <c r="H10">
-        <v>1.003693434601515</v>
+        <v>1.000009067429393</v>
       </c>
       <c r="I10">
-        <v>0.9978619438379697</v>
+        <v>0.999994752035404</v>
       </c>
       <c r="J10">
-        <v>1.006633448352998</v>
+        <v>1.000016284378513</v>
       </c>
       <c r="K10">
-        <v>1.006633448352998</v>
+        <v>1.000016284378513</v>
       </c>
       <c r="L10">
-        <v>0.9935303408479749</v>
+        <v>0.999984118920814</v>
       </c>
       <c r="M10">
-        <v>1.002487562034373</v>
+        <v>1.000006105717792</v>
       </c>
       <c r="N10">
-        <v>1.006633448352998</v>
+        <v>1.000016284378513</v>
       </c>
       <c r="O10">
-        <v>1.002487562034373</v>
+        <v>1.000006105717792</v>
       </c>
       <c r="P10">
-        <v>0.9962686952554276</v>
+        <v>0.9999908396686987</v>
       </c>
       <c r="Q10">
-        <v>1.000174752936171</v>
+        <v>1.000000428876598</v>
       </c>
       <c r="R10">
-        <v>0.9997236129546175</v>
+        <v>0.9999993212386368</v>
       </c>
       <c r="S10">
-        <v>0.9967997781162751</v>
+        <v>0.9999921437909339</v>
       </c>
       <c r="T10">
-        <v>0.9997236129546175</v>
+        <v>0.9999993212386368</v>
       </c>
       <c r="U10">
-        <v>0.9992581956754556</v>
+        <v>0.9999981789378285</v>
       </c>
       <c r="V10">
-        <v>1.000733246210964</v>
+        <v>1.000001800025965</v>
       </c>
       <c r="W10">
-        <v>0.999344260771576</v>
+        <v>0.9999983902942912</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1239,67 +1245,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9996136300225946</v>
+        <v>0.9998921545033813</v>
       </c>
       <c r="D11">
-        <v>0.9980681522933327</v>
+        <v>0.9994607752654463</v>
       </c>
       <c r="E11">
-        <v>1.001287898614653</v>
+        <v>1.000359483073277</v>
       </c>
       <c r="F11">
-        <v>0.9980681522933327</v>
+        <v>0.9994607752654463</v>
       </c>
       <c r="G11">
-        <v>1.000482959917478</v>
+        <v>1.00013480587907</v>
       </c>
       <c r="H11">
-        <v>1.000717082759434</v>
+        <v>1.000200156810134</v>
       </c>
       <c r="I11">
-        <v>0.9995848929847293</v>
+        <v>0.9998841329181529</v>
       </c>
       <c r="J11">
-        <v>1.001287898614653</v>
+        <v>1.000359483073277</v>
       </c>
       <c r="K11">
-        <v>1.001287898614653</v>
+        <v>1.000359483073277</v>
       </c>
       <c r="L11">
-        <v>0.9987439030728202</v>
+        <v>0.9996493947247888</v>
       </c>
       <c r="M11">
-        <v>1.000482959917478</v>
+        <v>1.00013480587907</v>
       </c>
       <c r="N11">
-        <v>1.001287898614653</v>
+        <v>1.000359483073277</v>
       </c>
       <c r="O11">
-        <v>1.000482959917478</v>
+        <v>1.00013480587907</v>
       </c>
       <c r="P11">
-        <v>0.9992755561054052</v>
+        <v>0.9997977905722584</v>
       </c>
       <c r="Q11">
-        <v>1.000033926451104</v>
+        <v>1.000009469398612</v>
       </c>
       <c r="R11">
-        <v>0.999946336941821</v>
+        <v>0.9999850214059314</v>
       </c>
       <c r="S11">
-        <v>0.9993786683985132</v>
+        <v>0.9998265713542231</v>
       </c>
       <c r="T11">
-        <v>0.999946336941821</v>
+        <v>0.9999850214059314</v>
       </c>
       <c r="U11">
-        <v>0.999855975952548</v>
+        <v>0.9999597992839868</v>
       </c>
       <c r="V11">
-        <v>1.000142360484969</v>
+        <v>1.000039736041845</v>
       </c>
       <c r="W11">
-        <v>0.9998726849478149</v>
+        <v>0.9999644636316652</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1310,67 +1316,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9993950757999988</v>
+        <v>0.9980099659869232</v>
       </c>
       <c r="D12">
-        <v>0.9969753752631567</v>
+        <v>0.9900498284764824</v>
       </c>
       <c r="E12">
-        <v>1.002016417684213</v>
+        <v>1.006633448352998</v>
       </c>
       <c r="F12">
-        <v>0.9969753752631567</v>
+        <v>0.9900498284764824</v>
       </c>
       <c r="G12">
-        <v>1.000756158147369</v>
+        <v>1.002487562034373</v>
       </c>
       <c r="H12">
-        <v>1.001122719021054</v>
+        <v>1.003693434601515</v>
       </c>
       <c r="I12">
-        <v>0.9993500805789479</v>
+        <v>0.9978619438379697</v>
       </c>
       <c r="J12">
-        <v>1.002016417684213</v>
+        <v>1.006633448352998</v>
       </c>
       <c r="K12">
-        <v>1.002016417684213</v>
+        <v>1.006633448352998</v>
       </c>
       <c r="L12">
-        <v>0.9980333708210524</v>
+        <v>0.9935303408479749</v>
       </c>
       <c r="M12">
-        <v>1.000756158147369</v>
+        <v>1.002487562034373</v>
       </c>
       <c r="N12">
-        <v>1.002016417684213</v>
+        <v>1.006633448352998</v>
       </c>
       <c r="O12">
-        <v>1.000756158147369</v>
+        <v>1.002487562034373</v>
       </c>
       <c r="P12">
-        <v>0.9988657667052631</v>
+        <v>0.9962686952554276</v>
       </c>
       <c r="Q12">
-        <v>1.000053119363159</v>
+        <v>1.000174752936171</v>
       </c>
       <c r="R12">
-        <v>0.9999159836982464</v>
+        <v>0.9997236129546175</v>
       </c>
       <c r="S12">
-        <v>0.999027204663158</v>
+        <v>0.9967997781162751</v>
       </c>
       <c r="T12">
-        <v>0.9999159836982464</v>
+        <v>0.9997236129546175</v>
       </c>
       <c r="U12">
-        <v>0.9997745079184217</v>
+        <v>0.9992581956754556</v>
       </c>
       <c r="V12">
-        <v>1.00022288987158</v>
+        <v>1.000733246210964</v>
       </c>
       <c r="W12">
-        <v>0.9998006694328953</v>
+        <v>0.999344260771576</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1381,67 +1387,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.000391390152756</v>
+        <v>0.9996136300225946</v>
       </c>
       <c r="D13">
-        <v>1.001956946792648</v>
+        <v>0.9980681522933327</v>
       </c>
       <c r="E13">
-        <v>0.9986953714659608</v>
+        <v>1.001287898614653</v>
       </c>
       <c r="F13">
-        <v>1.001956946792648</v>
+        <v>0.9980681522933327</v>
       </c>
       <c r="G13">
-        <v>0.9995107639784528</v>
+        <v>1.000482959917478</v>
       </c>
       <c r="H13">
-        <v>0.9992736015494776</v>
+        <v>1.000717082759434</v>
       </c>
       <c r="I13">
-        <v>1.000420501303533</v>
+        <v>0.9995848929847293</v>
       </c>
       <c r="J13">
-        <v>0.9986953714659608</v>
+        <v>1.001287898614653</v>
       </c>
       <c r="K13">
-        <v>0.9986953714659608</v>
+        <v>1.001287898614653</v>
       </c>
       <c r="L13">
-        <v>1.001272417166038</v>
+        <v>0.9987439030728202</v>
       </c>
       <c r="M13">
-        <v>0.9995107639784528</v>
+        <v>1.000482959917478</v>
       </c>
       <c r="N13">
-        <v>0.9986953714659608</v>
+        <v>1.001287898614653</v>
       </c>
       <c r="O13">
-        <v>0.9995107639784528</v>
+        <v>1.000482959917478</v>
       </c>
       <c r="P13">
-        <v>1.00073385538555</v>
+        <v>0.9992755561054052</v>
       </c>
       <c r="Q13">
-        <v>0.9999656326409928</v>
+        <v>1.000033926451104</v>
       </c>
       <c r="R13">
-        <v>1.000054360745687</v>
+        <v>0.999946336941821</v>
       </c>
       <c r="S13">
-        <v>1.000629404024878</v>
+        <v>0.9993786683985132</v>
       </c>
       <c r="T13">
-        <v>1.000054360745687</v>
+        <v>0.999946336941821</v>
       </c>
       <c r="U13">
-        <v>1.000145895885149</v>
+        <v>0.999855975952548</v>
       </c>
       <c r="V13">
-        <v>0.9998557910013111</v>
+        <v>1.000142360484969</v>
       </c>
       <c r="W13">
-        <v>1.000128969548415</v>
+        <v>0.9998726849478149</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1452,67 +1458,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9965617900000008</v>
+        <v>0.9993950757999988</v>
       </c>
       <c r="D14">
-        <v>0.98280895</v>
+        <v>0.9969753752631567</v>
       </c>
       <c r="E14">
-        <v>1.0114607</v>
+        <v>1.002016417684213</v>
       </c>
       <c r="F14">
-        <v>0.98280895</v>
+        <v>0.9969753752631567</v>
       </c>
       <c r="G14">
-        <v>1.004297800000002</v>
+        <v>1.000756158147369</v>
       </c>
       <c r="H14">
-        <v>1.006381200000001</v>
+        <v>1.001122719021054</v>
       </c>
       <c r="I14">
-        <v>0.9963060500000007</v>
+        <v>0.9993500805789479</v>
       </c>
       <c r="J14">
-        <v>1.0114607</v>
+        <v>1.002016417684213</v>
       </c>
       <c r="K14">
-        <v>1.0114607</v>
+        <v>1.002016417684213</v>
       </c>
       <c r="L14">
-        <v>0.9888222800000002</v>
+        <v>0.9980333708210524</v>
       </c>
       <c r="M14">
-        <v>1.004297800000002</v>
+        <v>1.000756158147369</v>
       </c>
       <c r="N14">
-        <v>1.0114607</v>
+        <v>1.002016417684213</v>
       </c>
       <c r="O14">
-        <v>1.004297800000002</v>
+        <v>1.000756158147369</v>
       </c>
       <c r="P14">
-        <v>0.993553375000001</v>
+        <v>0.9988657667052631</v>
       </c>
       <c r="Q14">
-        <v>1.000301925000001</v>
+        <v>1.000053119363159</v>
       </c>
       <c r="R14">
-        <v>0.999522483333334</v>
+        <v>0.9999159836982464</v>
       </c>
       <c r="S14">
-        <v>0.9944709333333343</v>
+        <v>0.999027204663158</v>
       </c>
       <c r="T14">
-        <v>0.999522483333334</v>
+        <v>0.9999159836982464</v>
       </c>
       <c r="U14">
-        <v>0.9987183750000007</v>
+        <v>0.9997745079184217</v>
       </c>
       <c r="V14">
-        <v>1.001266840000001</v>
+        <v>1.00022288987158</v>
       </c>
       <c r="W14">
-        <v>0.9988670712500008</v>
+        <v>0.9998006694328953</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1523,67 +1529,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9944594800000001</v>
+        <v>1.000391390152756</v>
       </c>
       <c r="D15">
-        <v>0.9722974</v>
+        <v>1.001956946792648</v>
       </c>
       <c r="E15">
-        <v>1.0184684</v>
+        <v>0.9986953714659608</v>
       </c>
       <c r="F15">
-        <v>0.9722974</v>
+        <v>1.001956946792648</v>
       </c>
       <c r="G15">
-        <v>1.0069256</v>
+        <v>0.9995107639784528</v>
       </c>
       <c r="H15">
-        <v>1.010283</v>
+        <v>0.9992736015494776</v>
       </c>
       <c r="I15">
-        <v>0.99404738</v>
+        <v>1.000420501303533</v>
       </c>
       <c r="J15">
-        <v>1.0184684</v>
+        <v>0.9986953714659608</v>
       </c>
       <c r="K15">
-        <v>1.0184684</v>
+        <v>0.9986953714659608</v>
       </c>
       <c r="L15">
-        <v>0.98198761</v>
+        <v>1.001272417166038</v>
       </c>
       <c r="M15">
-        <v>1.0069256</v>
+        <v>0.9995107639784528</v>
       </c>
       <c r="N15">
-        <v>1.0184684</v>
+        <v>0.9986953714659608</v>
       </c>
       <c r="O15">
-        <v>1.0069256</v>
+        <v>0.9995107639784528</v>
       </c>
       <c r="P15">
-        <v>0.9896115</v>
+        <v>1.00073385538555</v>
       </c>
       <c r="Q15">
-        <v>1.00048649</v>
+        <v>0.9999656326409928</v>
       </c>
       <c r="R15">
-        <v>0.9992304666666666</v>
+        <v>1.000054360745687</v>
       </c>
       <c r="S15">
-        <v>0.9910901266666666</v>
+        <v>1.000629404024878</v>
       </c>
       <c r="T15">
-        <v>0.9992304666666666</v>
+        <v>1.000054360745687</v>
       </c>
       <c r="U15">
-        <v>0.997934695</v>
+        <v>1.000145895885149</v>
       </c>
       <c r="V15">
-        <v>1.002041436</v>
+        <v>0.9998557910013111</v>
       </c>
       <c r="W15">
-        <v>0.99817430875</v>
+        <v>1.000128969548415</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1594,67 +1600,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.99466084</v>
+        <v>0.9965617900000008</v>
       </c>
       <c r="D16">
-        <v>0.9733042199999999</v>
+        <v>0.98280895</v>
       </c>
       <c r="E16">
-        <v>1.0177972</v>
+        <v>1.0114607</v>
       </c>
       <c r="F16">
-        <v>0.9733042199999999</v>
+        <v>0.98280895</v>
       </c>
       <c r="G16">
-        <v>1.0066739</v>
+        <v>1.004297800000002</v>
       </c>
       <c r="H16">
-        <v>1.0099092</v>
+        <v>1.006381200000001</v>
       </c>
       <c r="I16">
-        <v>0.99426372</v>
+        <v>0.9963060500000007</v>
       </c>
       <c r="J16">
-        <v>1.0177972</v>
+        <v>1.0114607</v>
       </c>
       <c r="K16">
-        <v>1.0177972</v>
+        <v>1.0114607</v>
       </c>
       <c r="L16">
-        <v>0.9826422500000001</v>
+        <v>0.9888222800000002</v>
       </c>
       <c r="M16">
-        <v>1.0066739</v>
+        <v>1.004297800000002</v>
       </c>
       <c r="N16">
-        <v>1.0177972</v>
+        <v>1.0114607</v>
       </c>
       <c r="O16">
-        <v>1.0066739</v>
+        <v>1.004297800000002</v>
       </c>
       <c r="P16">
-        <v>0.98998906</v>
+        <v>0.993553375000001</v>
       </c>
       <c r="Q16">
-        <v>1.00046881</v>
+        <v>1.000301925000001</v>
       </c>
       <c r="R16">
-        <v>0.9992584399999999</v>
+        <v>0.999522483333334</v>
       </c>
       <c r="S16">
-        <v>0.9914139466666666</v>
+        <v>0.9944709333333343</v>
       </c>
       <c r="T16">
-        <v>0.9992584399999999</v>
+        <v>0.999522483333334</v>
       </c>
       <c r="U16">
-        <v>0.99800976</v>
+        <v>0.9987183750000007</v>
       </c>
       <c r="V16">
-        <v>1.001967248</v>
+        <v>1.001266840000001</v>
       </c>
       <c r="W16">
-        <v>0.9982406537499999</v>
+        <v>0.9988670712500008</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1665,67 +1671,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.99860256</v>
+        <v>0.9944594800000001</v>
       </c>
       <c r="D17">
-        <v>0.99301282</v>
+        <v>0.9722974</v>
       </c>
       <c r="E17">
-        <v>1.0046581</v>
+        <v>1.0184684</v>
       </c>
       <c r="F17">
-        <v>0.99301282</v>
+        <v>0.9722974</v>
       </c>
       <c r="G17">
-        <v>1.0017468</v>
+        <v>1.0069256</v>
       </c>
       <c r="H17">
-        <v>1.0025936</v>
+        <v>1.010283</v>
       </c>
       <c r="I17">
-        <v>0.99849862</v>
+        <v>0.99404738</v>
       </c>
       <c r="J17">
-        <v>1.0046581</v>
+        <v>1.0184684</v>
       </c>
       <c r="K17">
-        <v>1.0046581</v>
+        <v>1.0184684</v>
       </c>
       <c r="L17">
-        <v>0.9954568900000001</v>
+        <v>0.98198761</v>
       </c>
       <c r="M17">
-        <v>1.0017468</v>
+        <v>1.0069256</v>
       </c>
       <c r="N17">
-        <v>1.0046581</v>
+        <v>1.0184684</v>
       </c>
       <c r="O17">
-        <v>1.0017468</v>
+        <v>1.0069256</v>
       </c>
       <c r="P17">
-        <v>0.99737981</v>
+        <v>0.9896115</v>
       </c>
       <c r="Q17">
-        <v>1.00012271</v>
+        <v>1.00048649</v>
       </c>
       <c r="R17">
-        <v>0.9998059066666668</v>
+        <v>0.9992304666666666</v>
       </c>
       <c r="S17">
-        <v>0.9977527466666666</v>
+        <v>0.9910901266666666</v>
       </c>
       <c r="T17">
-        <v>0.9998059066666668</v>
+        <v>0.9992304666666666</v>
       </c>
       <c r="U17">
-        <v>0.999479085</v>
+        <v>0.997934695</v>
       </c>
       <c r="V17">
-        <v>1.000514888</v>
+        <v>1.002041436</v>
       </c>
       <c r="W17">
-        <v>0.99953952375</v>
+        <v>0.99817430875</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1736,67 +1742,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9986524432876712</v>
+        <v>0.99466084</v>
       </c>
       <c r="D18">
-        <v>0.9932621802739727</v>
+        <v>0.9733042199999999</v>
       </c>
       <c r="E18">
-        <v>1.004491875616438</v>
+        <v>1.0177972</v>
       </c>
       <c r="F18">
-        <v>0.9932621802739727</v>
+        <v>0.9733042199999999</v>
       </c>
       <c r="G18">
-        <v>1.001684454794521</v>
+        <v>1.0066739</v>
       </c>
       <c r="H18">
-        <v>1.002501016986301</v>
+        <v>1.0099092</v>
       </c>
       <c r="I18">
-        <v>0.9985522057534247</v>
+        <v>0.99426372</v>
       </c>
       <c r="J18">
-        <v>1.004491875616438</v>
+        <v>1.0177972</v>
       </c>
       <c r="K18">
-        <v>1.004491875616438</v>
+        <v>1.0177972</v>
       </c>
       <c r="L18">
-        <v>0.995619035205479</v>
+        <v>0.9826422500000001</v>
       </c>
       <c r="M18">
-        <v>1.001684454794521</v>
+        <v>1.0066739</v>
       </c>
       <c r="N18">
-        <v>1.004491875616438</v>
+        <v>1.0177972</v>
       </c>
       <c r="O18">
-        <v>1.001684454794521</v>
+        <v>1.0066739</v>
       </c>
       <c r="P18">
-        <v>0.9974733175342467</v>
+        <v>0.98998906</v>
       </c>
       <c r="Q18">
-        <v>1.000118330273973</v>
+        <v>1.00046881</v>
       </c>
       <c r="R18">
-        <v>0.9998128368949772</v>
+        <v>0.9992584399999999</v>
       </c>
       <c r="S18">
-        <v>0.9978329469406394</v>
+        <v>0.9914139466666666</v>
       </c>
       <c r="T18">
-        <v>0.9998128368949772</v>
+        <v>0.9992584399999999</v>
       </c>
       <c r="U18">
-        <v>0.9994976791095891</v>
+        <v>0.99800976</v>
       </c>
       <c r="V18">
-        <v>1.000496518410959</v>
+        <v>1.001967248</v>
       </c>
       <c r="W18">
-        <v>0.999555958339041</v>
+        <v>0.9982406537499999</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1807,67 +1813,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.997800675263158</v>
+        <v>0.99860256</v>
       </c>
       <c r="D19">
-        <v>0.9890033726315791</v>
+        <v>0.99301282</v>
       </c>
       <c r="E19">
-        <v>1.007331088947368</v>
+        <v>1.0046581</v>
       </c>
       <c r="F19">
-        <v>0.9890033726315791</v>
+        <v>0.99301282</v>
       </c>
       <c r="G19">
-        <v>1.002749164736842</v>
+        <v>1.0017468</v>
       </c>
       <c r="H19">
-        <v>1.00408185368421</v>
+        <v>1.0025936</v>
       </c>
       <c r="I19">
-        <v>0.9976370826315789</v>
+        <v>0.99849862</v>
       </c>
       <c r="J19">
-        <v>1.007331088947368</v>
+        <v>1.0046581</v>
       </c>
       <c r="K19">
-        <v>1.007331088947368</v>
+        <v>1.0046581</v>
       </c>
       <c r="L19">
-        <v>0.9928499273684211</v>
+        <v>0.9954568900000001</v>
       </c>
       <c r="M19">
-        <v>1.002749164736842</v>
+        <v>1.0017468</v>
       </c>
       <c r="N19">
-        <v>1.007331088947368</v>
+        <v>1.0046581</v>
       </c>
       <c r="O19">
-        <v>1.002749164736842</v>
+        <v>1.0017468</v>
       </c>
       <c r="P19">
-        <v>0.9958762686842106</v>
+        <v>0.99737981</v>
       </c>
       <c r="Q19">
-        <v>1.000193123684211</v>
+        <v>1.00012271</v>
       </c>
       <c r="R19">
-        <v>0.9996945421052632</v>
+        <v>0.9998059066666668</v>
       </c>
       <c r="S19">
-        <v>0.9964632066666668</v>
+        <v>0.9977527466666666</v>
       </c>
       <c r="T19">
-        <v>0.9996945421052633</v>
+        <v>0.9998059066666668</v>
       </c>
       <c r="U19">
-        <v>0.9991801772368423</v>
+        <v>0.999479085</v>
       </c>
       <c r="V19">
-        <v>1.000810359578947</v>
+        <v>1.000514888</v>
       </c>
       <c r="W19">
-        <v>0.99927529125</v>
+        <v>0.99953952375</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1878,67 +1884,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9978669105263159</v>
+        <v>0.9986524432876712</v>
       </c>
       <c r="D20">
-        <v>0.9893345631578947</v>
+        <v>0.9932621802739727</v>
       </c>
       <c r="E20">
-        <v>1.007110298947368</v>
+        <v>1.004491875616438</v>
       </c>
       <c r="F20">
-        <v>0.9893345631578947</v>
+        <v>0.9932621802739727</v>
       </c>
       <c r="G20">
-        <v>1.002666350526316</v>
+        <v>1.001684454794521</v>
       </c>
       <c r="H20">
-        <v>1.003958923684211</v>
+        <v>1.002501016986301</v>
       </c>
       <c r="I20">
-        <v>0.9977082536842106</v>
+        <v>0.9985522057534247</v>
       </c>
       <c r="J20">
-        <v>1.007110298947368</v>
+        <v>1.004491875616438</v>
       </c>
       <c r="K20">
-        <v>1.007110298947368</v>
+        <v>1.004491875616438</v>
       </c>
       <c r="L20">
-        <v>0.9930652668421055</v>
+        <v>0.995619035205479</v>
       </c>
       <c r="M20">
-        <v>1.002666350526316</v>
+        <v>1.001684454794521</v>
       </c>
       <c r="N20">
-        <v>1.007110298947368</v>
+        <v>1.004491875616438</v>
       </c>
       <c r="O20">
-        <v>1.002666350526316</v>
+        <v>1.001684454794521</v>
       </c>
       <c r="P20">
-        <v>0.9960004568421053</v>
+        <v>0.9974733175342467</v>
       </c>
       <c r="Q20">
-        <v>1.000187302105263</v>
+        <v>1.000118330273973</v>
       </c>
       <c r="R20">
-        <v>0.9997037375438597</v>
+        <v>0.9998128368949772</v>
       </c>
       <c r="S20">
-        <v>0.9965697224561403</v>
+        <v>0.9978329469406394</v>
       </c>
       <c r="T20">
-        <v>0.9997037375438597</v>
+        <v>0.9998128368949772</v>
       </c>
       <c r="U20">
-        <v>0.9992048665789475</v>
+        <v>0.9994976791095891</v>
       </c>
       <c r="V20">
-        <v>1.000785953052632</v>
+        <v>1.000496518410959</v>
       </c>
       <c r="W20">
-        <v>0.9992971147368421</v>
+        <v>0.999555958339041</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1949,67 +1955,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.00000325123103</v>
+        <v>0.997800675263158</v>
       </c>
       <c r="D21">
-        <v>1.000016246698306</v>
+        <v>0.9890033726315791</v>
       </c>
       <c r="E21">
-        <v>0.9999891729394074</v>
+        <v>1.007331088947368</v>
       </c>
       <c r="F21">
-        <v>1.000016246698306</v>
+        <v>0.9890033726315791</v>
       </c>
       <c r="G21">
-        <v>0.9999959388576023</v>
+        <v>1.002749164736842</v>
       </c>
       <c r="H21">
-        <v>0.9999939776097011</v>
+        <v>1.00408185368421</v>
       </c>
       <c r="I21">
-        <v>1.000003487505612</v>
+        <v>0.9976370826315789</v>
       </c>
       <c r="J21">
-        <v>0.9999891729394074</v>
+        <v>1.007331088947368</v>
       </c>
       <c r="K21">
-        <v>0.9999891729394074</v>
+        <v>1.007331088947368</v>
       </c>
       <c r="L21">
-        <v>1.000010562391112</v>
+        <v>0.9928499273684211</v>
       </c>
       <c r="M21">
-        <v>0.9999959388576023</v>
+        <v>1.002749164736842</v>
       </c>
       <c r="N21">
-        <v>0.9999891729394074</v>
+        <v>1.007331088947368</v>
       </c>
       <c r="O21">
-        <v>0.9999959388576023</v>
+        <v>1.002749164736842</v>
       </c>
       <c r="P21">
-        <v>1.000006092777954</v>
+        <v>0.9958762686842106</v>
       </c>
       <c r="Q21">
-        <v>0.999999713181607</v>
+        <v>1.000193123684211</v>
       </c>
       <c r="R21">
-        <v>1.000000452831772</v>
+        <v>0.9996945421052632</v>
       </c>
       <c r="S21">
-        <v>1.00000522435384</v>
+        <v>0.9964632066666668</v>
       </c>
       <c r="T21">
-        <v>1.000000452831772</v>
+        <v>0.9996945421052633</v>
       </c>
       <c r="U21">
-        <v>1.000001211500232</v>
+        <v>0.9991801772368423</v>
       </c>
       <c r="V21">
-        <v>0.9999988037880667</v>
+        <v>1.000810359578947</v>
       </c>
       <c r="W21">
-        <v>1.000001072011297</v>
+        <v>0.99927529125</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2020,67 +2026,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9999991544416285</v>
+        <v>0.9978669105263159</v>
       </c>
       <c r="D22">
-        <v>0.9999957527114924</v>
+        <v>0.9893345631578947</v>
       </c>
       <c r="E22">
-        <v>1.000002831313868</v>
+        <v>1.007110298947368</v>
       </c>
       <c r="F22">
-        <v>0.9999957527114924</v>
+        <v>0.9893345631578947</v>
       </c>
       <c r="G22">
-        <v>1.000001062561848</v>
+        <v>1.002666350526316</v>
       </c>
       <c r="H22">
-        <v>1.000001579236763</v>
+        <v>1.003958923684211</v>
       </c>
       <c r="I22">
-        <v>0.9999990867814664</v>
+        <v>0.9977082536842106</v>
       </c>
       <c r="J22">
-        <v>1.000002831313868</v>
+        <v>1.007110298947368</v>
       </c>
       <c r="K22">
-        <v>1.000002831313868</v>
+        <v>1.007110298947368</v>
       </c>
       <c r="L22">
-        <v>0.9999972423346497</v>
+        <v>0.9930652668421055</v>
       </c>
       <c r="M22">
-        <v>1.000001062561848</v>
+        <v>1.002666350526316</v>
       </c>
       <c r="N22">
-        <v>1.000002831313868</v>
+        <v>1.007110298947368</v>
       </c>
       <c r="O22">
-        <v>1.000001062561848</v>
+        <v>1.002666350526316</v>
       </c>
       <c r="P22">
-        <v>0.9999984076366704</v>
+        <v>0.9960004568421053</v>
       </c>
       <c r="Q22">
-        <v>1.000000074671657</v>
+        <v>1.000187302105263</v>
       </c>
       <c r="R22">
-        <v>0.9999998821957364</v>
+        <v>0.9997037375438597</v>
       </c>
       <c r="S22">
-        <v>0.9999986340182691</v>
+        <v>0.9965697224561403</v>
       </c>
       <c r="T22">
-        <v>0.9999998821957364</v>
+        <v>0.9997037375438597</v>
       </c>
       <c r="U22">
-        <v>0.9999996833421689</v>
+        <v>0.9992048665789475</v>
       </c>
       <c r="V22">
-        <v>1.000000312936509</v>
+        <v>1.000785953052632</v>
       </c>
       <c r="W22">
-        <v>0.9999997214929457</v>
+        <v>0.9992971147368421</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2091,67 +2097,67 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.000802506262872</v>
+        <v>1.00000325123103</v>
       </c>
       <c r="D23">
-        <v>1.00401254475068</v>
+        <v>1.000016246698306</v>
       </c>
       <c r="E23">
-        <v>0.9973249710934048</v>
+        <v>0.9999891729394074</v>
       </c>
       <c r="F23">
-        <v>1.00401254475068</v>
+        <v>1.000016246698306</v>
       </c>
       <c r="G23">
-        <v>0.9989968660173206</v>
+        <v>0.9999959388576023</v>
       </c>
       <c r="H23">
-        <v>0.9985105793061635</v>
+        <v>0.9999939776097011</v>
       </c>
       <c r="I23">
-        <v>1.000862207233465</v>
+        <v>1.000003487505612</v>
       </c>
       <c r="J23">
-        <v>0.9973249710934048</v>
+        <v>0.9999891729394074</v>
       </c>
       <c r="K23">
-        <v>0.9973249710934048</v>
+        <v>0.9999891729394074</v>
       </c>
       <c r="L23">
-        <v>1.002608983010344</v>
+        <v>1.000010562391112</v>
       </c>
       <c r="M23">
-        <v>0.9989968660173206</v>
+        <v>0.9999959388576023</v>
       </c>
       <c r="N23">
-        <v>0.9973249710934048</v>
+        <v>0.9999891729394074</v>
       </c>
       <c r="O23">
-        <v>0.9989968660173206</v>
+        <v>0.9999959388576023</v>
       </c>
       <c r="P23">
-        <v>1.001504705384</v>
+        <v>1.000006092777954</v>
       </c>
       <c r="Q23">
-        <v>0.9999295366253929</v>
+        <v>0.999999713181607</v>
       </c>
       <c r="R23">
-        <v>1.000111460620468</v>
+        <v>1.000000452831772</v>
       </c>
       <c r="S23">
-        <v>1.001290539333822</v>
+        <v>1.00000522435384</v>
       </c>
       <c r="T23">
-        <v>1.000111460620468</v>
+        <v>1.000000452831772</v>
       </c>
       <c r="U23">
-        <v>1.000299147273718</v>
+        <v>1.000001211500232</v>
       </c>
       <c r="V23">
-        <v>0.9997043120376551</v>
+        <v>0.9999988037880667</v>
       </c>
       <c r="W23">
-        <v>1.000264440461446</v>
+        <v>1.000001072011297</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2162,67 +2168,67 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.000208009063202</v>
+        <v>0.9999991544416285</v>
       </c>
       <c r="D24">
-        <v>1.001040039616234</v>
+        <v>0.9999957527114924</v>
       </c>
       <c r="E24">
-        <v>0.9993066421812604</v>
+        <v>1.000002831313868</v>
       </c>
       <c r="F24">
-        <v>1.001040039616234</v>
+        <v>0.9999957527114924</v>
       </c>
       <c r="G24">
-        <v>0.9997399888807381</v>
+        <v>1.000001062561848</v>
       </c>
       <c r="H24">
-        <v>0.9996139498440455</v>
+        <v>1.000001579236763</v>
       </c>
       <c r="I24">
-        <v>1.00022348233041</v>
+        <v>0.9999990867814664</v>
       </c>
       <c r="J24">
-        <v>0.9993066421812604</v>
+        <v>1.000002831313868</v>
       </c>
       <c r="K24">
-        <v>0.9993066421812604</v>
+        <v>1.000002831313868</v>
       </c>
       <c r="L24">
-        <v>1.000676236418479</v>
+        <v>0.9999972423346497</v>
       </c>
       <c r="M24">
-        <v>0.9997399888807381</v>
+        <v>1.000001062561848</v>
       </c>
       <c r="N24">
-        <v>0.9993066421812604</v>
+        <v>1.000002831313868</v>
       </c>
       <c r="O24">
-        <v>0.9997399888807381</v>
+        <v>1.000001062561848</v>
       </c>
       <c r="P24">
-        <v>1.000390014248486</v>
+        <v>0.9999984076366704</v>
       </c>
       <c r="Q24">
-        <v>0.9999817356055742</v>
+        <v>1.000000074671657</v>
       </c>
       <c r="R24">
-        <v>1.000028890226077</v>
+        <v>0.9999998821957364</v>
       </c>
       <c r="S24">
-        <v>1.000334503609127</v>
+        <v>0.9999986340182691</v>
       </c>
       <c r="T24">
-        <v>1.000028890226077</v>
+        <v>0.9999998821957364</v>
       </c>
       <c r="U24">
-        <v>1.000077538252161</v>
+        <v>0.9999996833421689</v>
       </c>
       <c r="V24">
-        <v>0.9999233590379806</v>
+        <v>1.000000312936509</v>
       </c>
       <c r="W24">
-        <v>1.000068542151888</v>
+        <v>0.9999997214929457</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2233,67 +2239,67 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.000194020052813</v>
+        <v>1.000802506262872</v>
       </c>
       <c r="D25">
-        <v>1.000970044224112</v>
+        <v>1.00401254475068</v>
       </c>
       <c r="E25">
-        <v>0.9993533042348421</v>
+        <v>0.9973249710934048</v>
       </c>
       <c r="F25">
-        <v>1.000970044224112</v>
+        <v>1.00401254475068</v>
       </c>
       <c r="G25">
-        <v>0.9997574869348043</v>
+        <v>0.9989968660173206</v>
       </c>
       <c r="H25">
-        <v>0.9996399257986494</v>
+        <v>0.9985105793061635</v>
       </c>
       <c r="I25">
-        <v>1.000208433244725</v>
+        <v>1.000862207233465</v>
       </c>
       <c r="J25">
-        <v>0.9993533042348421</v>
+        <v>0.9973249710934048</v>
       </c>
       <c r="K25">
-        <v>0.9993533042348421</v>
+        <v>0.9973249710934048</v>
       </c>
       <c r="L25">
-        <v>1.000630731069611</v>
+        <v>1.002608983010344</v>
       </c>
       <c r="M25">
-        <v>0.9997574869348043</v>
+        <v>0.9989968660173206</v>
       </c>
       <c r="N25">
-        <v>0.9993533042348421</v>
+        <v>0.9973249710934048</v>
       </c>
       <c r="O25">
-        <v>0.9997574869348043</v>
+        <v>0.9989968660173206</v>
       </c>
       <c r="P25">
-        <v>1.000363765579458</v>
+        <v>1.001504705384</v>
       </c>
       <c r="Q25">
-        <v>0.9999829600897648</v>
+        <v>0.9999295366253929</v>
       </c>
       <c r="R25">
-        <v>1.000026945131253</v>
+        <v>1.000111460620468</v>
       </c>
       <c r="S25">
-        <v>1.000311988134547</v>
+        <v>1.001290539333822</v>
       </c>
       <c r="T25">
-        <v>1.000026945131253</v>
+        <v>1.000111460620468</v>
       </c>
       <c r="U25">
-        <v>1.000072317159621</v>
+        <v>1.000299147273718</v>
       </c>
       <c r="V25">
-        <v>0.999928514574665</v>
+        <v>0.9997043120376551</v>
       </c>
       <c r="W25">
-        <v>1.000063929061795</v>
+        <v>1.000264440461446</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2304,67 +2310,67 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>1.000050163014436</v>
+        <v>1.000208009063202</v>
       </c>
       <c r="D26">
-        <v>1.000250803452359</v>
+        <v>1.001040039616234</v>
       </c>
       <c r="E26">
-        <v>0.9998328016334009</v>
+        <v>0.9993066421812604</v>
       </c>
       <c r="F26">
-        <v>1.000250803452359</v>
+        <v>1.001040039616234</v>
       </c>
       <c r="G26">
-        <v>0.9999372997620529</v>
+        <v>0.9997399888807381</v>
       </c>
       <c r="H26">
-        <v>0.9999069072746795</v>
+        <v>0.9996139498440455</v>
       </c>
       <c r="I26">
-        <v>1.000053888395534</v>
+        <v>1.00022348233041</v>
       </c>
       <c r="J26">
-        <v>0.9998328016334009</v>
+        <v>0.9993066421812604</v>
       </c>
       <c r="K26">
-        <v>0.9998328016334009</v>
+        <v>0.9993066421812604</v>
       </c>
       <c r="L26">
-        <v>1.000163072069299</v>
+        <v>1.000676236418479</v>
       </c>
       <c r="M26">
-        <v>0.9999372997620529</v>
+        <v>0.9997399888807381</v>
       </c>
       <c r="N26">
-        <v>0.9998328016334009</v>
+        <v>0.9993066421812604</v>
       </c>
       <c r="O26">
-        <v>0.9999372997620529</v>
+        <v>0.9997399888807381</v>
       </c>
       <c r="P26">
-        <v>1.000094051607206</v>
+        <v>1.000390014248486</v>
       </c>
       <c r="Q26">
-        <v>0.9999955940787937</v>
+        <v>0.9999817356055742</v>
       </c>
       <c r="R26">
-        <v>1.000006968282604</v>
+        <v>1.000028890226077</v>
       </c>
       <c r="S26">
-        <v>1.000080663869982</v>
+        <v>1.000334503609127</v>
       </c>
       <c r="T26">
-        <v>1.000006968282604</v>
+        <v>1.000028890226077</v>
       </c>
       <c r="U26">
-        <v>1.000018698310837</v>
+        <v>1.000077538252161</v>
       </c>
       <c r="V26">
-        <v>0.9999815189753495</v>
+        <v>0.9999233590379806</v>
       </c>
       <c r="W26">
-        <v>1.000016529420477</v>
+        <v>1.000068542151888</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2375,67 +2381,67 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.9997950679831376</v>
+        <v>1.000194020052813</v>
       </c>
       <c r="D27">
-        <v>0.9989754122851008</v>
+        <v>1.000970044224112</v>
       </c>
       <c r="E27">
-        <v>1.000683055130593</v>
+        <v>0.9993533042348421</v>
       </c>
       <c r="F27">
-        <v>0.9989754122851008</v>
+        <v>1.000970044224112</v>
       </c>
       <c r="G27">
-        <v>1.000256150288184</v>
+        <v>0.9997574869348043</v>
       </c>
       <c r="H27">
-        <v>1.000380313718002</v>
+        <v>0.9996399257986494</v>
       </c>
       <c r="I27">
-        <v>0.999779831212017</v>
+        <v>1.000208433244725</v>
       </c>
       <c r="J27">
-        <v>1.000683055130593</v>
+        <v>0.9993533042348421</v>
       </c>
       <c r="K27">
-        <v>1.000683055130593</v>
+        <v>0.9993533042348421</v>
       </c>
       <c r="L27">
-        <v>0.999333820255321</v>
+        <v>1.000630731069611</v>
       </c>
       <c r="M27">
-        <v>1.000256150288184</v>
+        <v>0.9997574869348043</v>
       </c>
       <c r="N27">
-        <v>1.000683055130593</v>
+        <v>0.9993533042348421</v>
       </c>
       <c r="O27">
-        <v>1.000256150288184</v>
+        <v>0.9997574869348043</v>
       </c>
       <c r="P27">
-        <v>0.9996157812866424</v>
+        <v>1.000363765579458</v>
       </c>
       <c r="Q27">
-        <v>1.000017990750101</v>
+        <v>0.9999829600897648</v>
       </c>
       <c r="R27">
-        <v>0.9999715392346259</v>
+        <v>1.000026945131253</v>
       </c>
       <c r="S27">
-        <v>0.9996704645951006</v>
+        <v>1.000311988134547</v>
       </c>
       <c r="T27">
-        <v>0.9999715392346259</v>
+        <v>1.000026945131253</v>
       </c>
       <c r="U27">
-        <v>0.9999236122289736</v>
+        <v>1.000072317159621</v>
       </c>
       <c r="V27">
-        <v>1.000075500809297</v>
+        <v>0.999928514574665</v>
       </c>
       <c r="W27">
-        <v>0.9999324751450674</v>
+        <v>1.000063929061795</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2446,67 +2452,67 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.9997785210774021</v>
+        <v>1.000050163014436</v>
       </c>
       <c r="D28">
-        <v>0.9988925978481382</v>
+        <v>1.000250803452359</v>
       </c>
       <c r="E28">
-        <v>1.000738268854098</v>
+        <v>0.9998328016334009</v>
       </c>
       <c r="F28">
-        <v>0.9988925978481382</v>
+        <v>1.000250803452359</v>
       </c>
       <c r="G28">
-        <v>1.000276855181368</v>
+        <v>0.9999372997620529</v>
       </c>
       <c r="H28">
-        <v>1.000411059032649</v>
+        <v>0.9999069072746795</v>
       </c>
       <c r="I28">
-        <v>0.999762040931674</v>
+        <v>1.000053888395534</v>
       </c>
       <c r="J28">
-        <v>1.000738268854098</v>
+        <v>0.9998328016334009</v>
       </c>
       <c r="K28">
-        <v>1.000738268854098</v>
+        <v>0.9998328016334009</v>
       </c>
       <c r="L28">
-        <v>0.9992799566510927</v>
+        <v>1.000163072069299</v>
       </c>
       <c r="M28">
-        <v>1.000276855181368</v>
+        <v>0.9999372997620529</v>
       </c>
       <c r="N28">
-        <v>1.000738268854098</v>
+        <v>0.9998328016334009</v>
       </c>
       <c r="O28">
-        <v>1.000276855181368</v>
+        <v>0.9999372997620529</v>
       </c>
       <c r="P28">
-        <v>0.9995847265147532</v>
+        <v>1.000094051607206</v>
       </c>
       <c r="Q28">
-        <v>1.000019448056521</v>
+        <v>0.9999955940787937</v>
       </c>
       <c r="R28">
-        <v>0.9999692406278681</v>
+        <v>1.000006968282604</v>
       </c>
       <c r="S28">
-        <v>0.9996438313203934</v>
+        <v>1.000080663869982</v>
       </c>
       <c r="T28">
-        <v>0.9999692406278681</v>
+        <v>1.000006968282604</v>
       </c>
       <c r="U28">
-        <v>0.9999174407038196</v>
+        <v>1.000018698310837</v>
       </c>
       <c r="V28">
-        <v>1.000081606333875</v>
+        <v>0.9999815189753495</v>
       </c>
       <c r="W28">
-        <v>0.9999270193447238</v>
+        <v>1.000016529420477</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2517,66 +2523,208 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>0.9997950679831376</v>
+      </c>
+      <c r="D29">
+        <v>0.9989754122851008</v>
+      </c>
+      <c r="E29">
+        <v>1.000683055130593</v>
+      </c>
+      <c r="F29">
+        <v>0.9989754122851008</v>
+      </c>
+      <c r="G29">
+        <v>1.000256150288184</v>
+      </c>
+      <c r="H29">
+        <v>1.000380313718002</v>
+      </c>
+      <c r="I29">
+        <v>0.999779831212017</v>
+      </c>
+      <c r="J29">
+        <v>1.000683055130593</v>
+      </c>
+      <c r="K29">
+        <v>1.000683055130593</v>
+      </c>
+      <c r="L29">
+        <v>0.999333820255321</v>
+      </c>
+      <c r="M29">
+        <v>1.000256150288184</v>
+      </c>
+      <c r="N29">
+        <v>1.000683055130593</v>
+      </c>
+      <c r="O29">
+        <v>1.000256150288184</v>
+      </c>
+      <c r="P29">
+        <v>0.9996157812866424</v>
+      </c>
+      <c r="Q29">
+        <v>1.000017990750101</v>
+      </c>
+      <c r="R29">
+        <v>0.9999715392346259</v>
+      </c>
+      <c r="S29">
+        <v>0.9996704645951006</v>
+      </c>
+      <c r="T29">
+        <v>0.9999715392346259</v>
+      </c>
+      <c r="U29">
+        <v>0.9999236122289736</v>
+      </c>
+      <c r="V29">
+        <v>1.000075500809297</v>
+      </c>
+      <c r="W29">
+        <v>0.9999324751450674</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9997785210774021</v>
+      </c>
+      <c r="D30">
+        <v>0.9988925978481382</v>
+      </c>
+      <c r="E30">
+        <v>1.000738268854098</v>
+      </c>
+      <c r="F30">
+        <v>0.9988925978481382</v>
+      </c>
+      <c r="G30">
+        <v>1.000276855181368</v>
+      </c>
+      <c r="H30">
+        <v>1.000411059032649</v>
+      </c>
+      <c r="I30">
+        <v>0.999762040931674</v>
+      </c>
+      <c r="J30">
+        <v>1.000738268854098</v>
+      </c>
+      <c r="K30">
+        <v>1.000738268854098</v>
+      </c>
+      <c r="L30">
+        <v>0.9992799566510927</v>
+      </c>
+      <c r="M30">
+        <v>1.000276855181368</v>
+      </c>
+      <c r="N30">
+        <v>1.000738268854098</v>
+      </c>
+      <c r="O30">
+        <v>1.000276855181368</v>
+      </c>
+      <c r="P30">
+        <v>0.9995847265147532</v>
+      </c>
+      <c r="Q30">
+        <v>1.000019448056521</v>
+      </c>
+      <c r="R30">
+        <v>0.9999692406278681</v>
+      </c>
+      <c r="S30">
+        <v>0.9996438313203934</v>
+      </c>
+      <c r="T30">
+        <v>0.9999692406278681</v>
+      </c>
+      <c r="U30">
+        <v>0.9999174407038196</v>
+      </c>
+      <c r="V30">
+        <v>1.000081606333875</v>
+      </c>
+      <c r="W30">
+        <v>0.9999270193447238</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>1.000407080863157</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>1.002035377164536</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>0.9986430942741782</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>1.002035377164536</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>0.9994911784473592</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>0.9992444917654071</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>1.000437344205353</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>0.9986430942741782</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>0.9986430942741782</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>1.001323404090686</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>0.9994911784473592</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>0.9986430942741782</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>0.9994911784473592</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.000763277805948</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>0.999964261326356</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.000056549962024</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.000654633272416</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>1.000056549962024</v>
       </c>
-      <c r="U29">
+      <c r="U31">
         <v>1.000151748522857</v>
       </c>
-      <c r="V29">
+      <c r="V31">
         <v>0.9998500176731209</v>
       </c>
-      <c r="W29">
+      <c r="W31">
         <v>1.000134143657254</v>
       </c>
     </row>
